--- a/BackTest/2019-10-21 BackTest FNB.xlsx
+++ b/BackTest/2019-10-21 BackTest FNB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>41.42999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>41.41999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>41.40999999999999</v>
       </c>
@@ -1322,7 +1328,9 @@
       <c r="J21" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>41.38999999999999</v>
       </c>
@@ -1369,7 +1377,9 @@
       <c r="J22" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-100</v>
+      </c>
       <c r="L22" t="n">
         <v>41.38</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>0.4999999999999929</v>
       </c>
       <c r="K25" t="n">
-        <v>-50.00000000000178</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L25" t="n">
         <v>41.34</v>
@@ -1760,7 +1770,7 @@
         <v>1.299999999999983</v>
       </c>
       <c r="K30" t="n">
-        <v>-27.27272727272751</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>41.26000000000001</v>
@@ -1809,7 +1819,7 @@
         <v>1.59999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7.692307692307944</v>
       </c>
       <c r="L31" t="n">
         <v>41.27000000000001</v>
@@ -1860,7 +1870,7 @@
         <v>1.699999999999982</v>
       </c>
       <c r="K32" t="n">
-        <v>6.666666666666857</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L32" t="n">
         <v>41.29000000000001</v>
@@ -1911,7 +1921,7 @@
         <v>1.999999999999979</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>41.28000000000001</v>
@@ -1962,7 +1972,7 @@
         <v>2.099999999999973</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.263157894737</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>41.29000000000001</v>
@@ -2013,7 +2023,7 @@
         <v>2.099999999999973</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.263157894737</v>
+        <v>6.666666666666352</v>
       </c>
       <c r="L35" t="n">
         <v>41.29000000000001</v>
@@ -2064,7 +2074,7 @@
         <v>2.099999999999973</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.263157894737</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L36" t="n">
         <v>41.30000000000001</v>
@@ -2115,7 +2125,7 @@
         <v>2.199999999999974</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L37" t="n">
         <v>41.29000000000001</v>
@@ -2166,7 +2176,7 @@
         <v>2.199999999999974</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L38" t="n">
         <v>41.31000000000001</v>
@@ -2217,7 +2227,7 @@
         <v>2.199999999999974</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>41.33000000000001</v>
@@ -2268,7 +2278,7 @@
         <v>2.39999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.090909090909033</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L40" t="n">
         <v>41.34</v>
@@ -2319,7 +2329,7 @@
         <v>2.39999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.761904761904569</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L41" t="n">
         <v>41.32000000000001</v>
@@ -2370,7 +2380,7 @@
         <v>2.39999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.761904761904569</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>41.29000000000001</v>
@@ -2472,7 +2482,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K44" t="n">
-        <v>4.761904761904569</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>41.3</v>
@@ -2574,7 +2584,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K46" t="n">
-        <v>5.263157894736606</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L46" t="n">
         <v>41.3</v>
@@ -2625,7 +2635,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.50000000000033</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L47" t="n">
         <v>41.29000000000001</v>
@@ -2676,7 +2686,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K48" t="n">
-        <v>7.692307692307356</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L48" t="n">
         <v>41.28000000000002</v>
@@ -2727,7 +2737,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307356</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>41.27000000000002</v>
@@ -2778,7 +2788,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K50" t="n">
-        <v>16.66666666666657</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>41.28000000000002</v>
@@ -2829,7 +2839,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K51" t="n">
-        <v>-11.11111111111146</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>41.29000000000002</v>
@@ -2879,9 +2889,7 @@
       <c r="J52" t="n">
         <v>2.499999999999964</v>
       </c>
-      <c r="K52" t="n">
-        <v>-25.00000000000089</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -2930,9 +2938,7 @@
       <c r="J53" t="n">
         <v>2.499999999999964</v>
       </c>
-      <c r="K53" t="n">
-        <v>19.99999999999943</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>2.599999999999959</v>
       </c>
       <c r="K54" t="n">
-        <v>-19.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L54" t="n">
         <v>41.29000000000002</v>
@@ -3033,7 +3039,7 @@
         <v>2.599999999999959</v>
       </c>
       <c r="K55" t="n">
-        <v>-19.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L55" t="n">
         <v>41.28000000000002</v>
@@ -3135,7 +3141,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K57" t="n">
-        <v>-20.00000000000114</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>41.28000000000002</v>
@@ -3186,7 +3192,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K58" t="n">
-        <v>-20.00000000000114</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>41.28000000000002</v>
@@ -3237,7 +3243,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K59" t="n">
-        <v>-20.00000000000114</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>41.28000000000002</v>
@@ -3288,7 +3294,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>41.28000000000002</v>
@@ -3339,7 +3345,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K61" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>41.28000000000002</v>
@@ -3390,7 +3396,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K62" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>41.28000000000002</v>
@@ -3441,7 +3447,7 @@
         <v>2.699999999999953</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
         <v>41.28000000000002</v>
@@ -3492,7 +3498,7 @@
         <v>2.899999999999956</v>
       </c>
       <c r="K64" t="n">
-        <v>50.00000000000178</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>41.31000000000002</v>
@@ -3543,7 +3549,7 @@
         <v>3.199999999999953</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.28571428571371</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L65" t="n">
         <v>41.31000000000002</v>
@@ -3594,7 +3600,7 @@
         <v>3.199999999999953</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571371</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L66" t="n">
         <v>41.30000000000002</v>
@@ -3951,7 +3957,7 @@
         <v>3.299999999999947</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L73" t="n">
         <v>41.30000000000002</v>
@@ -4002,7 +4008,7 @@
         <v>3.299999999999947</v>
       </c>
       <c r="K74" t="n">
-        <v>14.28571428571371</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>41.28000000000002</v>
@@ -4104,7 +4110,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>41.28000000000002</v>
@@ -4155,7 +4161,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>41.27000000000002</v>
@@ -4206,7 +4212,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>41.26000000000001</v>
@@ -4257,7 +4263,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>41.25000000000001</v>
@@ -4308,7 +4314,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K80" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>41.24000000000001</v>
@@ -4359,7 +4365,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L81" t="n">
         <v>41.23</v>
@@ -4410,7 +4416,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L82" t="n">
         <v>41.22000000000001</v>
@@ -4461,7 +4467,7 @@
         <v>3.399999999999942</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571371</v>
+        <v>-100</v>
       </c>
       <c r="L83" t="n">
         <v>41.21</v>
@@ -4511,9 +4517,7 @@
       <c r="J84" t="n">
         <v>3.399999999999942</v>
       </c>
-      <c r="K84" t="n">
-        <v>-60.00000000000114</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>41.2</v>
       </c>
@@ -4562,9 +4566,7 @@
       <c r="J85" t="n">
         <v>3.399999999999942</v>
       </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>41.2</v>
       </c>
@@ -4613,9 +4615,7 @@
       <c r="J86" t="n">
         <v>3.399999999999942</v>
       </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>41.2</v>
       </c>
@@ -4664,9 +4664,7 @@
       <c r="J87" t="n">
         <v>3.399999999999942</v>
       </c>
-      <c r="K87" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>41.2</v>
       </c>
@@ -4715,9 +4713,7 @@
       <c r="J88" t="n">
         <v>3.399999999999942</v>
       </c>
-      <c r="K88" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>41.2</v>
       </c>
@@ -4766,9 +4762,7 @@
       <c r="J89" t="n">
         <v>3.399999999999942</v>
       </c>
-      <c r="K89" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>41.2</v>
       </c>
@@ -4869,7 +4863,7 @@
         <v>3.599999999999945</v>
       </c>
       <c r="K91" t="n">
-        <v>-33.33333333333176</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>41.19</v>
@@ -4920,7 +4914,7 @@
         <v>3.599999999999945</v>
       </c>
       <c r="K92" t="n">
-        <v>-33.33333333333176</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>41.19</v>
@@ -4971,7 +4965,7 @@
         <v>3.699999999999946</v>
       </c>
       <c r="K93" t="n">
-        <v>-49.99999999999911</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>41.18000000000001</v>
@@ -5022,7 +5016,7 @@
         <v>3.699999999999946</v>
       </c>
       <c r="K94" t="n">
-        <v>-49.99999999999911</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>41.17000000000001</v>
@@ -5277,7 +5271,7 @@
         <v>3.899999999999949</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>41.13000000000002</v>
@@ -5328,7 +5322,7 @@
         <v>3.899999999999949</v>
       </c>
       <c r="K100" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>41.13000000000002</v>
@@ -5379,7 +5373,7 @@
         <v>3.899999999999949</v>
       </c>
       <c r="K101" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>41.12000000000003</v>
@@ -5430,7 +5424,7 @@
         <v>4.099999999999952</v>
       </c>
       <c r="K102" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L102" t="n">
         <v>41.09000000000002</v>
@@ -5481,7 +5475,7 @@
         <v>4.199999999999953</v>
       </c>
       <c r="K103" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>41.08000000000003</v>
@@ -5532,7 +5526,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L104" t="n">
         <v>41.08000000000003</v>
@@ -5583,7 +5577,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K105" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>41.07000000000003</v>
@@ -5634,7 +5628,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>41.07000000000003</v>
@@ -5685,7 +5679,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K107" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>41.07000000000003</v>
@@ -5736,7 +5730,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>41.07000000000003</v>
@@ -5787,7 +5781,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>41.07000000000003</v>
@@ -5889,7 +5883,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K111" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L111" t="n">
         <v>41.07000000000003</v>
@@ -5940,7 +5934,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K112" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
         <v>41.09000000000003</v>
@@ -5990,9 +5984,7 @@
       <c r="J113" t="n">
         <v>4.299999999999955</v>
       </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -6041,9 +6033,7 @@
       <c r="J114" t="n">
         <v>4.299999999999955</v>
       </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -6092,9 +6082,7 @@
       <c r="J115" t="n">
         <v>4.299999999999955</v>
       </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -6144,7 +6132,7 @@
         <v>4.49999999999995</v>
       </c>
       <c r="K116" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>41.12000000000003</v>
@@ -6195,7 +6183,7 @@
         <v>4.599999999999945</v>
       </c>
       <c r="K117" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L117" t="n">
         <v>41.13000000000003</v>
@@ -6246,7 +6234,7 @@
         <v>4.599999999999945</v>
       </c>
       <c r="K118" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L118" t="n">
         <v>41.14000000000003</v>
@@ -6297,7 +6285,7 @@
         <v>4.599999999999945</v>
       </c>
       <c r="K119" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L119" t="n">
         <v>41.15000000000002</v>
@@ -6348,7 +6336,7 @@
         <v>4.599999999999945</v>
       </c>
       <c r="K120" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L120" t="n">
         <v>41.16000000000002</v>
@@ -6399,7 +6387,7 @@
         <v>4.599999999999945</v>
       </c>
       <c r="K121" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L121" t="n">
         <v>41.17000000000002</v>
@@ -6450,7 +6438,7 @@
         <v>4.599999999999945</v>
       </c>
       <c r="K122" t="n">
-        <v>60.00000000000171</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L122" t="n">
         <v>41.18000000000001</v>
@@ -6501,7 +6489,7 @@
         <v>4.799999999999947</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L123" t="n">
         <v>41.17000000000001</v>
@@ -6603,7 +6591,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K125" t="n">
-        <v>14.28571428571458</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L125" t="n">
         <v>41.19</v>
@@ -6654,7 +6642,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K126" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>41.18</v>
@@ -6705,7 +6693,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K127" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>41.18</v>
@@ -6756,7 +6744,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>41.18</v>
@@ -6807,7 +6795,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K129" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>41.18</v>
@@ -6858,7 +6846,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K130" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>41.18</v>
@@ -6909,7 +6897,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K131" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>41.18</v>
@@ -6960,7 +6948,7 @@
         <v>4.99999999999995</v>
       </c>
       <c r="K132" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>41.18</v>
@@ -7011,7 +6999,7 @@
         <v>5.099999999999952</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L133" t="n">
         <v>41.19</v>
@@ -7062,7 +7050,7 @@
         <v>5.199999999999953</v>
       </c>
       <c r="K134" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>41.19</v>
@@ -7113,7 +7101,7 @@
         <v>5.299999999999955</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>41.18000000000001</v>
@@ -7164,7 +7152,7 @@
         <v>5.299999999999955</v>
       </c>
       <c r="K136" t="n">
-        <v>-24.99999999999933</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>41.17000000000001</v>
@@ -7266,7 +7254,7 @@
         <v>5.599999999999959</v>
       </c>
       <c r="K138" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>41.15000000000001</v>
@@ -7317,7 +7305,7 @@
         <v>5.69999999999996</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L139" t="n">
         <v>41.14000000000001</v>
@@ -7368,7 +7356,7 @@
         <v>5.69999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L140" t="n">
         <v>41.13000000000002</v>
@@ -7470,7 +7458,7 @@
         <v>5.799999999999962</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>41.13000000000002</v>
@@ -7521,7 +7509,7 @@
         <v>5.899999999999956</v>
       </c>
       <c r="K143" t="n">
-        <v>27.2727272727268</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L143" t="n">
         <v>41.15000000000002</v>
@@ -7572,7 +7560,7 @@
         <v>5.899999999999956</v>
       </c>
       <c r="K144" t="n">
-        <v>11.11111111111041</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L144" t="n">
         <v>41.16000000000002</v>
@@ -7623,7 +7611,7 @@
         <v>5.999999999999957</v>
       </c>
       <c r="K145" t="n">
-        <v>19.99999999999943</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L145" t="n">
         <v>41.19000000000001</v>
@@ -7674,7 +7662,7 @@
         <v>5.999999999999957</v>
       </c>
       <c r="K146" t="n">
-        <v>19.99999999999943</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L146" t="n">
         <v>41.22000000000001</v>
@@ -7725,7 +7713,7 @@
         <v>6.199999999999953</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L147" t="n">
         <v>41.22000000000001</v>
@@ -7776,7 +7764,7 @@
         <v>6.199999999999953</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L148" t="n">
         <v>41.24000000000001</v>
@@ -7827,7 +7815,7 @@
         <v>6.299999999999947</v>
       </c>
       <c r="K149" t="n">
-        <v>7.692307692307272</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>41.26000000000001</v>
@@ -7878,7 +7866,7 @@
         <v>6.299999999999947</v>
       </c>
       <c r="K150" t="n">
-        <v>7.692307692307272</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L150" t="n">
         <v>41.28000000000001</v>
@@ -7929,7 +7917,7 @@
         <v>6.299999999999947</v>
       </c>
       <c r="K151" t="n">
-        <v>7.692307692307272</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L151" t="n">
         <v>41.29000000000001</v>
@@ -7980,7 +7968,7 @@
         <v>6.49999999999995</v>
       </c>
       <c r="K152" t="n">
-        <v>19.99999999999981</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L152" t="n">
         <v>41.32000000000001</v>
@@ -8031,7 +8019,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K153" t="n">
-        <v>19.99999999999981</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L153" t="n">
         <v>41.33000000000001</v>
@@ -8082,7 +8070,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K154" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>41.34</v>
@@ -8133,7 +8121,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K155" t="n">
-        <v>23.07692307692291</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>41.34</v>
@@ -8184,7 +8172,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K156" t="n">
-        <v>23.07692307692291</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L156" t="n">
         <v>41.34</v>
@@ -8235,7 +8223,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K157" t="n">
-        <v>16.66666666666637</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L157" t="n">
         <v>41.36</v>
@@ -8286,7 +8274,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K158" t="n">
-        <v>40.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>41.38</v>
@@ -8439,7 +8427,7 @@
         <v>6.599999999999952</v>
       </c>
       <c r="K161" t="n">
-        <v>24.99999999999978</v>
+        <v>-100</v>
       </c>
       <c r="L161" t="n">
         <v>41.40999999999999</v>
@@ -8489,9 +8477,7 @@
       <c r="J162" t="n">
         <v>6.599999999999952</v>
       </c>
-      <c r="K162" t="n">
-        <v>24.99999999999978</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>41.39999999999999</v>
       </c>
@@ -8541,7 +8527,7 @@
         <v>6.699999999999953</v>
       </c>
       <c r="K163" t="n">
-        <v>25.00000000000044</v>
+        <v>100</v>
       </c>
       <c r="L163" t="n">
         <v>41.40999999999999</v>
@@ -8592,7 +8578,7 @@
         <v>6.899999999999956</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>41.39999999999999</v>
@@ -8643,7 +8629,7 @@
         <v>6.99999999999995</v>
       </c>
       <c r="K165" t="n">
-        <v>-19.99999999999972</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L165" t="n">
         <v>41.38</v>
@@ -8694,7 +8680,7 @@
         <v>6.99999999999995</v>
       </c>
       <c r="K166" t="n">
-        <v>-19.99999999999972</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L166" t="n">
         <v>41.36</v>
@@ -8745,7 +8731,7 @@
         <v>7.199999999999946</v>
       </c>
       <c r="K167" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>41.36</v>
@@ -8796,7 +8782,7 @@
         <v>7.199999999999946</v>
       </c>
       <c r="K168" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>41.36</v>
@@ -8847,7 +8833,7 @@
         <v>7.199999999999946</v>
       </c>
       <c r="K169" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>41.36</v>
@@ -8898,7 +8884,7 @@
         <v>7.299999999999947</v>
       </c>
       <c r="K170" t="n">
-        <v>20.00000000000028</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L170" t="n">
         <v>41.37</v>
@@ -8949,7 +8935,7 @@
         <v>7.299999999999947</v>
       </c>
       <c r="K171" t="n">
-        <v>20.00000000000028</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L171" t="n">
         <v>41.38</v>
@@ -9051,7 +9037,7 @@
         <v>7.399999999999949</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L173" t="n">
         <v>41.38</v>
@@ -9102,7 +9088,7 @@
         <v>7.399999999999949</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L174" t="n">
         <v>41.39</v>
@@ -9153,7 +9139,7 @@
         <v>7.399999999999949</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L175" t="n">
         <v>41.41</v>
@@ -9306,7 +9292,7 @@
         <v>7.49999999999995</v>
       </c>
       <c r="K178" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>41.42</v>
@@ -9357,7 +9343,7 @@
         <v>7.699999999999946</v>
       </c>
       <c r="K179" t="n">
-        <v>-27.27272727272715</v>
+        <v>-100</v>
       </c>
       <c r="L179" t="n">
         <v>41.39</v>
@@ -9408,7 +9394,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K180" t="n">
-        <v>-38.46153846153855</v>
+        <v>-100</v>
       </c>
       <c r="L180" t="n">
         <v>41.33</v>
@@ -9459,7 +9445,7 @@
         <v>7.99999999999995</v>
       </c>
       <c r="K181" t="n">
-        <v>-28.5714285714285</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L181" t="n">
         <v>41.28</v>
@@ -9510,7 +9496,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K182" t="n">
-        <v>-19.99999999999981</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L182" t="n">
         <v>41.24</v>
@@ -9561,7 +9547,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K183" t="n">
-        <v>-28.5714285714285</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L183" t="n">
         <v>41.21000000000001</v>
@@ -9612,7 +9598,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K184" t="n">
-        <v>-16.66666666666637</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L184" t="n">
         <v>41.18000000000001</v>
@@ -9663,7 +9649,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.090909090909207</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L185" t="n">
         <v>41.15000000000002</v>
@@ -9714,7 +9700,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.090909090909207</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L186" t="n">
         <v>41.12000000000002</v>
@@ -9765,7 +9751,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K187" t="n">
-        <v>-33.33333333333281</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L187" t="n">
         <v>41.09000000000002</v>
@@ -9816,7 +9802,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K188" t="n">
-        <v>-33.33333333333281</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>41.07000000000003</v>
@@ -9867,7 +9853,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K189" t="n">
-        <v>-33.33333333333281</v>
+        <v>100</v>
       </c>
       <c r="L189" t="n">
         <v>41.07000000000003</v>
@@ -9918,7 +9904,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K190" t="n">
-        <v>-49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>41.09000000000003</v>
@@ -9969,7 +9955,7 @@
         <v>8.199999999999953</v>
       </c>
       <c r="K191" t="n">
-        <v>-55.5555555555552</v>
+        <v>-100</v>
       </c>
       <c r="L191" t="n">
         <v>41.09000000000003</v>
@@ -10020,7 +10006,7 @@
         <v>8.299999999999955</v>
       </c>
       <c r="K192" t="n">
-        <v>-39.99999999999957</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>41.09000000000003</v>
@@ -10071,7 +10057,7 @@
         <v>8.399999999999956</v>
       </c>
       <c r="K193" t="n">
-        <v>-39.99999999999957</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>41.08000000000003</v>
@@ -10122,7 +10108,7 @@
         <v>8.499999999999957</v>
       </c>
       <c r="K194" t="n">
-        <v>-27.2727272727268</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>41.08000000000003</v>
@@ -10173,7 +10159,7 @@
         <v>8.599999999999959</v>
       </c>
       <c r="K195" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20</v>
       </c>
       <c r="L195" t="n">
         <v>41.07000000000003</v>
@@ -10224,7 +10210,7 @@
         <v>8.599999999999959</v>
       </c>
       <c r="K196" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20</v>
       </c>
       <c r="L196" t="n">
         <v>41.06000000000002</v>
@@ -10275,7 +10261,7 @@
         <v>8.69999999999996</v>
       </c>
       <c r="K197" t="n">
-        <v>-38.46153846153813</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>41.04000000000002</v>
@@ -10326,7 +10312,7 @@
         <v>8.69999999999996</v>
       </c>
       <c r="K198" t="n">
-        <v>-33.33333333333294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>41.02000000000002</v>
@@ -10377,7 +10363,7 @@
         <v>8.799999999999962</v>
       </c>
       <c r="K199" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L199" t="n">
         <v>40.99000000000002</v>
@@ -10428,7 +10414,7 @@
         <v>8.899999999999963</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L200" t="n">
         <v>40.97000000000001</v>
@@ -10479,7 +10465,7 @@
         <v>8.999999999999964</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L201" t="n">
         <v>40.97000000000001</v>
@@ -10530,7 +10516,7 @@
         <v>9.099999999999966</v>
       </c>
       <c r="K202" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>40.95</v>
@@ -10581,7 +10567,7 @@
         <v>9.099999999999966</v>
       </c>
       <c r="K203" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>40.94</v>
@@ -10683,7 +10669,7 @@
         <v>9.199999999999967</v>
       </c>
       <c r="K205" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>40.9</v>
@@ -10734,7 +10720,7 @@
         <v>9.299999999999969</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>40.89</v>
@@ -10785,7 +10771,7 @@
         <v>9.499999999999964</v>
       </c>
       <c r="K207" t="n">
-        <v>-28.57142857142821</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L207" t="n">
         <v>40.87</v>
@@ -10836,7 +10822,7 @@
         <v>9.499999999999964</v>
       </c>
       <c r="K208" t="n">
-        <v>-28.57142857142821</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L208" t="n">
         <v>40.85</v>
@@ -10887,7 +10873,7 @@
         <v>9.599999999999959</v>
       </c>
       <c r="K209" t="n">
-        <v>-20.00000000000019</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L209" t="n">
         <v>40.85</v>
@@ -10938,7 +10924,7 @@
         <v>9.599999999999959</v>
       </c>
       <c r="K210" t="n">
-        <v>-20.00000000000019</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L210" t="n">
         <v>40.84</v>
@@ -10989,7 +10975,7 @@
         <v>9.69999999999996</v>
       </c>
       <c r="K211" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>40.83</v>
@@ -11040,7 +11026,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K212" t="n">
-        <v>-6.66666666666673</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L212" t="n">
         <v>40.84</v>
@@ -11091,7 +11077,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L213" t="n">
         <v>40.85000000000001</v>
@@ -11142,7 +11128,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K214" t="n">
-        <v>-7.692307692307776</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L214" t="n">
         <v>40.86000000000001</v>
@@ -11193,7 +11179,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L215" t="n">
         <v>40.88000000000001</v>
@@ -11244,7 +11230,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>40.89000000000001</v>
@@ -11295,7 +11281,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K217" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
         <v>40.92000000000001</v>
@@ -11346,7 +11332,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K218" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L218" t="n">
         <v>40.95000000000001</v>
@@ -11397,7 +11383,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K219" t="n">
-        <v>20.00000000000028</v>
+        <v>100</v>
       </c>
       <c r="L219" t="n">
         <v>40.97000000000001</v>
@@ -11448,7 +11434,7 @@
         <v>9.799999999999962</v>
       </c>
       <c r="K220" t="n">
-        <v>11.11111111111129</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>40.99000000000001</v>
@@ -11499,7 +11485,7 @@
         <v>9.899999999999963</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111129</v>
+        <v>-100</v>
       </c>
       <c r="L221" t="n">
         <v>40.99000000000001</v>
@@ -11550,7 +11536,7 @@
         <v>9.899999999999963</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L222" t="n">
         <v>40.98</v>
@@ -11601,7 +11587,7 @@
         <v>9.899999999999963</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L223" t="n">
         <v>40.97000000000001</v>
@@ -11652,7 +11638,7 @@
         <v>9.899999999999963</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>40.96</v>
@@ -11703,7 +11689,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K225" t="n">
-        <v>25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>40.96</v>
@@ -11754,7 +11740,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K226" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>40.96</v>
@@ -11805,7 +11791,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K227" t="n">
-        <v>59.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>40.96</v>
@@ -11856,7 +11842,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K228" t="n">
-        <v>59.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>40.96</v>
@@ -11907,7 +11893,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K229" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>40.96</v>
@@ -11958,7 +11944,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K230" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L230" t="n">
         <v>40.96</v>
@@ -12009,7 +11995,7 @@
         <v>9.999999999999964</v>
       </c>
       <c r="K231" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L231" t="n">
         <v>40.97000000000001</v>
@@ -12060,7 +12046,7 @@
         <v>10.09999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L232" t="n">
         <v>40.99000000000001</v>
@@ -12111,7 +12097,7 @@
         <v>10.19999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L233" t="n">
         <v>41.02000000000001</v>
@@ -12162,7 +12148,7 @@
         <v>10.19999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L234" t="n">
         <v>41.05000000000001</v>
@@ -12213,7 +12199,7 @@
         <v>10.29999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>41.06000000000002</v>
@@ -12264,7 +12250,7 @@
         <v>10.49999999999996</v>
       </c>
       <c r="K236" t="n">
-        <v>42.85714285714228</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L236" t="n">
         <v>41.09000000000002</v>
@@ -12315,7 +12301,7 @@
         <v>10.49999999999996</v>
       </c>
       <c r="K237" t="n">
-        <v>42.85714285714228</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L237" t="n">
         <v>41.12000000000002</v>
@@ -12366,7 +12352,7 @@
         <v>10.69999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>55.5555555555552</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L238" t="n">
         <v>41.17000000000002</v>
@@ -12417,7 +12403,7 @@
         <v>10.79999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>39.99999999999957</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L239" t="n">
         <v>41.21000000000002</v>
@@ -12468,7 +12454,7 @@
         <v>10.79999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>39.99999999999957</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L240" t="n">
         <v>41.25000000000001</v>
@@ -12519,7 +12505,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>39.99999999999957</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L241" t="n">
         <v>41.28000000000002</v>
@@ -12570,7 +12556,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>39.99999999999957</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L242" t="n">
         <v>41.30000000000001</v>
@@ -12621,7 +12607,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>39.99999999999957</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L243" t="n">
         <v>41.31000000000002</v>
@@ -12672,7 +12658,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>39.99999999999957</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L244" t="n">
         <v>41.32000000000001</v>
@@ -12723,7 +12709,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K245" t="n">
-        <v>33.33333333333281</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>41.34000000000002</v>
@@ -12774,7 +12760,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>33.33333333333281</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>41.34000000000002</v>
@@ -12825,7 +12811,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K247" t="n">
-        <v>33.33333333333281</v>
+        <v>-100</v>
       </c>
       <c r="L247" t="n">
         <v>41.34000000000002</v>
@@ -12876,7 +12862,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>33.33333333333281</v>
+        <v>-100</v>
       </c>
       <c r="L248" t="n">
         <v>41.32000000000001</v>
@@ -12927,7 +12913,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>33.33333333333281</v>
+        <v>-100</v>
       </c>
       <c r="L249" t="n">
         <v>41.31000000000002</v>
@@ -12977,9 +12963,7 @@
       <c r="J250" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K250" t="n">
-        <v>33.33333333333281</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13028,9 +13012,7 @@
       <c r="J251" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K251" t="n">
-        <v>33.33333333333281</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13079,9 +13061,7 @@
       <c r="J252" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K252" t="n">
-        <v>24.99999999999933</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13130,9 +13110,7 @@
       <c r="J253" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K253" t="n">
-        <v>14.28571428571342</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13181,9 +13159,7 @@
       <c r="J254" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K254" t="n">
-        <v>14.28571428571342</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13232,9 +13208,7 @@
       <c r="J255" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K255" t="n">
-        <v>33.33333333333254</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13283,9 +13257,7 @@
       <c r="J256" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K256" t="n">
-        <v>0</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13334,9 +13306,7 @@
       <c r="J257" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K257" t="n">
-        <v>0</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13385,9 +13355,7 @@
       <c r="J258" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K258" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13436,9 +13404,7 @@
       <c r="J259" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K259" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13487,9 +13453,7 @@
       <c r="J260" t="n">
         <v>10.89999999999997</v>
       </c>
-      <c r="K260" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>41.30000000000003</v>
       </c>
@@ -13998,7 +13962,7 @@
         <v>11.49999999999995</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L270" t="n">
         <v>41.32000000000001</v>
@@ -14202,7 +14166,7 @@
         <v>11.49999999999995</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L274" t="n">
         <v>41.33000000000001</v>
@@ -14253,7 +14217,7 @@
         <v>11.49999999999995</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L275" t="n">
         <v>41.32000000000001</v>
@@ -14304,7 +14268,7 @@
         <v>11.59999999999994</v>
       </c>
       <c r="K276" t="n">
-        <v>-14.285714285714</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L276" t="n">
         <v>41.30000000000001</v>
@@ -14355,7 +14319,7 @@
         <v>11.69999999999994</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L277" t="n">
         <v>41.29000000000001</v>
@@ -14406,7 +14370,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K278" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>41.27000000000002</v>
@@ -14457,7 +14421,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K279" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>41.27000000000002</v>
@@ -14508,7 +14472,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L280" t="n">
         <v>41.26000000000001</v>
@@ -14559,7 +14523,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>41.25000000000001</v>
@@ -14610,7 +14574,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K282" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>41.24000000000001</v>
@@ -14661,7 +14625,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K283" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>41.23</v>
@@ -14712,7 +14676,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K284" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>41.22000000000001</v>
@@ -14763,7 +14727,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K285" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>41.21</v>
@@ -14814,7 +14778,7 @@
         <v>11.79999999999993</v>
       </c>
       <c r="K286" t="n">
-        <v>-33.33333333333412</v>
+        <v>-100</v>
       </c>
       <c r="L286" t="n">
         <v>41.21</v>
@@ -14864,9 +14828,7 @@
       <c r="J287" t="n">
         <v>11.79999999999993</v>
       </c>
-      <c r="K287" t="n">
-        <v>-33.33333333333412</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>41.2</v>
       </c>
@@ -14915,9 +14877,7 @@
       <c r="J288" t="n">
         <v>11.79999999999993</v>
       </c>
-      <c r="K288" t="n">
-        <v>-33.33333333333412</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>41.2</v>
       </c>
@@ -14967,7 +14927,7 @@
         <v>12.09999999999994</v>
       </c>
       <c r="K289" t="n">
-        <v>-42.85714285714459</v>
+        <v>-100</v>
       </c>
       <c r="L289" t="n">
         <v>41.17</v>
@@ -15018,7 +14978,7 @@
         <v>12.49999999999994</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L290" t="n">
         <v>41.18</v>
@@ -15069,7 +15029,7 @@
         <v>12.49999999999994</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L291" t="n">
         <v>41.19</v>
@@ -15120,7 +15080,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K292" t="n">
-        <v>-16.66666666666657</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L292" t="n">
         <v>41.18000000000001</v>
@@ -15171,7 +15131,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K293" t="n">
-        <v>-16.66666666666657</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L293" t="n">
         <v>41.17000000000001</v>
@@ -15222,7 +15182,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K294" t="n">
-        <v>-16.66666666666657</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L294" t="n">
         <v>41.16000000000001</v>
@@ -15273,7 +15233,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K295" t="n">
-        <v>-16.66666666666657</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L295" t="n">
         <v>41.15000000000002</v>
@@ -15324,7 +15284,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K296" t="n">
-        <v>-9.090909090909326</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L296" t="n">
         <v>41.14000000000002</v>
@@ -15375,7 +15335,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K297" t="n">
-        <v>-19.99999999999972</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L297" t="n">
         <v>41.13000000000002</v>
@@ -15426,7 +15386,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K298" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L298" t="n">
         <v>41.12000000000003</v>
@@ -15477,7 +15437,7 @@
         <v>12.89999999999993</v>
       </c>
       <c r="K299" t="n">
-        <v>9.090909090908621</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>41.16000000000003</v>
@@ -15528,7 +15488,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L300" t="n">
         <v>41.15000000000003</v>
@@ -15579,7 +15539,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L301" t="n">
         <v>41.14000000000003</v>
@@ -15630,7 +15590,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L302" t="n">
         <v>41.15000000000002</v>
@@ -15681,7 +15641,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L303" t="n">
         <v>41.16000000000002</v>
@@ -15732,7 +15692,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L304" t="n">
         <v>41.17000000000002</v>
@@ -15783,7 +15743,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L305" t="n">
         <v>41.18000000000001</v>
@@ -15834,7 +15794,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L306" t="n">
         <v>41.19000000000001</v>
@@ -15885,7 +15845,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L307" t="n">
         <v>41.2</v>
@@ -15936,7 +15896,7 @@
         <v>12.99999999999992</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L308" t="n">
         <v>41.21</v>
@@ -15986,9 +15946,7 @@
       <c r="J309" t="n">
         <v>12.99999999999992</v>
       </c>
-      <c r="K309" t="n">
-        <v>33.33333333333439</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>41.2</v>
       </c>
@@ -16037,9 +15995,7 @@
       <c r="J310" t="n">
         <v>12.99999999999992</v>
       </c>
-      <c r="K310" t="n">
-        <v>-19.99999999999943</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>41.2</v>
       </c>
@@ -16088,9 +16044,7 @@
       <c r="J311" t="n">
         <v>12.99999999999992</v>
       </c>
-      <c r="K311" t="n">
-        <v>-19.99999999999943</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>41.2</v>
       </c>
@@ -16139,9 +16093,7 @@
       <c r="J312" t="n">
         <v>12.99999999999992</v>
       </c>
-      <c r="K312" t="n">
-        <v>33.33333333333491</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>41.2</v>
       </c>
@@ -16190,9 +16142,7 @@
       <c r="J313" t="n">
         <v>12.99999999999992</v>
       </c>
-      <c r="K313" t="n">
-        <v>33.33333333333491</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>41.2</v>
       </c>
@@ -16241,9 +16191,7 @@
       <c r="J314" t="n">
         <v>12.99999999999992</v>
       </c>
-      <c r="K314" t="n">
-        <v>33.33333333333491</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>41.2</v>
       </c>
@@ -16293,7 +16241,7 @@
         <v>13.09999999999992</v>
       </c>
       <c r="K315" t="n">
-        <v>50.00000000000089</v>
+        <v>100</v>
       </c>
       <c r="L315" t="n">
         <v>41.21</v>
@@ -16344,7 +16292,7 @@
         <v>13.09999999999992</v>
       </c>
       <c r="K316" t="n">
-        <v>50.00000000000089</v>
+        <v>100</v>
       </c>
       <c r="L316" t="n">
         <v>41.22000000000001</v>
@@ -16395,7 +16343,7 @@
         <v>13.09999999999992</v>
       </c>
       <c r="K317" t="n">
-        <v>50.00000000000089</v>
+        <v>100</v>
       </c>
       <c r="L317" t="n">
         <v>41.23</v>
@@ -16446,7 +16394,7 @@
         <v>13.09999999999992</v>
       </c>
       <c r="K318" t="n">
-        <v>50.00000000000089</v>
+        <v>100</v>
       </c>
       <c r="L318" t="n">
         <v>41.24000000000001</v>
@@ -16497,7 +16445,7 @@
         <v>13.09999999999992</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L319" t="n">
         <v>41.25000000000001</v>
@@ -16752,7 +16700,7 @@
         <v>13.19999999999991</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L324" t="n">
         <v>41.25000000000001</v>
@@ -16803,7 +16751,7 @@
         <v>13.19999999999991</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L325" t="n">
         <v>41.24000000000001</v>
@@ -16854,7 +16802,7 @@
         <v>13.19999999999991</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L326" t="n">
         <v>41.23</v>
@@ -16905,7 +16853,7 @@
         <v>13.19999999999991</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L327" t="n">
         <v>41.22000000000001</v>
@@ -16956,7 +16904,7 @@
         <v>13.19999999999991</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L328" t="n">
         <v>41.21</v>
@@ -17007,7 +16955,7 @@
         <v>13.2999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L329" t="n">
         <v>41.21</v>
@@ -17058,7 +17006,7 @@
         <v>13.2999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L330" t="n">
         <v>41.22000000000001</v>
@@ -17109,7 +17057,7 @@
         <v>13.2999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L331" t="n">
         <v>41.23</v>
@@ -17160,7 +17108,7 @@
         <v>13.2999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L332" t="n">
         <v>41.24000000000001</v>
@@ -17211,7 +17159,7 @@
         <v>13.2999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L333" t="n">
         <v>41.25000000000001</v>
@@ -17262,7 +17210,7 @@
         <v>13.2999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L334" t="n">
         <v>41.26000000000001</v>
@@ -17313,7 +17261,7 @@
         <v>13.39999999999991</v>
       </c>
       <c r="K335" t="n">
-        <v>33.33333333333491</v>
+        <v>100</v>
       </c>
       <c r="L335" t="n">
         <v>41.28000000000002</v>
@@ -17364,7 +17312,7 @@
         <v>13.39999999999991</v>
       </c>
       <c r="K336" t="n">
-        <v>33.33333333333491</v>
+        <v>100</v>
       </c>
       <c r="L336" t="n">
         <v>41.30000000000001</v>
@@ -17415,7 +17363,7 @@
         <v>13.39999999999991</v>
       </c>
       <c r="K337" t="n">
-        <v>33.33333333333491</v>
+        <v>100</v>
       </c>
       <c r="L337" t="n">
         <v>41.32000000000001</v>
@@ -17466,7 +17414,7 @@
         <v>13.39999999999991</v>
       </c>
       <c r="K338" t="n">
-        <v>33.33333333333491</v>
+        <v>100</v>
       </c>
       <c r="L338" t="n">
         <v>41.34000000000001</v>
@@ -17517,7 +17465,7 @@
         <v>13.5999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>-19.99999999999943</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L339" t="n">
         <v>41.33000000000001</v>
@@ -17568,7 +17516,7 @@
         <v>13.5999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L340" t="n">
         <v>41.32000000000001</v>
@@ -17619,7 +17567,7 @@
         <v>13.6999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>41.32000000000001</v>
@@ -17670,7 +17618,7 @@
         <v>13.6999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>41.32000000000001</v>
@@ -17721,7 +17669,7 @@
         <v>13.6999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>41.32000000000001</v>
@@ -17772,7 +17720,7 @@
         <v>13.6999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>19.99999999999943</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L344" t="n">
         <v>41.32000000000001</v>
@@ -17823,7 +17771,7 @@
         <v>13.6999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>19.99999999999943</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L345" t="n">
         <v>41.31000000000001</v>
@@ -17874,7 +17822,7 @@
         <v>13.6999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>19.99999999999943</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L346" t="n">
         <v>41.30000000000001</v>
@@ -17925,7 +17873,7 @@
         <v>13.9999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L347" t="n">
         <v>41.32000000000001</v>
@@ -17976,7 +17924,7 @@
         <v>14.2999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>9.090909090908621</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L348" t="n">
         <v>41.31000000000002</v>
@@ -18027,7 +17975,7 @@
         <v>14.2999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L349" t="n">
         <v>41.32000000000002</v>
@@ -18129,7 +18077,7 @@
         <v>14.3999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>-9.090909090908621</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L351" t="n">
         <v>41.32000000000002</v>
@@ -18180,7 +18128,7 @@
         <v>14.5999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-23.07692307692291</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L352" t="n">
         <v>41.29000000000002</v>
@@ -18231,7 +18179,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>-6.666666666666288</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L353" t="n">
         <v>41.28000000000002</v>
@@ -18282,7 +18230,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>-6.666666666666288</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L354" t="n">
         <v>41.27000000000002</v>
@@ -18333,7 +18281,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>-14.285714285714</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L355" t="n">
         <v>41.26000000000001</v>
@@ -18384,7 +18332,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>-14.285714285714</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L356" t="n">
         <v>41.25000000000001</v>
@@ -18435,7 +18383,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-14.285714285714</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L357" t="n">
         <v>41.21000000000001</v>
@@ -18486,7 +18434,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-14.285714285714</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L358" t="n">
         <v>41.2</v>
@@ -18537,7 +18485,7 @@
         <v>14.7999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L359" t="n">
         <v>41.19</v>
@@ -18588,7 +18536,7 @@
         <v>14.99999999999991</v>
       </c>
       <c r="K360" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>41.16</v>
@@ -18639,7 +18587,7 @@
         <v>15.09999999999991</v>
       </c>
       <c r="K361" t="n">
-        <v>-28.57142857142821</v>
+        <v>-20</v>
       </c>
       <c r="L361" t="n">
         <v>41.13</v>
@@ -18690,7 +18638,7 @@
         <v>15.19999999999991</v>
       </c>
       <c r="K362" t="n">
-        <v>-19.99999999999962</v>
+        <v>-50</v>
       </c>
       <c r="L362" t="n">
         <v>41.13</v>
@@ -18741,7 +18689,7 @@
         <v>15.29999999999991</v>
       </c>
       <c r="K363" t="n">
-        <v>-12.49999999999961</v>
+        <v>-20</v>
       </c>
       <c r="L363" t="n">
         <v>41.12</v>
@@ -18792,7 +18740,7 @@
         <v>15.29999999999991</v>
       </c>
       <c r="K364" t="n">
-        <v>-12.49999999999961</v>
+        <v>-20</v>
       </c>
       <c r="L364" t="n">
         <v>41.11000000000001</v>
@@ -18843,7 +18791,7 @@
         <v>15.39999999999991</v>
       </c>
       <c r="K365" t="n">
-        <v>-17.64705882352907</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>41.09000000000001</v>
@@ -18894,7 +18842,7 @@
         <v>15.39999999999991</v>
       </c>
       <c r="K366" t="n">
-        <v>-17.64705882352907</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>41.07000000000001</v>
@@ -18945,7 +18893,7 @@
         <v>15.49999999999991</v>
       </c>
       <c r="K367" t="n">
-        <v>-46.66666666666642</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L367" t="n">
         <v>41.04000000000001</v>
@@ -18996,7 +18944,7 @@
         <v>15.49999999999991</v>
       </c>
       <c r="K368" t="n">
-        <v>-33.33333333333294</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L368" t="n">
         <v>41.01000000000001</v>
@@ -19047,7 +18995,7 @@
         <v>15.49999999999991</v>
       </c>
       <c r="K369" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20</v>
       </c>
       <c r="L369" t="n">
         <v>40.98</v>
@@ -19098,7 +19046,7 @@
         <v>15.49999999999991</v>
       </c>
       <c r="K370" t="n">
-        <v>-33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>40.97000000000001</v>
@@ -19149,7 +19097,7 @@
         <v>15.59999999999992</v>
       </c>
       <c r="K371" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L371" t="n">
         <v>40.96000000000001</v>
@@ -19200,7 +19148,7 @@
         <v>15.69999999999992</v>
       </c>
       <c r="K372" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L372" t="n">
         <v>40.95</v>
@@ -19251,7 +19199,7 @@
         <v>15.69999999999992</v>
       </c>
       <c r="K373" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L373" t="n">
         <v>40.93</v>
@@ -19404,7 +19352,7 @@
         <v>15.79999999999992</v>
       </c>
       <c r="K376" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>40.88</v>
@@ -19455,7 +19403,7 @@
         <v>15.99999999999992</v>
       </c>
       <c r="K377" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>40.89</v>
@@ -19506,7 +19454,7 @@
         <v>16.09999999999992</v>
       </c>
       <c r="K378" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>40.89</v>
@@ -19557,7 +19505,7 @@
         <v>16.19999999999992</v>
       </c>
       <c r="K379" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L379" t="n">
         <v>40.9</v>
@@ -19608,7 +19556,7 @@
         <v>16.29999999999993</v>
       </c>
       <c r="K380" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L380" t="n">
         <v>40.9</v>
@@ -19710,7 +19658,7 @@
         <v>16.39999999999993</v>
       </c>
       <c r="K382" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L382" t="n">
         <v>40.9</v>
@@ -19761,7 +19709,7 @@
         <v>16.49999999999993</v>
       </c>
       <c r="K383" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>40.9</v>
@@ -19812,7 +19760,7 @@
         <v>16.59999999999993</v>
       </c>
       <c r="K384" t="n">
-        <v>-23.07692307692308</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L384" t="n">
         <v>40.89</v>
@@ -19863,7 +19811,7 @@
         <v>16.69999999999993</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L385" t="n">
         <v>40.89</v>
@@ -19914,7 +19862,7 @@
         <v>16.69999999999993</v>
       </c>
       <c r="K386" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L386" t="n">
         <v>40.9</v>
@@ -20016,7 +19964,7 @@
         <v>16.69999999999993</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L388" t="n">
         <v>40.89</v>
@@ -20169,7 +20117,7 @@
         <v>16.69999999999993</v>
       </c>
       <c r="K391" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>40.88</v>
@@ -20271,7 +20219,7 @@
         <v>16.69999999999993</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L393" t="n">
         <v>40.88999999999999</v>
@@ -20321,9 +20269,7 @@
       <c r="J394" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K394" t="n">
-        <v>0</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20372,9 +20318,7 @@
       <c r="J395" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K395" t="n">
-        <v>0</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20423,9 +20367,7 @@
       <c r="J396" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K396" t="n">
-        <v>11.11111111111111</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20474,9 +20416,7 @@
       <c r="J397" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K397" t="n">
-        <v>-14.28571428571428</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20525,9 +20465,7 @@
       <c r="J398" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K398" t="n">
-        <v>0</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20576,9 +20514,7 @@
       <c r="J399" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K399" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20627,9 +20563,7 @@
       <c r="J400" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K400" t="n">
-        <v>0</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20678,9 +20612,7 @@
       <c r="J401" t="n">
         <v>16.69999999999993</v>
       </c>
-      <c r="K401" t="n">
-        <v>0</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -20730,7 +20662,7 @@
         <v>16.89999999999993</v>
       </c>
       <c r="K402" t="n">
-        <v>-19.99999999999886</v>
+        <v>-100</v>
       </c>
       <c r="L402" t="n">
         <v>40.87999999999999</v>
@@ -20832,7 +20764,7 @@
         <v>17.09999999999992</v>
       </c>
       <c r="K404" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>40.87999999999999</v>
@@ -21189,7 +21121,7 @@
         <v>17.09999999999992</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L411" t="n">
         <v>40.87999999999999</v>
@@ -21239,9 +21171,7 @@
       <c r="J412" t="n">
         <v>17.09999999999992</v>
       </c>
-      <c r="K412" t="n">
-        <v>0</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -21290,9 +21220,7 @@
       <c r="J413" t="n">
         <v>17.09999999999992</v>
       </c>
-      <c r="K413" t="n">
-        <v>0</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -21342,7 +21270,7 @@
         <v>17.39999999999993</v>
       </c>
       <c r="K414" t="n">
-        <v>42.85714285714373</v>
+        <v>100</v>
       </c>
       <c r="L414" t="n">
         <v>40.92999999999999</v>
@@ -21444,7 +21372,7 @@
         <v>17.99999999999994</v>
       </c>
       <c r="K416" t="n">
-        <v>23.07692307692333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L416" t="n">
         <v>40.95999999999999</v>
@@ -21750,7 +21678,7 @@
         <v>18.29999999999994</v>
       </c>
       <c r="K422" t="n">
-        <v>14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L422" t="n">
         <v>40.95999999999999</v>
@@ -21801,7 +21729,7 @@
         <v>18.29999999999994</v>
       </c>
       <c r="K423" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>40.95999999999999</v>
@@ -21903,7 +21831,7 @@
         <v>18.29999999999994</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L425" t="n">
         <v>40.92999999999999</v>
@@ -21954,7 +21882,7 @@
         <v>18.49999999999994</v>
       </c>
       <c r="K426" t="n">
-        <v>-14.28571428571385</v>
+        <v>-100</v>
       </c>
       <c r="L426" t="n">
         <v>40.87999999999999</v>
@@ -22005,7 +21933,7 @@
         <v>18.59999999999993</v>
       </c>
       <c r="K427" t="n">
-        <v>-6.66666666666673</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L427" t="n">
         <v>40.86999999999999</v>
@@ -22056,7 +21984,7 @@
         <v>18.59999999999993</v>
       </c>
       <c r="K428" t="n">
-        <v>-6.66666666666673</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L428" t="n">
         <v>40.86</v>
@@ -22107,7 +22035,7 @@
         <v>18.69999999999992</v>
       </c>
       <c r="K429" t="n">
-        <v>-12.49999999999972</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L429" t="n">
         <v>40.84</v>
@@ -22158,7 +22086,7 @@
         <v>18.69999999999992</v>
       </c>
       <c r="K430" t="n">
-        <v>-12.49999999999972</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L430" t="n">
         <v>40.82</v>
@@ -22209,7 +22137,7 @@
         <v>18.69999999999992</v>
       </c>
       <c r="K431" t="n">
-        <v>-12.49999999999972</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L431" t="n">
         <v>40.8</v>
@@ -22311,7 +22239,7 @@
         <v>18.99999999999992</v>
       </c>
       <c r="K433" t="n">
-        <v>-5.263157894736921</v>
+        <v>-14.28571428571487</v>
       </c>
       <c r="L433" t="n">
         <v>40.79000000000001</v>
@@ -22362,7 +22290,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K434" t="n">
-        <v>-17.64705882352971</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>40.79000000000001</v>
@@ -22413,7 +22341,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>40.79000000000001</v>
@@ -22464,7 +22392,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K436" t="n">
-        <v>-27.27272727272798</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L436" t="n">
         <v>40.81</v>
@@ -22515,7 +22443,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L437" t="n">
         <v>40.82</v>
@@ -22566,7 +22494,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L438" t="n">
         <v>40.83</v>
@@ -22617,7 +22545,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L439" t="n">
         <v>40.84999999999999</v>
@@ -22668,7 +22596,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L440" t="n">
         <v>40.86999999999999</v>
@@ -22770,7 +22698,7 @@
         <v>19.09999999999992</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L442" t="n">
         <v>40.88999999999999</v>
@@ -22820,9 +22748,7 @@
       <c r="J443" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K443" t="n">
-        <v>0</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -22871,9 +22797,7 @@
       <c r="J444" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K444" t="n">
-        <v>0</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -22922,9 +22846,7 @@
       <c r="J445" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K445" t="n">
-        <v>0</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -22973,9 +22895,7 @@
       <c r="J446" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K446" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23024,9 +22944,7 @@
       <c r="J447" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K447" t="n">
-        <v>20.00000000000057</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23075,9 +22993,7 @@
       <c r="J448" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K448" t="n">
-        <v>20.00000000000057</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23126,9 +23042,7 @@
       <c r="J449" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K449" t="n">
-        <v>49.99999999999911</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23177,9 +23091,7 @@
       <c r="J450" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K450" t="n">
-        <v>49.99999999999911</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23228,9 +23140,7 @@
       <c r="J451" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K451" t="n">
-        <v>49.99999999999911</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23279,9 +23189,7 @@
       <c r="J452" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K452" t="n">
-        <v>0</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -23330,9 +23238,7 @@
       <c r="J453" t="n">
         <v>19.09999999999992</v>
       </c>
-      <c r="K453" t="n">
-        <v>100</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -24184,7 +24090,7 @@
         <v>19.29999999999993</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L470" t="n">
         <v>40.92999999999999</v>
@@ -24235,7 +24141,7 @@
         <v>19.29999999999993</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L471" t="n">
         <v>40.91999999999999</v>
@@ -24286,7 +24192,7 @@
         <v>19.29999999999993</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L472" t="n">
         <v>40.90999999999999</v>
@@ -24336,9 +24242,7 @@
       <c r="J473" t="n">
         <v>19.29999999999993</v>
       </c>
-      <c r="K473" t="n">
-        <v>0</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -24387,9 +24291,7 @@
       <c r="J474" t="n">
         <v>19.29999999999993</v>
       </c>
-      <c r="K474" t="n">
-        <v>0</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -24438,9 +24340,7 @@
       <c r="J475" t="n">
         <v>19.29999999999993</v>
       </c>
-      <c r="K475" t="n">
-        <v>0</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -24490,7 +24390,7 @@
         <v>19.39999999999993</v>
       </c>
       <c r="K476" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L476" t="n">
         <v>40.88999999999999</v>
@@ -24745,7 +24645,7 @@
         <v>19.49999999999993</v>
       </c>
       <c r="K481" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>40.88999999999999</v>
@@ -24796,7 +24696,7 @@
         <v>19.49999999999993</v>
       </c>
       <c r="K482" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>40.88999999999999</v>
@@ -24847,7 +24747,7 @@
         <v>19.49999999999993</v>
       </c>
       <c r="K483" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L483" t="n">
         <v>40.88999999999999</v>
@@ -24949,7 +24849,7 @@
         <v>19.49999999999993</v>
       </c>
       <c r="K485" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L485" t="n">
         <v>40.88999999999999</v>
@@ -24999,9 +24899,7 @@
       <c r="J486" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K486" t="n">
-        <v>0</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25050,9 +24948,7 @@
       <c r="J487" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K487" t="n">
-        <v>0</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25101,9 +24997,7 @@
       <c r="J488" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K488" t="n">
-        <v>0</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25152,9 +25046,7 @@
       <c r="J489" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K489" t="n">
-        <v>0</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25203,9 +25095,7 @@
       <c r="J490" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K490" t="n">
-        <v>0</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25254,9 +25144,7 @@
       <c r="J491" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K491" t="n">
-        <v>0</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25305,9 +25193,7 @@
       <c r="J492" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K492" t="n">
-        <v>0</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25356,9 +25242,7 @@
       <c r="J493" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K493" t="n">
-        <v>0</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25407,9 +25291,7 @@
       <c r="J494" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K494" t="n">
-        <v>0</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25458,9 +25340,7 @@
       <c r="J495" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K495" t="n">
-        <v>0</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -25509,9 +25389,7 @@
       <c r="J496" t="n">
         <v>19.49999999999993</v>
       </c>
-      <c r="K496" t="n">
-        <v>100</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -26216,7 +26094,7 @@
         <v>20.19999999999994</v>
       </c>
       <c r="K510" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>41.02000000000002</v>
@@ -26267,7 +26145,7 @@
         <v>20.19999999999994</v>
       </c>
       <c r="K511" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>41.02000000000002</v>
@@ -26318,7 +26196,7 @@
         <v>20.29999999999994</v>
       </c>
       <c r="K512" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
         <v>41.03000000000002</v>
@@ -26369,7 +26247,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K513" t="n">
-        <v>39.99999999999957</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L513" t="n">
         <v>41.05000000000003</v>
@@ -26420,7 +26298,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K514" t="n">
-        <v>39.99999999999957</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L514" t="n">
         <v>41.07000000000002</v>
@@ -26471,7 +26349,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K515" t="n">
-        <v>39.99999999999957</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L515" t="n">
         <v>41.09000000000002</v>
@@ -26522,7 +26400,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K516" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L516" t="n">
         <v>41.11000000000002</v>
@@ -26573,7 +26451,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K517" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L517" t="n">
         <v>41.16000000000002</v>
@@ -26624,7 +26502,7 @@
         <v>20.79999999999993</v>
       </c>
       <c r="K518" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L518" t="n">
         <v>41.16000000000002</v>
@@ -26675,7 +26553,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K519" t="n">
-        <v>14.28571428571443</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L519" t="n">
         <v>41.17000000000002</v>
@@ -26726,7 +26604,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K520" t="n">
-        <v>14.28571428571443</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L520" t="n">
         <v>41.18000000000002</v>
@@ -26777,7 +26655,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K521" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>41.19000000000003</v>
@@ -26828,7 +26706,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K522" t="n">
-        <v>7.692307692307776</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L522" t="n">
         <v>41.19000000000003</v>
@@ -26879,7 +26757,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L523" t="n">
         <v>41.17000000000003</v>
@@ -26930,7 +26808,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K524" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L524" t="n">
         <v>41.15000000000003</v>
@@ -26981,7 +26859,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K525" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L525" t="n">
         <v>41.13000000000003</v>
@@ -27032,7 +26910,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K526" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L526" t="n">
         <v>41.11000000000003</v>
@@ -27083,7 +26961,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K527" t="n">
-        <v>33.33333333333386</v>
+        <v>100</v>
       </c>
       <c r="L527" t="n">
         <v>41.09000000000003</v>
@@ -27133,9 +27011,7 @@
       <c r="J528" t="n">
         <v>20.89999999999993</v>
       </c>
-      <c r="K528" t="n">
-        <v>14.28571428571458</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -27184,9 +27060,7 @@
       <c r="J529" t="n">
         <v>20.89999999999993</v>
       </c>
-      <c r="K529" t="n">
-        <v>14.28571428571458</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -27235,9 +27109,7 @@
       <c r="J530" t="n">
         <v>20.89999999999993</v>
       </c>
-      <c r="K530" t="n">
-        <v>14.28571428571458</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -27286,9 +27158,7 @@
       <c r="J531" t="n">
         <v>20.89999999999993</v>
       </c>
-      <c r="K531" t="n">
-        <v>14.28571428571458</v>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -27337,9 +27207,7 @@
       <c r="J532" t="n">
         <v>20.89999999999993</v>
       </c>
-      <c r="K532" t="n">
-        <v>0</v>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -27389,7 +27257,7 @@
         <v>21.19999999999993</v>
       </c>
       <c r="K533" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L533" t="n">
         <v>41.13000000000003</v>
@@ -27440,7 +27308,7 @@
         <v>21.49999999999993</v>
       </c>
       <c r="K534" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
         <v>41.13000000000003</v>
@@ -27491,7 +27359,7 @@
         <v>21.59999999999993</v>
       </c>
       <c r="K535" t="n">
-        <v>-27.27272727272715</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L535" t="n">
         <v>41.12000000000003</v>
@@ -27542,7 +27410,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K536" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L536" t="n">
         <v>41.10000000000002</v>
@@ -27593,7 +27461,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K537" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L537" t="n">
         <v>41.08000000000002</v>
@@ -27644,7 +27512,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K538" t="n">
-        <v>-11.11111111111129</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L538" t="n">
         <v>41.06000000000002</v>
@@ -27848,7 +27716,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K542" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L542" t="n">
         <v>40.98</v>
@@ -27899,7 +27767,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K543" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L543" t="n">
         <v>40.92999999999999</v>
@@ -27950,7 +27818,7 @@
         <v>21.69999999999993</v>
       </c>
       <c r="K544" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L544" t="n">
         <v>40.90999999999999</v>
@@ -28001,7 +27869,7 @@
         <v>21.79999999999993</v>
       </c>
       <c r="K545" t="n">
-        <v>-33.33333333333386</v>
+        <v>-100</v>
       </c>
       <c r="L545" t="n">
         <v>40.88999999999999</v>
@@ -28052,7 +27920,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K546" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L546" t="n">
         <v>40.86999999999999</v>
@@ -28103,7 +27971,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K547" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L547" t="n">
         <v>40.84999999999999</v>
@@ -28154,7 +28022,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K548" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L548" t="n">
         <v>40.83</v>
@@ -28205,7 +28073,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K549" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L549" t="n">
         <v>40.81</v>
@@ -28256,7 +28124,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K550" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L550" t="n">
         <v>40.79</v>
@@ -28307,7 +28175,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K551" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L551" t="n">
         <v>40.77</v>
@@ -28358,7 +28226,7 @@
         <v>21.89999999999993</v>
       </c>
       <c r="K552" t="n">
-        <v>-40.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L552" t="n">
         <v>40.75</v>
@@ -28510,9 +28378,7 @@
       <c r="J555" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K555" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>40.7</v>
       </c>
@@ -28561,9 +28427,7 @@
       <c r="J556" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K556" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>40.7</v>
       </c>
@@ -28612,9 +28476,7 @@
       <c r="J557" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K557" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>40.7</v>
       </c>
@@ -28663,9 +28525,7 @@
       <c r="J558" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K558" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>40.7</v>
       </c>
@@ -28714,9 +28574,7 @@
       <c r="J559" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K559" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>40.7</v>
       </c>
@@ -28765,9 +28623,7 @@
       <c r="J560" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K560" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>40.7</v>
       </c>
@@ -28816,9 +28672,7 @@
       <c r="J561" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K561" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>40.7</v>
       </c>
@@ -28867,9 +28721,7 @@
       <c r="J562" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K562" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>40.7</v>
       </c>
@@ -28918,9 +28770,7 @@
       <c r="J563" t="n">
         <v>21.89999999999993</v>
       </c>
-      <c r="K563" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>40.7</v>
       </c>
@@ -28970,7 +28820,7 @@
         <v>22.29999999999993</v>
       </c>
       <c r="K564" t="n">
-        <v>33.33333333333412</v>
+        <v>100</v>
       </c>
       <c r="L564" t="n">
         <v>40.74</v>
@@ -29021,7 +28871,7 @@
         <v>22.69999999999992</v>
       </c>
       <c r="K565" t="n">
-        <v>-11.11111111111058</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>40.74</v>
@@ -29429,7 +29279,7 @@
         <v>22.69999999999992</v>
       </c>
       <c r="K573" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L573" t="n">
         <v>40.74</v>
@@ -29479,9 +29329,7 @@
       <c r="J574" t="n">
         <v>22.69999999999992</v>
       </c>
-      <c r="K574" t="n">
-        <v>0</v>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>40.7</v>
       </c>
@@ -29530,9 +29378,7 @@
       <c r="J575" t="n">
         <v>22.69999999999992</v>
       </c>
-      <c r="K575" t="n">
-        <v>0</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>40.7</v>
       </c>
@@ -29581,9 +29427,7 @@
       <c r="J576" t="n">
         <v>22.69999999999992</v>
       </c>
-      <c r="K576" t="n">
-        <v>0</v>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>40.7</v>
       </c>
@@ -29632,9 +29476,7 @@
       <c r="J577" t="n">
         <v>22.69999999999992</v>
       </c>
-      <c r="K577" t="n">
-        <v>0</v>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>40.7</v>
       </c>
@@ -29683,9 +29525,7 @@
       <c r="J578" t="n">
         <v>22.69999999999992</v>
       </c>
-      <c r="K578" t="n">
-        <v>0</v>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>40.7</v>
       </c>
@@ -29734,9 +29574,7 @@
       <c r="J579" t="n">
         <v>22.69999999999992</v>
       </c>
-      <c r="K579" t="n">
-        <v>0</v>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>40.7</v>
       </c>
@@ -29786,7 +29624,7 @@
         <v>22.79999999999992</v>
       </c>
       <c r="K580" t="n">
-        <v>11.11111111111058</v>
+        <v>100</v>
       </c>
       <c r="L580" t="n">
         <v>40.71</v>
@@ -29837,7 +29675,7 @@
         <v>22.79999999999992</v>
       </c>
       <c r="K581" t="n">
-        <v>11.11111111111058</v>
+        <v>100</v>
       </c>
       <c r="L581" t="n">
         <v>40.72000000000001</v>
@@ -29888,7 +29726,7 @@
         <v>22.79999999999992</v>
       </c>
       <c r="K582" t="n">
-        <v>11.11111111111058</v>
+        <v>100</v>
       </c>
       <c r="L582" t="n">
         <v>40.73</v>
@@ -29939,7 +29777,7 @@
         <v>22.79999999999992</v>
       </c>
       <c r="K583" t="n">
-        <v>11.11111111111058</v>
+        <v>100</v>
       </c>
       <c r="L583" t="n">
         <v>40.74000000000001</v>
@@ -29990,7 +29828,7 @@
         <v>22.79999999999992</v>
       </c>
       <c r="K584" t="n">
-        <v>-60.00000000000171</v>
+        <v>100</v>
       </c>
       <c r="L584" t="n">
         <v>40.75000000000001</v>
@@ -30244,9 +30082,7 @@
       <c r="J589" t="n">
         <v>22.79999999999992</v>
       </c>
-      <c r="K589" t="n">
-        <v>100</v>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>40.80000000000003</v>
       </c>
@@ -30295,9 +30131,7 @@
       <c r="J590" t="n">
         <v>22.79999999999992</v>
       </c>
-      <c r="K590" t="n">
-        <v>100</v>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>40.80000000000003</v>
       </c>
@@ -30346,9 +30180,7 @@
       <c r="J591" t="n">
         <v>22.79999999999992</v>
       </c>
-      <c r="K591" t="n">
-        <v>100</v>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>40.80000000000003</v>
       </c>
@@ -30397,9 +30229,7 @@
       <c r="J592" t="n">
         <v>22.79999999999992</v>
       </c>
-      <c r="K592" t="n">
-        <v>100</v>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>40.80000000000003</v>
       </c>
@@ -30908,7 +30738,7 @@
         <v>23.79999999999993</v>
       </c>
       <c r="K602" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L602" t="n">
         <v>40.95999999999999</v>
@@ -30959,7 +30789,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K603" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>40.95999999999999</v>
@@ -31010,7 +30840,7 @@
         <v>24.29999999999994</v>
       </c>
       <c r="K604" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L604" t="n">
         <v>40.98</v>
@@ -31061,7 +30891,7 @@
         <v>24.29999999999994</v>
       </c>
       <c r="K605" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L605" t="n">
         <v>41</v>
@@ -31112,7 +30942,7 @@
         <v>24.59999999999994</v>
       </c>
       <c r="K606" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L606" t="n">
         <v>40.99</v>
@@ -31163,7 +30993,7 @@
         <v>24.69999999999995</v>
       </c>
       <c r="K607" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L607" t="n">
         <v>40.99</v>
@@ -31214,7 +31044,7 @@
         <v>24.99999999999995</v>
       </c>
       <c r="K608" t="n">
-        <v>18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L608" t="n">
         <v>41.02</v>
@@ -31265,7 +31095,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K609" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L609" t="n">
         <v>41.02</v>
@@ -31316,7 +31146,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K610" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>40.99</v>
@@ -31367,7 +31197,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K611" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="L611" t="n">
         <v>40.99</v>
@@ -31418,7 +31248,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K612" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L612" t="n">
         <v>40.96</v>
@@ -31469,7 +31299,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K613" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L613" t="n">
         <v>40.96</v>
@@ -31520,7 +31350,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K614" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L614" t="n">
         <v>40.94</v>
@@ -31571,7 +31401,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K615" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L615" t="n">
         <v>40.91999999999999</v>
@@ -31673,7 +31503,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K617" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L617" t="n">
         <v>40.92999999999999</v>
@@ -31723,9 +31553,7 @@
       <c r="J618" t="n">
         <v>25.29999999999995</v>
       </c>
-      <c r="K618" t="n">
-        <v>0</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -31774,9 +31602,7 @@
       <c r="J619" t="n">
         <v>25.29999999999995</v>
       </c>
-      <c r="K619" t="n">
-        <v>0</v>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>40.89999999999999</v>
       </c>
@@ -31826,7 +31652,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K620" t="n">
-        <v>-4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L620" t="n">
         <v>40.91999999999999</v>
@@ -31877,7 +31703,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K621" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L621" t="n">
         <v>40.94</v>
@@ -31928,7 +31754,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K622" t="n">
-        <v>-5.88235294117647</v>
+        <v>100</v>
       </c>
       <c r="L622" t="n">
         <v>40.96</v>
@@ -31979,7 +31805,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K623" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L623" t="n">
         <v>40.98</v>
@@ -32030,7 +31856,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K624" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L624" t="n">
         <v>41.00000000000001</v>
@@ -32081,7 +31907,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K625" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L625" t="n">
         <v>41.02000000000002</v>
@@ -32132,7 +31958,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K626" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L626" t="n">
         <v>41.04000000000002</v>
@@ -32183,7 +32009,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K627" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L627" t="n">
         <v>41.06000000000002</v>
@@ -32234,7 +32060,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K628" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L628" t="n">
         <v>41.07000000000003</v>
@@ -32285,7 +32111,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K629" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L629" t="n">
         <v>41.08000000000003</v>
@@ -32336,7 +32162,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K630" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L630" t="n">
         <v>41.07000000000003</v>
@@ -32387,7 +32213,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K631" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L631" t="n">
         <v>41.06000000000002</v>
@@ -32438,7 +32264,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K632" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L632" t="n">
         <v>41.05000000000003</v>
@@ -32489,7 +32315,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K633" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L633" t="n">
         <v>41.04000000000002</v>
@@ -32540,7 +32366,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K634" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L634" t="n">
         <v>41.03000000000002</v>
@@ -32591,7 +32417,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K635" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L635" t="n">
         <v>41.02000000000002</v>
@@ -32642,7 +32468,7 @@
         <v>25.59999999999996</v>
       </c>
       <c r="K636" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L636" t="n">
         <v>41.01000000000001</v>
@@ -32696,9 +32522,7 @@
       <c r="J637" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K637" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -32755,9 +32579,7 @@
       <c r="J638" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K638" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -32814,9 +32636,7 @@
       <c r="J639" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K639" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -32873,9 +32693,7 @@
       <c r="J640" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K640" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -32932,9 +32750,7 @@
       <c r="J641" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K641" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -32991,9 +32807,7 @@
       <c r="J642" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K642" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -33050,9 +32864,7 @@
       <c r="J643" t="n">
         <v>25.59999999999996</v>
       </c>
-      <c r="K643" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -33226,7 +33038,7 @@
         <v>25.89999999999996</v>
       </c>
       <c r="K646" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L646" t="n">
         <v>40.96000000000001</v>
@@ -33289,7 +33101,7 @@
         <v>25.89999999999996</v>
       </c>
       <c r="K647" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L647" t="n">
         <v>40.95</v>
@@ -33657,7 +33469,7 @@
         <v>25.89999999999996</v>
       </c>
       <c r="K653" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L653" t="n">
         <v>40.88999999999999</v>
@@ -33718,7 +33530,7 @@
         <v>26.09999999999997</v>
       </c>
       <c r="K654" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L654" t="n">
         <v>40.91</v>
@@ -33779,7 +33591,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K655" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L655" t="n">
         <v>40.92999999999999</v>
@@ -33836,7 +33648,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>40.94</v>
@@ -33893,7 +33705,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K657" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L657" t="n">
         <v>40.95</v>
@@ -33950,7 +33762,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L658" t="n">
         <v>40.96</v>
@@ -34007,7 +33819,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K659" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L659" t="n">
         <v>40.97000000000001</v>
@@ -34064,7 +33876,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K660" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L660" t="n">
         <v>40.98</v>
@@ -34121,7 +33933,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K661" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L661" t="n">
         <v>40.99000000000001</v>
@@ -34178,7 +33990,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K662" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L662" t="n">
         <v>41.00000000000001</v>
@@ -34235,7 +34047,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K663" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L663" t="n">
         <v>41.01000000000001</v>
@@ -34285,9 +34097,7 @@
       <c r="J664" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K664" t="n">
-        <v>20</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34336,9 +34146,7 @@
       <c r="J665" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K665" t="n">
-        <v>50</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34387,9 +34195,7 @@
       <c r="J666" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K666" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34438,9 +34244,7 @@
       <c r="J667" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K667" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34489,9 +34293,7 @@
       <c r="J668" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K668" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34540,9 +34342,7 @@
       <c r="J669" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K669" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34591,9 +34391,7 @@
       <c r="J670" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K670" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34642,9 +34440,7 @@
       <c r="J671" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K671" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34693,9 +34489,7 @@
       <c r="J672" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K672" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34744,9 +34538,7 @@
       <c r="J673" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K673" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -34795,9 +34587,7 @@
       <c r="J674" t="n">
         <v>26.19999999999997</v>
       </c>
-      <c r="K674" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -35600,7 +35390,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K690" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L690" t="n">
         <v>40.91999999999999</v>
@@ -35651,7 +35441,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K691" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L691" t="n">
         <v>40.92999999999999</v>
@@ -35702,7 +35492,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K692" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L692" t="n">
         <v>40.94</v>
@@ -35753,7 +35543,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K693" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L693" t="n">
         <v>40.95</v>
@@ -35804,7 +35594,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K694" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L694" t="n">
         <v>40.96</v>
@@ -35855,7 +35645,7 @@
         <v>26.59999999999997</v>
       </c>
       <c r="K695" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L695" t="n">
         <v>40.95</v>
@@ -35906,7 +35696,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K696" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L696" t="n">
         <v>40.95</v>
@@ -35957,7 +35747,7 @@
         <v>26.79999999999998</v>
       </c>
       <c r="K697" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L697" t="n">
         <v>40.96000000000001</v>
@@ -36008,7 +35798,7 @@
         <v>26.89999999999998</v>
       </c>
       <c r="K698" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L698" t="n">
         <v>40.98000000000001</v>
@@ -36059,7 +35849,7 @@
         <v>26.89999999999998</v>
       </c>
       <c r="K699" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L699" t="n">
         <v>40.99000000000002</v>
@@ -36110,7 +35900,7 @@
         <v>26.99999999999998</v>
       </c>
       <c r="K700" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L700" t="n">
         <v>41.01000000000001</v>
@@ -36161,7 +35951,7 @@
         <v>26.99999999999998</v>
       </c>
       <c r="K701" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L701" t="n">
         <v>41.03000000000002</v>
@@ -36212,7 +36002,7 @@
         <v>26.99999999999998</v>
       </c>
       <c r="K702" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L702" t="n">
         <v>41.05000000000001</v>
@@ -36263,7 +36053,7 @@
         <v>27.09999999999998</v>
       </c>
       <c r="K703" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L703" t="n">
         <v>41.06000000000002</v>
@@ -36314,7 +36104,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K704" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L704" t="n">
         <v>41.06000000000002</v>
@@ -36365,7 +36155,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K705" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L705" t="n">
         <v>41.08000000000001</v>
@@ -36416,7 +36206,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K706" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L706" t="n">
         <v>41.09000000000002</v>
@@ -36467,7 +36257,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K707" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L707" t="n">
         <v>41.09000000000002</v>
@@ -36518,7 +36308,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K708" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L708" t="n">
         <v>41.08000000000001</v>
@@ -36569,7 +36359,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K709" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L709" t="n">
         <v>41.07000000000001</v>
@@ -36620,7 +36410,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K710" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L710" t="n">
         <v>41.05000000000001</v>
@@ -36671,7 +36461,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K711" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L711" t="n">
         <v>41.03000000000002</v>
@@ -36722,7 +36512,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K712" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L712" t="n">
         <v>41.01000000000001</v>
@@ -36772,9 +36562,7 @@
       <c r="J713" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="K713" t="n">
-        <v>0</v>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -36823,9 +36611,7 @@
       <c r="J714" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="K714" t="n">
-        <v>0</v>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -36874,9 +36660,7 @@
       <c r="J715" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="K715" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -36925,9 +36709,7 @@
       <c r="J716" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="K716" t="n">
-        <v>20</v>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -36977,7 +36759,7 @@
         <v>27.29999999999998</v>
       </c>
       <c r="K717" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L717" t="n">
         <v>40.99000000000001</v>
@@ -37028,7 +36810,7 @@
         <v>27.29999999999998</v>
       </c>
       <c r="K718" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L718" t="n">
         <v>40.98</v>
@@ -37079,7 +36861,7 @@
         <v>27.29999999999998</v>
       </c>
       <c r="K719" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L719" t="n">
         <v>40.97000000000001</v>
@@ -37436,7 +37218,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K726" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L726" t="n">
         <v>40.92999999999999</v>
@@ -37487,7 +37269,7 @@
         <v>27.69999999999998</v>
       </c>
       <c r="K727" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L727" t="n">
         <v>40.96999999999999</v>
@@ -37538,7 +37320,7 @@
         <v>27.69999999999998</v>
       </c>
       <c r="K728" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L728" t="n">
         <v>41.01</v>
@@ -37589,7 +37371,7 @@
         <v>27.69999999999998</v>
       </c>
       <c r="K729" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L729" t="n">
         <v>41.05</v>
@@ -37640,7 +37422,7 @@
         <v>27.69999999999998</v>
       </c>
       <c r="K730" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L730" t="n">
         <v>41.09</v>
@@ -37691,7 +37473,7 @@
         <v>27.69999999999998</v>
       </c>
       <c r="K731" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L731" t="n">
         <v>41.13000000000001</v>
@@ -37742,7 +37524,7 @@
         <v>27.99999999999998</v>
       </c>
       <c r="K732" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L732" t="n">
         <v>41.14000000000001</v>
@@ -37793,7 +37575,7 @@
         <v>28.09999999999998</v>
       </c>
       <c r="K733" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L733" t="n">
         <v>41.14000000000001</v>
@@ -37844,7 +37626,7 @@
         <v>28.19999999999998</v>
       </c>
       <c r="K734" t="n">
-        <v>-20.00000000000028</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L734" t="n">
         <v>41.13000000000001</v>
@@ -37895,7 +37677,7 @@
         <v>28.19999999999998</v>
       </c>
       <c r="K735" t="n">
-        <v>-20.00000000000028</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L735" t="n">
         <v>41.12000000000002</v>
@@ -37946,7 +37728,7 @@
         <v>28.29999999999998</v>
       </c>
       <c r="K736" t="n">
-        <v>-9.090909090909207</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L736" t="n">
         <v>41.09000000000002</v>
@@ -37997,7 +37779,7 @@
         <v>28.69999999999998</v>
       </c>
       <c r="K737" t="n">
-        <v>28.5714285714285</v>
+        <v>0</v>
       </c>
       <c r="L737" t="n">
         <v>41.09000000000002</v>
@@ -38048,7 +37830,7 @@
         <v>28.99999999999998</v>
       </c>
       <c r="K738" t="n">
-        <v>5.882352941176569</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L738" t="n">
         <v>41.06000000000002</v>
@@ -38099,7 +37881,7 @@
         <v>29.19999999999998</v>
       </c>
       <c r="K739" t="n">
-        <v>-5.263157894736921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L739" t="n">
         <v>41.01000000000001</v>
@@ -38150,7 +37932,7 @@
         <v>29.39999999999998</v>
       </c>
       <c r="K740" t="n">
-        <v>4.761904761904826</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L740" t="n">
         <v>40.98000000000001</v>
@@ -38201,7 +37983,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K741" t="n">
-        <v>0</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L741" t="n">
         <v>40.94000000000001</v>
@@ -38252,7 +38034,7 @@
         <v>29.59999999999999</v>
       </c>
       <c r="K742" t="n">
-        <v>-4.347826086956576</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L742" t="n">
         <v>40.92000000000001</v>
@@ -38303,7 +38085,7 @@
         <v>29.69999999999999</v>
       </c>
       <c r="K743" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L743" t="n">
         <v>40.92000000000001</v>
@@ -38354,7 +38136,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K744" t="n">
-        <v>-4.000000000000045</v>
+        <v>0</v>
       </c>
       <c r="L744" t="n">
         <v>40.92000000000001</v>
@@ -38405,7 +38187,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K745" t="n">
-        <v>-4.000000000000045</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L745" t="n">
         <v>40.92000000000001</v>
@@ -38456,7 +38238,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K746" t="n">
-        <v>-18.18181818181841</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L746" t="n">
         <v>40.91000000000001</v>
@@ -38507,7 +38289,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K747" t="n">
-        <v>-23.80952380952371</v>
+        <v>-25</v>
       </c>
       <c r="L747" t="n">
         <v>40.86000000000001</v>
@@ -38558,7 +38340,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K748" t="n">
-        <v>-23.80952380952371</v>
+        <v>0</v>
       </c>
       <c r="L748" t="n">
         <v>40.84000000000002</v>
@@ -38609,7 +38391,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K749" t="n">
-        <v>-13.04347826086938</v>
+        <v>0</v>
       </c>
       <c r="L749" t="n">
         <v>40.86000000000001</v>
@@ -38660,7 +38442,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K750" t="n">
-        <v>-13.04347826086938</v>
+        <v>20</v>
       </c>
       <c r="L750" t="n">
         <v>40.86000000000001</v>
@@ -38711,7 +38493,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K751" t="n">
-        <v>-13.04347826086938</v>
+        <v>50</v>
       </c>
       <c r="L751" t="n">
         <v>40.87000000000002</v>
@@ -38762,7 +38544,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K752" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L752" t="n">
         <v>40.89000000000001</v>
@@ -38813,7 +38595,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K753" t="n">
-        <v>5.263157894736882</v>
+        <v>100</v>
       </c>
       <c r="L753" t="n">
         <v>40.90000000000002</v>
@@ -38864,7 +38646,7 @@
         <v>30.2</v>
       </c>
       <c r="K754" t="n">
-        <v>20.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L754" t="n">
         <v>40.94000000000001</v>
@@ -38915,7 +38697,7 @@
         <v>30.3</v>
       </c>
       <c r="K755" t="n">
-        <v>14.28571428571438</v>
+        <v>60</v>
       </c>
       <c r="L755" t="n">
         <v>40.97000000000001</v>
@@ -38966,7 +38748,7 @@
         <v>30.4</v>
       </c>
       <c r="K756" t="n">
-        <v>4.761904761904794</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L756" t="n">
         <v>40.99000000000002</v>
@@ -39017,7 +38799,7 @@
         <v>30.4</v>
       </c>
       <c r="K757" t="n">
-        <v>-17.64705882352907</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L757" t="n">
         <v>41.01000000000001</v>
@@ -39119,7 +38901,7 @@
         <v>30.4</v>
       </c>
       <c r="K759" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L759" t="n">
         <v>41.03000000000002</v>
@@ -39221,7 +39003,7 @@
         <v>30.4</v>
       </c>
       <c r="K761" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L761" t="n">
         <v>41.03000000000002</v>
@@ -39272,7 +39054,7 @@
         <v>30.4</v>
       </c>
       <c r="K762" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L762" t="n">
         <v>41.03000000000002</v>
@@ -39323,7 +39105,7 @@
         <v>30.7</v>
       </c>
       <c r="K763" t="n">
-        <v>39.99999999999957</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L763" t="n">
         <v>41.06000000000002</v>
@@ -39374,7 +39156,7 @@
         <v>30.99999999999999</v>
       </c>
       <c r="K764" t="n">
-        <v>16.66666666666686</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L764" t="n">
         <v>41.04000000000001</v>
@@ -39425,7 +39207,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K765" t="n">
-        <v>23.07692307692333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L765" t="n">
         <v>41.04000000000001</v>
@@ -39476,7 +39258,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K766" t="n">
-        <v>23.07692307692333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L766" t="n">
         <v>41.05000000000002</v>
@@ -39527,7 +39309,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K767" t="n">
-        <v>23.07692307692333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L767" t="n">
         <v>41.06000000000002</v>
@@ -39578,7 +39360,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K768" t="n">
-        <v>23.07692307692333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L768" t="n">
         <v>41.07000000000002</v>
@@ -39629,7 +39411,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K769" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L769" t="n">
         <v>41.08000000000003</v>
@@ -39680,7 +39462,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K770" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L770" t="n">
         <v>41.09000000000002</v>
@@ -39731,7 +39513,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K771" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L771" t="n">
         <v>41.10000000000003</v>
@@ -39782,7 +39564,7 @@
         <v>31.29999999999999</v>
       </c>
       <c r="K772" t="n">
-        <v>23.07692307692291</v>
+        <v>0</v>
       </c>
       <c r="L772" t="n">
         <v>41.13000000000003</v>
@@ -39833,7 +39615,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K773" t="n">
-        <v>6.666666666666793</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L773" t="n">
         <v>41.11000000000003</v>
@@ -39884,7 +39666,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K774" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L774" t="n">
         <v>41.12000000000003</v>
@@ -39986,7 +39768,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K776" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L776" t="n">
         <v>41.12000000000003</v>
@@ -40037,7 +39819,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K777" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L777" t="n">
         <v>41.12000000000003</v>
@@ -40088,7 +39870,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K778" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L778" t="n">
         <v>41.12000000000003</v>
@@ -40139,7 +39921,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K779" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L779" t="n">
         <v>41.12000000000003</v>
@@ -40190,7 +39972,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K780" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L780" t="n">
         <v>41.12000000000003</v>
@@ -40241,7 +40023,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K781" t="n">
-        <v>9.090909090909326</v>
+        <v>-100</v>
       </c>
       <c r="L781" t="n">
         <v>41.12000000000003</v>
@@ -40291,9 +40073,7 @@
       <c r="J782" t="n">
         <v>31.49999999999999</v>
       </c>
-      <c r="K782" t="n">
-        <v>9.090909090909326</v>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -40342,9 +40122,7 @@
       <c r="J783" t="n">
         <v>31.49999999999999</v>
       </c>
-      <c r="K783" t="n">
-        <v>-24.99999999999978</v>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -40393,9 +40171,7 @@
       <c r="J784" t="n">
         <v>31.49999999999999</v>
       </c>
-      <c r="K784" t="n">
-        <v>20.00000000000057</v>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -40444,9 +40220,7 @@
       <c r="J785" t="n">
         <v>31.49999999999999</v>
       </c>
-      <c r="K785" t="n">
-        <v>0</v>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -40495,9 +40269,7 @@
       <c r="J786" t="n">
         <v>31.49999999999999</v>
       </c>
-      <c r="K786" t="n">
-        <v>0</v>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>41.10000000000004</v>
       </c>
@@ -40547,7 +40319,7 @@
         <v>31.69999999999998</v>
       </c>
       <c r="K787" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L787" t="n">
         <v>41.12000000000003</v>
@@ -40649,7 +40421,7 @@
         <v>31.99999999999998</v>
       </c>
       <c r="K789" t="n">
-        <v>11.11111111111146</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L789" t="n">
         <v>41.13000000000003</v>
@@ -40751,7 +40523,7 @@
         <v>32.19999999999998</v>
       </c>
       <c r="K791" t="n">
-        <v>9.090909090909326</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L791" t="n">
         <v>41.14000000000003</v>
@@ -40802,7 +40574,7 @@
         <v>32.19999999999998</v>
       </c>
       <c r="K792" t="n">
-        <v>-11.11111111111058</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L792" t="n">
         <v>41.15000000000002</v>
@@ -41006,7 +40778,7 @@
         <v>32.29999999999998</v>
       </c>
       <c r="K796" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L796" t="n">
         <v>41.20000000000001</v>
@@ -41057,7 +40829,7 @@
         <v>32.39999999999997</v>
       </c>
       <c r="K797" t="n">
-        <v>11.11111111111146</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L797" t="n">
         <v>41.19000000000001</v>
@@ -41108,7 +40880,7 @@
         <v>32.39999999999997</v>
       </c>
       <c r="K798" t="n">
-        <v>11.11111111111146</v>
+        <v>0</v>
       </c>
       <c r="L798" t="n">
         <v>41.2</v>
@@ -41159,7 +40931,7 @@
         <v>32.39999999999997</v>
       </c>
       <c r="K799" t="n">
-        <v>11.11111111111146</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L799" t="n">
         <v>41.2</v>
@@ -41210,7 +40982,7 @@
         <v>32.39999999999997</v>
       </c>
       <c r="K800" t="n">
-        <v>11.11111111111146</v>
+        <v>0</v>
       </c>
       <c r="L800" t="n">
         <v>41.21</v>
@@ -41261,7 +41033,7 @@
         <v>32.49999999999996</v>
       </c>
       <c r="K801" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L801" t="n">
         <v>41.22000000000001</v>
@@ -41312,7 +41084,7 @@
         <v>32.59999999999997</v>
       </c>
       <c r="K802" t="n">
-        <v>27.27272727272751</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L802" t="n">
         <v>41.24</v>
@@ -41363,7 +41135,7 @@
         <v>32.59999999999997</v>
       </c>
       <c r="K803" t="n">
-        <v>27.27272727272751</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L803" t="n">
         <v>41.26000000000001</v>
@@ -41414,7 +41186,7 @@
         <v>32.79999999999996</v>
       </c>
       <c r="K804" t="n">
-        <v>7.692307692307944</v>
+        <v>0</v>
       </c>
       <c r="L804" t="n">
         <v>41.26000000000001</v>
@@ -41465,7 +41237,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K805" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L805" t="n">
         <v>41.27</v>
@@ -41516,7 +41288,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K806" t="n">
-        <v>14.28571428571428</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L806" t="n">
         <v>41.27</v>
@@ -41567,7 +41339,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K807" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L807" t="n">
         <v>41.28000000000001</v>
@@ -41622,7 +41394,7 @@
         <v>33.09999999999996</v>
       </c>
       <c r="K808" t="n">
-        <v>33.33333333333373</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L808" t="n">
         <v>41.31000000000001</v>
@@ -41681,7 +41453,7 @@
         <v>33.09999999999996</v>
       </c>
       <c r="K809" t="n">
-        <v>27.27272727272751</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L809" t="n">
         <v>41.34000000000001</v>
@@ -41740,7 +41512,7 @@
         <v>33.09999999999996</v>
       </c>
       <c r="K810" t="n">
-        <v>40.00000000000071</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L810" t="n">
         <v>41.37000000000001</v>
@@ -41799,7 +41571,7 @@
         <v>33.09999999999996</v>
       </c>
       <c r="K811" t="n">
-        <v>33.33333333333386</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L811" t="n">
         <v>41.39000000000001</v>
@@ -41858,7 +41630,7 @@
         <v>33.09999999999996</v>
       </c>
       <c r="K812" t="n">
-        <v>33.33333333333386</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L812" t="n">
         <v>41.40000000000001</v>
@@ -41917,7 +41689,7 @@
         <v>33.09999999999996</v>
       </c>
       <c r="K813" t="n">
-        <v>33.33333333333386</v>
+        <v>100</v>
       </c>
       <c r="L813" t="n">
         <v>41.41000000000001</v>
@@ -41976,7 +41748,7 @@
         <v>33.39999999999996</v>
       </c>
       <c r="K814" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L814" t="n">
         <v>41.41000000000001</v>
@@ -42033,7 +41805,7 @@
         <v>33.49999999999996</v>
       </c>
       <c r="K815" t="n">
-        <v>-7.692307692307944</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L815" t="n">
         <v>41.39000000000001</v>
@@ -42092,7 +41864,7 @@
         <v>33.49999999999996</v>
       </c>
       <c r="K816" t="n">
-        <v>-16.66666666666657</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L816" t="n">
         <v>41.37000000000002</v>
@@ -42155,7 +41927,7 @@
         <v>33.69999999999995</v>
       </c>
       <c r="K817" t="n">
-        <v>7.692307692307356</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L817" t="n">
         <v>41.37000000000002</v>
@@ -42218,7 +41990,7 @@
         <v>33.79999999999995</v>
       </c>
       <c r="K818" t="n">
-        <v>0</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L818" t="n">
         <v>41.34000000000002</v>
@@ -42279,7 +42051,7 @@
         <v>33.79999999999995</v>
       </c>
       <c r="K819" t="n">
-        <v>0</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L819" t="n">
         <v>41.31000000000002</v>
@@ -42340,7 +42112,7 @@
         <v>33.99999999999995</v>
       </c>
       <c r="K820" t="n">
-        <v>-12.50000000000033</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L820" t="n">
         <v>41.26000000000001</v>
@@ -42399,7 +42171,7 @@
         <v>33.99999999999995</v>
       </c>
       <c r="K821" t="n">
-        <v>-20</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L821" t="n">
         <v>41.21000000000002</v>
@@ -42456,7 +42228,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K822" t="n">
-        <v>-37.50000000000039</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L822" t="n">
         <v>41.14000000000001</v>
@@ -42513,7 +42285,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K823" t="n">
-        <v>-37.50000000000039</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L823" t="n">
         <v>41.07000000000001</v>
@@ -42570,7 +42342,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K824" t="n">
-        <v>-28.57142857142915</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L824" t="n">
         <v>41.03000000000002</v>
@@ -42627,7 +42399,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K825" t="n">
-        <v>-38.46153846153855</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L825" t="n">
         <v>41.00000000000001</v>
@@ -42688,7 +42460,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K826" t="n">
-        <v>-38.46153846153855</v>
+        <v>-100</v>
       </c>
       <c r="L826" t="n">
         <v>40.97000000000001</v>
@@ -42749,7 +42521,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K827" t="n">
-        <v>-38.46153846153855</v>
+        <v>-100</v>
       </c>
       <c r="L827" t="n">
         <v>40.92000000000002</v>
@@ -42808,7 +42580,7 @@
         <v>34.29999999999995</v>
       </c>
       <c r="K828" t="n">
-        <v>-50.0000000000003</v>
+        <v>-60</v>
       </c>
       <c r="L828" t="n">
         <v>40.89000000000001</v>
@@ -42871,7 +42643,7 @@
         <v>34.29999999999995</v>
       </c>
       <c r="K829" t="n">
-        <v>-50.0000000000003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L829" t="n">
         <v>40.86000000000001</v>
@@ -42934,7 +42706,7 @@
         <v>34.59999999999995</v>
       </c>
       <c r="K830" t="n">
-        <v>-60.00000000000018</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L830" t="n">
         <v>40.82000000000001</v>
@@ -42995,7 +42767,7 @@
         <v>34.69999999999995</v>
       </c>
       <c r="K831" t="n">
-        <v>-50</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L831" t="n">
         <v>40.79000000000001</v>
@@ -43054,7 +42826,7 @@
         <v>35.09999999999995</v>
       </c>
       <c r="K832" t="n">
-        <v>-20</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L832" t="n">
         <v>40.82000000000001</v>
@@ -43117,7 +42889,7 @@
         <v>35.09999999999995</v>
       </c>
       <c r="K833" t="n">
-        <v>-20</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L833" t="n">
         <v>40.85000000000002</v>
@@ -43174,7 +42946,7 @@
         <v>35.09999999999995</v>
       </c>
       <c r="K834" t="n">
-        <v>-5.882352941176569</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L834" t="n">
         <v>40.88000000000002</v>
@@ -43231,7 +43003,7 @@
         <v>35.29999999999995</v>
       </c>
       <c r="K835" t="n">
-        <v>11.11111111111093</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L835" t="n">
         <v>40.93000000000002</v>
@@ -43288,7 +43060,7 @@
         <v>35.39999999999994</v>
       </c>
       <c r="K836" t="n">
-        <v>5.263157894736961</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L836" t="n">
         <v>40.97000000000001</v>
@@ -43345,7 +43117,7 @@
         <v>35.69999999999995</v>
       </c>
       <c r="K837" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L837" t="n">
         <v>40.98000000000001</v>
@@ -43402,7 +43174,7 @@
         <v>35.89999999999995</v>
       </c>
       <c r="K838" t="n">
-        <v>-4.761904761904826</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L838" t="n">
         <v>41.00000000000001</v>
@@ -43459,7 +43231,7 @@
         <v>35.89999999999995</v>
       </c>
       <c r="K839" t="n">
-        <v>-4.761904761904826</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L839" t="n">
         <v>41.02000000000002</v>
@@ -43516,7 +43288,7 @@
         <v>35.99999999999995</v>
       </c>
       <c r="K840" t="n">
-        <v>0</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L840" t="n">
         <v>41.06000000000002</v>
@@ -43573,7 +43345,7 @@
         <v>35.99999999999995</v>
       </c>
       <c r="K841" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L841" t="n">
         <v>41.09000000000002</v>
@@ -43624,7 +43396,7 @@
         <v>35.99999999999995</v>
       </c>
       <c r="K842" t="n">
-        <v>11.11111111111129</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L842" t="n">
         <v>41.08000000000002</v>
@@ -43675,7 +43447,7 @@
         <v>35.99999999999995</v>
       </c>
       <c r="K843" t="n">
-        <v>11.11111111111129</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L843" t="n">
         <v>41.07000000000001</v>
@@ -43726,7 +43498,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K844" t="n">
-        <v>15.78947368421076</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L844" t="n">
         <v>41.07000000000001</v>
@@ -43777,7 +43549,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K845" t="n">
-        <v>15.78947368421076</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L845" t="n">
         <v>41.05000000000002</v>
@@ -43828,7 +43600,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K846" t="n">
-        <v>15.78947368421076</v>
+        <v>50</v>
       </c>
       <c r="L846" t="n">
         <v>41.04000000000002</v>
@@ -43879,7 +43651,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K847" t="n">
-        <v>15.78947368421076</v>
+        <v>0</v>
       </c>
       <c r="L847" t="n">
         <v>41.06000000000002</v>
@@ -43930,7 +43702,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K848" t="n">
-        <v>15.78947368421076</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L848" t="n">
         <v>41.07000000000002</v>
@@ -43981,7 +43753,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K849" t="n">
-        <v>15.78947368421076</v>
+        <v>100</v>
       </c>
       <c r="L849" t="n">
         <v>41.08000000000002</v>
@@ -44032,7 +43804,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K850" t="n">
-        <v>37.50000000000006</v>
+        <v>100</v>
       </c>
       <c r="L850" t="n">
         <v>41.10000000000002</v>
@@ -44083,7 +43855,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K851" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L851" t="n">
         <v>41.12000000000002</v>
@@ -44134,7 +43906,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K852" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L852" t="n">
         <v>41.14000000000001</v>
@@ -44185,7 +43957,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K853" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L853" t="n">
         <v>41.16000000000001</v>
@@ -44236,7 +44008,7 @@
         <v>36.29999999999995</v>
       </c>
       <c r="K854" t="n">
-        <v>16.66666666666637</v>
+        <v>100</v>
       </c>
       <c r="L854" t="n">
         <v>41.18000000000001</v>
@@ -44287,7 +44059,7 @@
         <v>36.69999999999995</v>
       </c>
       <c r="K855" t="n">
-        <v>28.57142857142886</v>
+        <v>100</v>
       </c>
       <c r="L855" t="n">
         <v>41.24000000000001</v>
@@ -44338,7 +44110,7 @@
         <v>36.79999999999995</v>
       </c>
       <c r="K856" t="n">
-        <v>28.57142857142821</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L856" t="n">
         <v>41.29000000000001</v>
@@ -44389,7 +44161,7 @@
         <v>36.89999999999996</v>
       </c>
       <c r="K857" t="n">
-        <v>66.66666666666647</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L857" t="n">
         <v>41.35000000000001</v>
@@ -44440,7 +44212,7 @@
         <v>36.89999999999996</v>
       </c>
       <c r="K858" t="n">
-        <v>59.99999999999972</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L858" t="n">
         <v>41.40000000000001</v>
@@ -44491,7 +44263,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K859" t="n">
-        <v>45.45454545454511</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L859" t="n">
         <v>41.44000000000001</v>
@@ -44542,7 +44314,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K860" t="n">
-        <v>59.99999999999972</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L860" t="n">
         <v>41.48000000000001</v>
@@ -44593,7 +44365,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K861" t="n">
-        <v>59.99999999999972</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L861" t="n">
         <v>41.52000000000002</v>
@@ -44644,7 +44416,7 @@
         <v>37.19999999999995</v>
       </c>
       <c r="K862" t="n">
-        <v>66.66666666666627</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L862" t="n">
         <v>41.58000000000002</v>
@@ -44695,7 +44467,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K863" t="n">
-        <v>71.42857142857115</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L863" t="n">
         <v>41.66000000000002</v>
@@ -44746,7 +44518,7 @@
         <v>37.69999999999995</v>
       </c>
       <c r="K864" t="n">
-        <v>74.99999999999967</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L864" t="n">
         <v>41.76000000000002</v>
@@ -44797,7 +44569,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K865" t="n">
-        <v>85.71428571428554</v>
+        <v>90.47619047619034</v>
       </c>
       <c r="L865" t="n">
         <v>41.94000000000002</v>
@@ -44848,7 +44620,7 @@
         <v>39.19999999999995</v>
       </c>
       <c r="K866" t="n">
-        <v>67.74193548387099</v>
+        <v>65.2173913043479</v>
       </c>
       <c r="L866" t="n">
         <v>42.10000000000002</v>
@@ -44899,7 +44671,7 @@
         <v>39.69999999999995</v>
       </c>
       <c r="K867" t="n">
-        <v>44.44444444444446</v>
+        <v>35.71428571428575</v>
       </c>
       <c r="L867" t="n">
         <v>42.20000000000002</v>
@@ -44950,7 +44722,7 @@
         <v>39.89999999999995</v>
       </c>
       <c r="K868" t="n">
-        <v>45.94594594594588</v>
+        <v>44.82758620689658</v>
       </c>
       <c r="L868" t="n">
         <v>42.32000000000001</v>
@@ -45001,7 +44773,7 @@
         <v>39.99999999999995</v>
       </c>
       <c r="K869" t="n">
-        <v>47.36842105263154</v>
+        <v>46.66666666666673</v>
       </c>
       <c r="L869" t="n">
         <v>42.46000000000002</v>
@@ -45052,7 +44824,7 @@
         <v>39.99999999999995</v>
       </c>
       <c r="K870" t="n">
-        <v>47.36842105263154</v>
+        <v>46.66666666666673</v>
       </c>
       <c r="L870" t="n">
         <v>42.60000000000001</v>
@@ -45103,7 +44875,7 @@
         <v>40.29999999999995</v>
       </c>
       <c r="K871" t="n">
-        <v>36.58536585365859</v>
+        <v>29.03225806451636</v>
       </c>
       <c r="L871" t="n">
         <v>42.71000000000001</v>
@@ -45154,7 +44926,7 @@
         <v>40.39999999999994</v>
       </c>
       <c r="K872" t="n">
-        <v>38.09523809523807</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="L872" t="n">
         <v>42.81000000000001</v>
@@ -45205,7 +44977,7 @@
         <v>41.09999999999994</v>
       </c>
       <c r="K873" t="n">
-        <v>18.36734693877554</v>
+        <v>-5.882352941176372</v>
       </c>
       <c r="L873" t="n">
         <v>42.82000000000001</v>
@@ -45256,7 +45028,7 @@
         <v>41.29999999999993</v>
       </c>
       <c r="K874" t="n">
-        <v>20.00000000000006</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L874" t="n">
         <v>42.82000000000001</v>
@@ -45307,7 +45079,7 @@
         <v>41.39999999999993</v>
       </c>
       <c r="K875" t="n">
-        <v>14.89361702127657</v>
+        <v>-36.36363636363686</v>
       </c>
       <c r="L875" t="n">
         <v>42.71000000000001</v>
@@ -45358,7 +45130,7 @@
         <v>41.99999999999994</v>
       </c>
       <c r="K876" t="n">
-        <v>26.92307692307699</v>
+        <v>13.04347826086954</v>
       </c>
       <c r="L876" t="n">
         <v>42.69000000000001</v>
@@ -45409,7 +45181,7 @@
         <v>41.99999999999994</v>
       </c>
       <c r="K877" t="n">
-        <v>25.49019607843142</v>
+        <v>4.761904761904859</v>
       </c>
       <c r="L877" t="n">
         <v>42.72000000000001</v>
@@ -45460,7 +45232,7 @@
         <v>42.29999999999993</v>
       </c>
       <c r="K878" t="n">
-        <v>29.62962962962965</v>
+        <v>13.04347826086954</v>
       </c>
       <c r="L878" t="n">
         <v>42.76000000000001</v>
@@ -45511,7 +45283,7 @@
         <v>43.09999999999993</v>
       </c>
       <c r="K879" t="n">
-        <v>14.75409836065578</v>
+        <v>-16.12903225806462</v>
       </c>
       <c r="L879" t="n">
         <v>42.71000000000002</v>
@@ -45562,7 +45334,7 @@
         <v>43.59999999999993</v>
       </c>
       <c r="K880" t="n">
-        <v>21.21212121212127</v>
+        <v>9.090909090909053</v>
       </c>
       <c r="L880" t="n">
         <v>42.71000000000002</v>
@@ -45613,7 +45385,7 @@
         <v>43.89999999999993</v>
       </c>
       <c r="K881" t="n">
-        <v>15.94202898550734</v>
+        <v>-2.857142857142707</v>
       </c>
       <c r="L881" t="n">
         <v>42.71000000000002</v>
@@ -45664,7 +45436,7 @@
         <v>44.09999999999992</v>
       </c>
       <c r="K882" t="n">
-        <v>15.94202898550734</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="L882" t="n">
         <v>42.72000000000001</v>
@@ -45715,7 +45487,7 @@
         <v>44.29999999999992</v>
       </c>
       <c r="K883" t="n">
-        <v>10.14492753623198</v>
+        <v>13.33333333333359</v>
       </c>
       <c r="L883" t="n">
         <v>42.78000000000001</v>
@@ -45766,7 +45538,7 @@
         <v>44.29999999999992</v>
       </c>
       <c r="K884" t="n">
-        <v>6.060606060606178</v>
+        <v>10.3448275862071</v>
       </c>
       <c r="L884" t="n">
         <v>42.82000000000001</v>
@@ -45817,7 +45589,7 @@
         <v>44.49999999999992</v>
       </c>
       <c r="K885" t="n">
-        <v>-17.85714285714296</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L885" t="n">
         <v>42.83000000000001</v>
@@ -45868,7 +45640,7 @@
         <v>44.59999999999992</v>
       </c>
       <c r="K886" t="n">
-        <v>-11.1111111111112</v>
+        <v>-15.3846153846154</v>
       </c>
       <c r="L886" t="n">
         <v>42.79000000000001</v>
@@ -45919,7 +45691,7 @@
         <v>44.59999999999992</v>
       </c>
       <c r="K887" t="n">
-        <v>-2.040816326530654</v>
+        <v>-30.4347826086956</v>
       </c>
       <c r="L887" t="n">
         <v>42.75000000000001</v>
@@ -45970,7 +45742,7 @@
         <v>44.79999999999992</v>
       </c>
       <c r="K888" t="n">
-        <v>-2.040816326530654</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L888" t="n">
         <v>42.70000000000001</v>
@@ -46021,7 +45793,7 @@
         <v>44.99999999999991</v>
       </c>
       <c r="K889" t="n">
-        <v>-8.000000000000028</v>
+        <v>-28.57142857142879</v>
       </c>
       <c r="L889" t="n">
         <v>42.71000000000002</v>
@@ -46072,7 +45844,7 @@
         <v>45.09999999999992</v>
       </c>
       <c r="K890" t="n">
-        <v>-9.803921568627516</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L890" t="n">
         <v>42.66000000000001</v>
@@ -46123,7 +45895,7 @@
         <v>45.19999999999992</v>
       </c>
       <c r="K891" t="n">
-        <v>-6.122448979591961</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L891" t="n">
         <v>42.63000000000001</v>
@@ -46174,7 +45946,7 @@
         <v>45.49999999999992</v>
       </c>
       <c r="K892" t="n">
-        <v>-1.960784313725386</v>
+        <v>0</v>
       </c>
       <c r="L892" t="n">
         <v>42.61000000000001</v>
@@ -46225,7 +45997,7 @@
         <v>45.79999999999993</v>
       </c>
       <c r="K893" t="n">
-        <v>6.382978723404211</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L893" t="n">
         <v>42.58000000000001</v>
@@ -46276,7 +46048,7 @@
         <v>45.99999999999992</v>
       </c>
       <c r="K894" t="n">
-        <v>-2.127659574467969</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L894" t="n">
         <v>42.53000000000002</v>
@@ -46327,7 +46099,7 @@
         <v>46.09999999999992</v>
       </c>
       <c r="K895" t="n">
-        <v>-6.382978723404211</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L895" t="n">
         <v>42.49000000000002</v>
@@ -46378,7 +46150,7 @@
         <v>46.49999999999992</v>
       </c>
       <c r="K896" t="n">
-        <v>-28.88888888888892</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L896" t="n">
         <v>42.40000000000001</v>
@@ -46429,7 +46201,7 @@
         <v>46.69999999999992</v>
       </c>
       <c r="K897" t="n">
-        <v>-31.91489361702136</v>
+        <v>-68.42105263157859</v>
       </c>
       <c r="L897" t="n">
         <v>42.29000000000001</v>
@@ -46480,7 +46252,7 @@
         <v>46.69999999999992</v>
       </c>
       <c r="K898" t="n">
-        <v>-40.90909090909092</v>
+        <v>-64.70588235294088</v>
       </c>
       <c r="L898" t="n">
         <v>42.16000000000001</v>
@@ -46531,7 +46303,7 @@
         <v>46.79999999999993</v>
       </c>
       <c r="K899" t="n">
-        <v>-29.7297297297298</v>
+        <v>-64.70588235294088</v>
       </c>
       <c r="L899" t="n">
         <v>42.04000000000001</v>
@@ -46582,7 +46354,7 @@
         <v>46.79999999999993</v>
       </c>
       <c r="K900" t="n">
-        <v>-50.00000000000011</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L900" t="n">
         <v>41.93</v>
@@ -46633,7 +46405,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K901" t="n">
-        <v>-13.5135135135135</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L901" t="n">
         <v>41.91</v>
@@ -46684,7 +46456,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K902" t="n">
-        <v>-19.99999999999984</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L902" t="n">
         <v>41.86</v>
@@ -46735,7 +46507,7 @@
         <v>47.79999999999993</v>
       </c>
       <c r="K903" t="n">
-        <v>-8.571428571428676</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L903" t="n">
         <v>41.86</v>
@@ -46786,7 +46558,7 @@
         <v>47.89999999999993</v>
       </c>
       <c r="K904" t="n">
-        <v>-5.555555555555621</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L904" t="n">
         <v>41.89</v>
@@ -46837,7 +46609,7 @@
         <v>48.09999999999993</v>
       </c>
       <c r="K905" t="n">
-        <v>-5.555555555555621</v>
+        <v>37.49999999999945</v>
       </c>
       <c r="L905" t="n">
         <v>41.91</v>
@@ -46888,7 +46660,7 @@
         <v>48.09999999999993</v>
       </c>
       <c r="K906" t="n">
-        <v>-8.571428571428676</v>
+        <v>57.14285714285671</v>
       </c>
       <c r="L906" t="n">
         <v>41.97000000000001</v>
@@ -46939,7 +46711,7 @@
         <v>48.19999999999993</v>
       </c>
       <c r="K907" t="n">
-        <v>-5.555555555555621</v>
+        <v>59.99999999999962</v>
       </c>
       <c r="L907" t="n">
         <v>42.06</v>
@@ -46990,7 +46762,7 @@
         <v>48.19999999999993</v>
       </c>
       <c r="K908" t="n">
-        <v>-11.76470588235285</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L908" t="n">
         <v>42.15</v>
@@ -47041,7 +46813,7 @@
         <v>48.19999999999993</v>
       </c>
       <c r="K909" t="n">
-        <v>-6.250000000000055</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L909" t="n">
         <v>42.25</v>
@@ -47092,7 +46864,7 @@
         <v>48.49999999999994</v>
       </c>
       <c r="K910" t="n">
-        <v>5.88235294117652</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L910" t="n">
         <v>42.38</v>
@@ -47143,7 +46915,7 @@
         <v>48.69999999999993</v>
       </c>
       <c r="K911" t="n">
-        <v>14.28571428571423</v>
+        <v>63.63636363636317</v>
       </c>
       <c r="L911" t="n">
         <v>42.45</v>
@@ -47194,7 +46966,7 @@
         <v>49.09999999999993</v>
       </c>
       <c r="K912" t="n">
-        <v>16.66666666666647</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L912" t="n">
         <v>42.56</v>
@@ -47245,7 +47017,7 @@
         <v>49.09999999999993</v>
       </c>
       <c r="K913" t="n">
-        <v>27.27272727272719</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L913" t="n">
         <v>42.65000000000001</v>
@@ -47296,7 +47068,7 @@
         <v>49.19999999999992</v>
       </c>
       <c r="K914" t="n">
-        <v>31.24999999999997</v>
+        <v>81.81818181818275</v>
       </c>
       <c r="L914" t="n">
         <v>42.72000000000001</v>
@@ -47347,7 +47119,7 @@
         <v>49.39999999999993</v>
       </c>
       <c r="K915" t="n">
-        <v>27.27272727272719</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L915" t="n">
         <v>42.79000000000001</v>
@@ -47398,7 +47170,7 @@
         <v>49.49999999999993</v>
       </c>
       <c r="K916" t="n">
-        <v>46.66666666666651</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L916" t="n">
         <v>42.87</v>
@@ -47449,7 +47221,7 @@
         <v>49.49999999999993</v>
       </c>
       <c r="K917" t="n">
-        <v>57.1428571428571</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L917" t="n">
         <v>42.94000000000001</v>
@@ -47500,7 +47272,7 @@
         <v>49.69999999999992</v>
       </c>
       <c r="K918" t="n">
-        <v>59.99999999999991</v>
+        <v>60.00000000000018</v>
       </c>
       <c r="L918" t="n">
         <v>43.03000000000002</v>
@@ -47551,7 +47323,7 @@
         <v>49.89999999999992</v>
       </c>
       <c r="K919" t="n">
-        <v>54.83870967741955</v>
+        <v>28.57142857142879</v>
       </c>
       <c r="L919" t="n">
         <v>43.10000000000002</v>
@@ -47602,7 +47374,7 @@
         <v>49.99999999999992</v>
       </c>
       <c r="K920" t="n">
-        <v>56.25000000000021</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L920" t="n">
         <v>43.15000000000002</v>
@@ -47653,7 +47425,7 @@
         <v>50.19999999999992</v>
       </c>
       <c r="K921" t="n">
-        <v>30.76923076923073</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L921" t="n">
         <v>43.16000000000002</v>
@@ -47704,7 +47476,7 @@
         <v>50.69999999999992</v>
       </c>
       <c r="K922" t="n">
-        <v>9.677419354838635</v>
+        <v>-50</v>
       </c>
       <c r="L922" t="n">
         <v>43.08000000000002</v>
@@ -47755,7 +47527,7 @@
         <v>51.09999999999992</v>
       </c>
       <c r="K923" t="n">
-        <v>15.15151515151517</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L923" t="n">
         <v>43.04000000000001</v>
@@ -47806,7 +47578,7 @@
         <v>51.29999999999992</v>
       </c>
       <c r="K924" t="n">
-        <v>5.882352941176569</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L924" t="n">
         <v>42.99000000000002</v>
@@ -47857,7 +47629,7 @@
         <v>51.39999999999991</v>
       </c>
       <c r="K925" t="n">
-        <v>15.15151515151523</v>
+        <v>-15.78947368421088</v>
       </c>
       <c r="L925" t="n">
         <v>42.97000000000001</v>
@@ -47908,7 +47680,7 @@
         <v>51.39999999999991</v>
       </c>
       <c r="K926" t="n">
-        <v>15.15151515151523</v>
+        <v>-15.78947368421088</v>
       </c>
       <c r="L926" t="n">
         <v>42.94000000000001</v>
@@ -47959,7 +47731,7 @@
         <v>51.79999999999992</v>
       </c>
       <c r="K927" t="n">
-        <v>22.22222222222242</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L927" t="n">
         <v>42.95000000000001</v>
@@ -48010,7 +47782,7 @@
         <v>52.09999999999992</v>
       </c>
       <c r="K928" t="n">
-        <v>12.82051282051285</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L928" t="n">
         <v>42.91000000000001</v>
@@ -48061,7 +47833,7 @@
         <v>52.29999999999993</v>
       </c>
       <c r="K929" t="n">
-        <v>17.07317073170741</v>
+        <v>-4.347826086956576</v>
       </c>
       <c r="L929" t="n">
         <v>42.91000000000001</v>
@@ -48112,7 +47884,7 @@
         <v>52.29999999999993</v>
       </c>
       <c r="K930" t="n">
-        <v>10.52631578947367</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L930" t="n">
         <v>42.90000000000001</v>
@@ -48163,7 +47935,7 @@
         <v>52.59999999999993</v>
       </c>
       <c r="K931" t="n">
-        <v>-2.564102564102602</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L931" t="n">
         <v>42.88000000000001</v>
@@ -48214,7 +47986,7 @@
         <v>52.69999999999992</v>
       </c>
       <c r="K932" t="n">
-        <v>-16.66666666666654</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L932" t="n">
         <v>42.90000000000001</v>
@@ -48265,7 +48037,7 @@
         <v>52.79999999999992</v>
       </c>
       <c r="K933" t="n">
-        <v>-13.51351351351356</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L933" t="n">
         <v>42.89000000000001</v>
@@ -48316,7 +48088,7 @@
         <v>52.79999999999992</v>
       </c>
       <c r="K934" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L934" t="n">
         <v>42.90000000000002</v>
@@ -48367,7 +48139,7 @@
         <v>52.79999999999992</v>
       </c>
       <c r="K935" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L935" t="n">
         <v>42.90000000000002</v>
@@ -48418,7 +48190,7 @@
         <v>52.89999999999992</v>
       </c>
       <c r="K936" t="n">
-        <v>-5.882352941176569</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L936" t="n">
         <v>42.91000000000001</v>
@@ -48469,7 +48241,7 @@
         <v>52.89999999999992</v>
       </c>
       <c r="K937" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L937" t="n">
         <v>42.88000000000001</v>
@@ -48520,7 +48292,7 @@
         <v>52.89999999999992</v>
       </c>
       <c r="K938" t="n">
-        <v>-12.49999999999997</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L938" t="n">
         <v>42.88000000000001</v>
@@ -48571,7 +48343,7 @@
         <v>52.99999999999992</v>
       </c>
       <c r="K939" t="n">
-        <v>-9.677419354838843</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L939" t="n">
         <v>42.85000000000001</v>
@@ -48622,7 +48394,7 @@
         <v>54.79999999999993</v>
       </c>
       <c r="K940" t="n">
-        <v>29.16666666666661</v>
+        <v>81.81818181818217</v>
       </c>
       <c r="L940" t="n">
         <v>43.00000000000001</v>
@@ -48673,7 +48445,7 @@
         <v>55.29999999999993</v>
       </c>
       <c r="K941" t="n">
-        <v>21.56862745098041</v>
+        <v>53.84615384615377</v>
       </c>
       <c r="L941" t="n">
         <v>43.13000000000001</v>
@@ -48724,7 +48496,7 @@
         <v>55.59999999999993</v>
       </c>
       <c r="K942" t="n">
-        <v>26.53061224489787</v>
+        <v>35.71428571428557</v>
       </c>
       <c r="L942" t="n">
         <v>43.24000000000002</v>
@@ -48775,7 +48547,7 @@
         <v>55.69999999999993</v>
       </c>
       <c r="K943" t="n">
-        <v>21.73913043478257</v>
+        <v>37.93103448275851</v>
       </c>
       <c r="L943" t="n">
         <v>43.35000000000001</v>
@@ -48826,7 +48598,7 @@
         <v>55.79999999999993</v>
       </c>
       <c r="K944" t="n">
-        <v>24.44444444444424</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L944" t="n">
         <v>43.45000000000001</v>
@@ -48877,7 +48649,7 @@
         <v>55.89999999999993</v>
       </c>
       <c r="K945" t="n">
-        <v>24.44444444444436</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L945" t="n">
         <v>43.56000000000001</v>
@@ -48928,7 +48700,7 @@
         <v>55.99999999999994</v>
       </c>
       <c r="K946" t="n">
-        <v>21.7391304347825</v>
+        <v>29.03225806451594</v>
       </c>
       <c r="L946" t="n">
         <v>43.65000000000001</v>
@@ -48979,7 +48751,7 @@
         <v>55.99999999999994</v>
       </c>
       <c r="K947" t="n">
-        <v>14.28571428571409</v>
+        <v>29.03225806451594</v>
       </c>
       <c r="L947" t="n">
         <v>43.74000000000002</v>
@@ -49030,7 +48802,7 @@
         <v>56.09999999999994</v>
       </c>
       <c r="K948" t="n">
-        <v>24.99999999999991</v>
+        <v>35.4838709677418</v>
       </c>
       <c r="L948" t="n">
         <v>43.84000000000002</v>
@@ -49081,7 +48853,7 @@
         <v>56.19999999999994</v>
       </c>
       <c r="K949" t="n">
-        <v>17.94871794871778</v>
+        <v>-57.14285714285693</v>
       </c>
       <c r="L949" t="n">
         <v>43.94000000000001</v>
@@ -49132,7 +48904,7 @@
         <v>56.19999999999994</v>
       </c>
       <c r="K950" t="n">
-        <v>17.94871794871778</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L950" t="n">
         <v>43.86000000000001</v>
@@ -49183,7 +48955,7 @@
         <v>56.69999999999994</v>
       </c>
       <c r="K951" t="n">
-        <v>12.19512195121949</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L951" t="n">
         <v>43.78000000000002</v>
@@ -49234,7 +49006,7 @@
         <v>56.89999999999994</v>
       </c>
       <c r="K952" t="n">
-        <v>19.0476190476189</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L952" t="n">
         <v>43.75000000000001</v>
@@ -49285,7 +49057,7 @@
         <v>57.09999999999994</v>
       </c>
       <c r="K953" t="n">
-        <v>11.62790697674412</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L953" t="n">
         <v>43.69000000000001</v>
@@ -49336,7 +49108,7 @@
         <v>57.39999999999994</v>
       </c>
       <c r="K954" t="n">
-        <v>4.347826086956561</v>
+        <v>-59.99999999999962</v>
       </c>
       <c r="L954" t="n">
         <v>43.61000000000001</v>
@@ -49387,7 +49159,7 @@
         <v>57.59999999999994</v>
       </c>
       <c r="K955" t="n">
-        <v>8.333333333333409</v>
+        <v>-37.49999999999945</v>
       </c>
       <c r="L955" t="n">
         <v>43.54000000000001</v>
@@ -49438,7 +49210,7 @@
         <v>57.59999999999994</v>
       </c>
       <c r="K956" t="n">
-        <v>6.382978723404313</v>
+        <v>-37.49999999999945</v>
       </c>
       <c r="L956" t="n">
         <v>43.48000000000001</v>
@@ -49489,7 +49261,7 @@
         <v>57.79999999999995</v>
       </c>
       <c r="K957" t="n">
-        <v>2.04081632653063</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L957" t="n">
         <v>43.40000000000001</v>
@@ -49540,7 +49312,7 @@
         <v>57.79999999999995</v>
       </c>
       <c r="K958" t="n">
-        <v>2.04081632653063</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L958" t="n">
         <v>43.31000000000002</v>
@@ -49591,7 +49363,7 @@
         <v>57.89999999999995</v>
       </c>
       <c r="K959" t="n">
-        <v>2.04081632653063</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L959" t="n">
         <v>43.22000000000001</v>
@@ -49642,7 +49414,7 @@
         <v>57.99999999999995</v>
       </c>
       <c r="K960" t="n">
-        <v>-56.24999999999971</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L960" t="n">
         <v>43.12000000000001</v>
@@ -49693,7 +49465,7 @@
         <v>57.99999999999995</v>
       </c>
       <c r="K961" t="n">
-        <v>-48.14814814814788</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L961" t="n">
         <v>43.07000000000001</v>
@@ -49744,7 +49516,7 @@
         <v>57.99999999999995</v>
       </c>
       <c r="K962" t="n">
-        <v>-41.66666666666632</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L962" t="n">
         <v>43.00000000000001</v>
@@ -49795,7 +49567,7 @@
         <v>58.09999999999994</v>
       </c>
       <c r="K963" t="n">
-        <v>-49.99999999999956</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L963" t="n">
         <v>42.94000000000001</v>
@@ -49846,7 +49618,7 @@
         <v>58.39999999999994</v>
       </c>
       <c r="K964" t="n">
-        <v>-30.76923076923056</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L964" t="n">
         <v>42.94000000000001</v>
@@ -49897,7 +49669,7 @@
         <v>58.49999999999994</v>
       </c>
       <c r="K965" t="n">
-        <v>-30.76923076923056</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L965" t="n">
         <v>42.93000000000001</v>
@@ -49948,7 +49720,7 @@
         <v>58.59999999999994</v>
       </c>
       <c r="K966" t="n">
-        <v>-23.07692307692279</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L966" t="n">
         <v>42.93000000000001</v>
@@ -49999,7 +49771,7 @@
         <v>58.69999999999995</v>
       </c>
       <c r="K967" t="n">
-        <v>-25.92592592592568</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L967" t="n">
         <v>42.94000000000001</v>
@@ -50050,7 +49822,7 @@
         <v>58.69999999999995</v>
       </c>
       <c r="K968" t="n">
-        <v>-30.76923076923056</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L968" t="n">
         <v>42.95000000000002</v>
@@ -50101,7 +49873,7 @@
         <v>58.69999999999995</v>
       </c>
       <c r="K969" t="n">
-        <v>-27.99999999999975</v>
+        <v>42.85714285714373</v>
       </c>
       <c r="L969" t="n">
         <v>42.97000000000002</v>
@@ -50152,7 +49924,7 @@
         <v>58.89999999999995</v>
       </c>
       <c r="K970" t="n">
-        <v>-33.33333333333316</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L970" t="n">
         <v>42.98000000000002</v>
@@ -50203,7 +49975,7 @@
         <v>58.99999999999995</v>
       </c>
       <c r="K971" t="n">
-        <v>-21.7391304347825</v>
+        <v>0</v>
       </c>
       <c r="L971" t="n">
         <v>42.98000000000002</v>
@@ -50254,7 +50026,7 @@
         <v>59.19999999999995</v>
       </c>
       <c r="K972" t="n">
-        <v>-39.13043478260856</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L972" t="n">
         <v>42.96000000000002</v>
@@ -50305,7 +50077,7 @@
         <v>59.19999999999995</v>
       </c>
       <c r="K973" t="n">
-        <v>-33.33333333333311</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L973" t="n">
         <v>42.95000000000002</v>
@@ -50356,7 +50128,7 @@
         <v>59.39999999999994</v>
       </c>
       <c r="K974" t="n">
-        <v>-10.00000000000014</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L974" t="n">
         <v>42.93000000000002</v>
@@ -50407,7 +50179,7 @@
         <v>59.39999999999994</v>
       </c>
       <c r="K975" t="n">
-        <v>-22.22222222222257</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L975" t="n">
         <v>42.90000000000002</v>
@@ -50458,7 +50230,7 @@
         <v>59.39999999999994</v>
       </c>
       <c r="K976" t="n">
-        <v>-22.22222222222257</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L976" t="n">
         <v>42.86000000000003</v>
@@ -50509,7 +50281,7 @@
         <v>59.49999999999994</v>
       </c>
       <c r="K977" t="n">
-        <v>-5.882352941176569</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L977" t="n">
         <v>42.84000000000002</v>
@@ -50560,7 +50332,7 @@
         <v>59.49999999999994</v>
       </c>
       <c r="K978" t="n">
-        <v>-5.882352941176569</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L978" t="n">
         <v>42.82000000000001</v>
@@ -50611,7 +50383,7 @@
         <v>59.59999999999994</v>
       </c>
       <c r="K979" t="n">
-        <v>-5.882352941176569</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L979" t="n">
         <v>42.79000000000001</v>
@@ -50662,7 +50434,7 @@
         <v>59.79999999999994</v>
       </c>
       <c r="K980" t="n">
-        <v>-11.11111111111093</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L980" t="n">
         <v>42.76000000000002</v>
@@ -50713,7 +50485,7 @@
         <v>59.89999999999994</v>
       </c>
       <c r="K981" t="n">
-        <v>-15.78947368421045</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L981" t="n">
         <v>42.73000000000002</v>
@@ -50764,7 +50536,7 @@
         <v>60.09999999999994</v>
       </c>
       <c r="K982" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L982" t="n">
         <v>42.70000000000002</v>
@@ -50815,7 +50587,7 @@
         <v>60.39999999999995</v>
       </c>
       <c r="K983" t="n">
-        <v>-4.347826086956576</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L983" t="n">
         <v>42.70000000000002</v>
@@ -50866,7 +50638,7 @@
         <v>60.39999999999995</v>
       </c>
       <c r="K984" t="n">
-        <v>-19.99999999999986</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L984" t="n">
         <v>42.68000000000002</v>
@@ -50917,7 +50689,7 @@
         <v>60.39999999999995</v>
       </c>
       <c r="K985" t="n">
-        <v>-26.31578947368413</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L985" t="n">
         <v>42.66000000000002</v>
@@ -50968,7 +50740,7 @@
         <v>60.39999999999995</v>
       </c>
       <c r="K986" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L986" t="n">
         <v>42.64000000000002</v>
@@ -51019,7 +50791,7 @@
         <v>60.49999999999995</v>
       </c>
       <c r="K987" t="n">
-        <v>-22.22222222222209</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L987" t="n">
         <v>42.62000000000002</v>
@@ -51070,7 +50842,7 @@
         <v>60.59999999999994</v>
       </c>
       <c r="K988" t="n">
-        <v>-15.78947368421076</v>
+        <v>0</v>
       </c>
       <c r="L988" t="n">
         <v>42.61000000000003</v>
@@ -51121,7 +50893,7 @@
         <v>60.79999999999994</v>
       </c>
       <c r="K989" t="n">
-        <v>-23.80952380952387</v>
+        <v>0</v>
       </c>
       <c r="L989" t="n">
         <v>42.59000000000002</v>
@@ -51172,7 +50944,7 @@
         <v>61.19999999999994</v>
       </c>
       <c r="K990" t="n">
-        <v>4.347826086956602</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L990" t="n">
         <v>42.63000000000002</v>
@@ -51223,7 +50995,7 @@
         <v>61.39999999999994</v>
       </c>
       <c r="K991" t="n">
-        <v>0</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L991" t="n">
         <v>42.66000000000003</v>
@@ -51274,7 +51046,7 @@
         <v>61.59999999999994</v>
       </c>
       <c r="K992" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L992" t="n">
         <v>42.73000000000003</v>
@@ -51325,7 +51097,7 @@
         <v>61.69999999999995</v>
       </c>
       <c r="K993" t="n">
-        <v>11.99999999999989</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L993" t="n">
         <v>42.76000000000002</v>
@@ -51376,7 +51148,7 @@
         <v>61.79999999999995</v>
       </c>
       <c r="K994" t="n">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L994" t="n">
         <v>42.78000000000002</v>
@@ -51427,7 +51199,7 @@
         <v>61.99999999999994</v>
       </c>
       <c r="K995" t="n">
-        <v>-7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L995" t="n">
         <v>42.78000000000002</v>
@@ -51478,7 +51250,7 @@
         <v>62.19999999999994</v>
       </c>
       <c r="K996" t="n">
-        <v>0</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L996" t="n">
         <v>42.80000000000002</v>
@@ -51529,7 +51301,7 @@
         <v>62.19999999999994</v>
       </c>
       <c r="K997" t="n">
-        <v>-3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L997" t="n">
         <v>42.81000000000002</v>
@@ -51580,7 +51352,7 @@
         <v>62.39999999999993</v>
       </c>
       <c r="K998" t="n">
-        <v>-10.34482758620683</v>
+        <v>0</v>
       </c>
       <c r="L998" t="n">
         <v>42.79000000000002</v>
@@ -51631,7 +51403,7 @@
         <v>62.59999999999993</v>
       </c>
       <c r="K999" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L999" t="n">
         <v>42.81000000000002</v>
@@ -51682,7 +51454,7 @@
         <v>62.59999999999993</v>
       </c>
       <c r="K1000" t="n">
-        <v>7.142857142857016</v>
+        <v>0</v>
       </c>
       <c r="L1000" t="n">
         <v>42.79000000000002</v>
@@ -51733,7 +51505,7 @@
         <v>62.79999999999993</v>
       </c>
       <c r="K1001" t="n">
-        <v>3.448275862069033</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L1001" t="n">
         <v>42.77000000000002</v>
@@ -51784,7 +51556,7 @@
         <v>63.09999999999992</v>
       </c>
       <c r="K1002" t="n">
-        <v>20.00000000000019</v>
+        <v>0</v>
       </c>
       <c r="L1002" t="n">
         <v>42.76000000000002</v>

--- a/BackTest/2019-10-21 BackTest FNB.xlsx
+++ b/BackTest/2019-10-21 BackTest FNB.xlsx
@@ -7381,14 +7381,20 @@
         <v>41.24000000000011</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>40.8</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +7422,20 @@
         <v>41.23666666666678</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7463,20 @@
         <v>41.23166666666678</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>41</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7504,20 @@
         <v>41.22500000000012</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +7545,20 @@
         <v>41.21833333333345</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +7586,20 @@
         <v>41.20833333333345</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7591,14 +7627,20 @@
         <v>41.20000000000012</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>40.8</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7626,14 +7668,20 @@
         <v>41.19166666666678</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7661,14 +7709,20 @@
         <v>41.18333333333344</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>40.7</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7696,14 +7750,20 @@
         <v>41.17500000000011</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>40.7</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,12 +7797,12 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7854,14 +7914,12 @@
         <v>41.14500000000011</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>41</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -7895,14 +7953,12 @@
         <v>41.13833333333344</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>41</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -7936,14 +7992,12 @@
         <v>41.13166666666677</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>41</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -7977,14 +8031,12 @@
         <v>41.12500000000011</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>41</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8330,14 +8382,12 @@
         <v>41.06166666666677</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>41</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8371,14 +8421,12 @@
         <v>41.05833333333344</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>41</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -14145,12 +14193,14 @@
         <v>41.18666666666677</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -14184,12 +14234,14 @@
         <v>41.1800000000001</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -14223,12 +14275,14 @@
         <v>41.17166666666677</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -14262,12 +14316,14 @@
         <v>41.16666666666676</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>40.8</v>
+      </c>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -14301,12 +14357,14 @@
         <v>41.1600000000001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>41</v>
+      </c>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -14340,12 +14398,14 @@
         <v>41.15500000000009</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -14379,12 +14439,14 @@
         <v>41.1500000000001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>41</v>
+      </c>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -14535,14 +14597,12 @@
         <v>41.12666666666679</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14576,14 +14636,12 @@
         <v>41.12166666666679</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14617,14 +14675,12 @@
         <v>41.1166666666668</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14658,14 +14714,12 @@
         <v>41.1116666666668</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>41</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14699,14 +14753,12 @@
         <v>41.1066666666668</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14740,14 +14792,12 @@
         <v>41.10000000000014</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14781,14 +14831,12 @@
         <v>41.09333333333347</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14822,14 +14870,12 @@
         <v>41.0866666666668</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14863,14 +14909,12 @@
         <v>41.08000000000013</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -14904,14 +14948,12 @@
         <v>41.07333333333347</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14945,14 +14987,12 @@
         <v>41.0666666666668</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -14986,14 +15026,12 @@
         <v>41.05833333333347</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -15027,14 +15065,12 @@
         <v>41.05000000000013</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -15068,14 +15104,12 @@
         <v>41.04166666666679</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -15109,14 +15143,12 @@
         <v>41.03333333333346</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
@@ -15150,14 +15182,12 @@
         <v>41.02833333333346</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
@@ -15191,14 +15221,12 @@
         <v>41.02333333333347</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
@@ -15232,14 +15260,12 @@
         <v>41.0166666666668</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
@@ -15273,14 +15299,12 @@
         <v>41.0066666666668</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
@@ -15314,14 +15338,12 @@
         <v>41.00000000000013</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
@@ -15355,14 +15377,12 @@
         <v>40.99333333333346</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
@@ -15396,14 +15416,12 @@
         <v>40.98666666666679</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
@@ -15437,14 +15455,12 @@
         <v>40.98000000000012</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
@@ -15478,14 +15494,12 @@
         <v>40.96833333333346</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
@@ -15519,14 +15533,12 @@
         <v>40.96166666666679</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
@@ -15560,14 +15572,12 @@
         <v>40.95500000000013</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
@@ -15601,14 +15611,12 @@
         <v>40.94833333333346</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
@@ -15642,14 +15650,12 @@
         <v>40.94333333333346</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
@@ -15683,14 +15689,12 @@
         <v>40.9416666666668</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
@@ -15724,14 +15728,12 @@
         <v>40.9366666666668</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
@@ -15765,14 +15767,12 @@
         <v>40.9366666666668</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
@@ -15806,14 +15806,12 @@
         <v>40.93166666666681</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
@@ -15847,14 +15845,12 @@
         <v>40.93166666666681</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
@@ -15888,14 +15884,12 @@
         <v>40.92666666666681</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
@@ -15929,14 +15923,12 @@
         <v>40.92166666666682</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
@@ -15970,14 +15962,12 @@
         <v>40.91666666666682</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -16011,14 +16001,12 @@
         <v>40.91500000000016</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -16052,14 +16040,12 @@
         <v>40.91500000000016</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
@@ -16093,14 +16079,12 @@
         <v>40.91333333333349</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
@@ -16134,14 +16118,12 @@
         <v>40.91000000000016</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
@@ -16175,14 +16157,12 @@
         <v>40.90666666666683</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -16216,14 +16196,12 @@
         <v>40.90500000000016</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
@@ -16257,14 +16235,12 @@
         <v>40.90000000000016</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -16298,14 +16274,12 @@
         <v>40.8983333333335</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
@@ -16339,14 +16313,12 @@
         <v>40.89666666666683</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
@@ -16380,14 +16352,12 @@
         <v>40.89333333333349</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
@@ -16421,14 +16391,12 @@
         <v>40.89000000000015</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -16462,14 +16430,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
@@ -16503,14 +16469,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -16544,14 +16508,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -16585,14 +16547,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -16626,14 +16586,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
@@ -16667,14 +16625,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
@@ -16708,14 +16664,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
@@ -16749,14 +16703,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
@@ -16790,14 +16742,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
@@ -16831,14 +16781,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
@@ -16872,14 +16820,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
@@ -16913,14 +16859,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
@@ -16954,14 +16898,12 @@
         <v>40.88666666666681</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
@@ -16995,14 +16937,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
@@ -17036,14 +16976,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
@@ -17077,14 +17015,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
@@ -17118,14 +17054,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
@@ -17159,14 +17093,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
@@ -17200,14 +17132,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
@@ -17241,14 +17171,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
@@ -17282,14 +17210,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
@@ -17323,14 +17249,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
@@ -17364,14 +17288,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
@@ -17405,14 +17327,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
@@ -17446,14 +17366,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
@@ -17487,14 +17405,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
@@ -17528,14 +17444,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
@@ -17569,14 +17483,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
@@ -17610,14 +17522,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
@@ -17651,14 +17561,12 @@
         <v>40.88833333333348</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
@@ -17692,14 +17600,12 @@
         <v>40.89000000000014</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>41</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
@@ -17733,14 +17639,12 @@
         <v>40.89500000000015</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>41</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
@@ -17774,14 +17678,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>41</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
@@ -17815,14 +17717,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>41</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
@@ -17856,14 +17756,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
@@ -17897,14 +17795,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
@@ -17938,14 +17834,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
@@ -17979,14 +17873,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
@@ -18020,14 +17912,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
@@ -18061,14 +17951,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
@@ -18102,14 +17990,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
@@ -18143,14 +18029,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
@@ -18184,14 +18068,12 @@
         <v>40.89666666666681</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
@@ -18225,14 +18107,12 @@
         <v>40.89166666666681</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
@@ -18266,14 +18146,12 @@
         <v>40.89166666666681</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
@@ -18307,14 +18185,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
@@ -18348,14 +18224,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
@@ -18389,14 +18263,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
@@ -18430,14 +18302,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
@@ -18471,14 +18341,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
@@ -18512,14 +18380,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
@@ -18553,14 +18419,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
@@ -18594,14 +18458,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
@@ -18635,14 +18497,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
@@ -18676,14 +18536,12 @@
         <v>40.88500000000015</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
@@ -18717,14 +18575,12 @@
         <v>40.8883333333335</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
@@ -18758,14 +18614,12 @@
         <v>40.89000000000016</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
@@ -18799,14 +18653,12 @@
         <v>40.89166666666683</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
@@ -18840,14 +18692,12 @@
         <v>40.89500000000017</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
@@ -18881,14 +18731,12 @@
         <v>40.8983333333335</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
@@ -18922,14 +18770,12 @@
         <v>40.90166666666684</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
@@ -18963,14 +18809,12 @@
         <v>40.90166666666684</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
@@ -19004,14 +18848,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
@@ -19045,14 +18887,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
@@ -19086,14 +18926,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
@@ -19127,14 +18965,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
@@ -19168,14 +19004,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
@@ -19209,14 +19043,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
@@ -19250,14 +19082,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
@@ -19291,14 +19121,12 @@
         <v>40.90333333333351</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
@@ -19332,14 +19160,12 @@
         <v>40.90500000000017</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
@@ -19373,14 +19199,12 @@
         <v>40.90666666666684</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
@@ -19414,14 +19238,12 @@
         <v>40.91000000000017</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
@@ -19455,14 +19277,12 @@
         <v>40.9133333333335</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
@@ -19496,14 +19316,12 @@
         <v>40.91666666666683</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
@@ -19537,14 +19355,12 @@
         <v>40.92000000000016</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
@@ -19578,14 +19394,12 @@
         <v>40.91833333333349</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
@@ -19619,14 +19433,12 @@
         <v>40.92000000000016</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>41</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
@@ -19660,14 +19472,12 @@
         <v>40.92166666666682</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
@@ -19701,14 +19511,12 @@
         <v>40.92333333333349</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>41</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
@@ -19742,14 +19550,12 @@
         <v>40.92500000000015</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>41</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
@@ -19783,14 +19589,12 @@
         <v>40.92833333333348</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
@@ -19824,14 +19628,12 @@
         <v>40.93500000000015</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
@@ -19865,14 +19667,12 @@
         <v>40.94166666666682</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
@@ -20998,14 +20798,12 @@
         <v>41.02000000000011</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
@@ -21039,14 +20837,12 @@
         <v>41.02000000000011</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
@@ -21080,14 +20876,12 @@
         <v>41.01833333333344</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
@@ -21121,14 +20915,12 @@
         <v>41.01500000000011</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
@@ -21162,14 +20954,12 @@
         <v>41.01166666666677</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
@@ -21203,14 +20993,12 @@
         <v>41.00833333333343</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
@@ -21244,14 +21032,12 @@
         <v>41.00500000000009</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
@@ -21285,14 +21071,12 @@
         <v>41.00166666666676</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
@@ -21326,14 +21110,12 @@
         <v>40.99833333333342</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
@@ -21367,14 +21149,12 @@
         <v>40.99500000000008</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
@@ -21408,14 +21188,12 @@
         <v>40.99166666666675</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
@@ -21449,14 +21227,12 @@
         <v>40.98833333333341</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
@@ -21490,14 +21266,12 @@
         <v>40.98500000000006</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
@@ -21531,14 +21305,12 @@
         <v>40.98166666666673</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
@@ -21572,14 +21344,12 @@
         <v>40.97833333333339</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
@@ -21613,14 +21383,12 @@
         <v>40.97500000000005</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
@@ -21654,14 +21422,12 @@
         <v>40.97166666666671</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
@@ -21695,14 +21461,12 @@
         <v>40.96833333333338</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
@@ -21736,14 +21500,12 @@
         <v>40.96333333333337</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
@@ -21777,14 +21539,12 @@
         <v>40.95833333333337</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
@@ -21818,14 +21578,12 @@
         <v>40.9516666666667</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
@@ -21859,14 +21617,12 @@
         <v>40.9516666666667</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
@@ -21900,14 +21656,12 @@
         <v>40.94500000000004</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
@@ -21941,14 +21695,12 @@
         <v>40.93833333333337</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
@@ -21982,14 +21734,12 @@
         <v>40.9366666666667</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
@@ -22023,14 +21773,12 @@
         <v>40.93166666666669</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
@@ -22064,14 +21812,12 @@
         <v>40.92666666666669</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
@@ -22105,14 +21851,12 @@
         <v>40.92166666666669</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
@@ -22146,14 +21890,12 @@
         <v>40.91666666666668</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
@@ -22187,14 +21929,12 @@
         <v>40.91000000000001</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
@@ -22228,14 +21968,12 @@
         <v>40.90000000000001</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
@@ -22269,14 +22007,12 @@
         <v>40.89</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
@@ -22310,14 +22046,12 @@
         <v>40.88</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
@@ -22351,14 +22085,12 @@
         <v>40.86999999999999</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
@@ -22392,14 +22124,12 @@
         <v>40.85999999999999</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
@@ -22433,14 +22163,12 @@
         <v>40.85499999999998</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
@@ -22474,14 +22202,12 @@
         <v>40.84833333333331</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
@@ -22515,14 +22241,12 @@
         <v>40.84333333333332</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>40.7</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
@@ -22556,14 +22280,12 @@
         <v>40.83833333333332</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
@@ -22597,14 +22319,12 @@
         <v>40.83333333333333</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
@@ -22638,14 +22358,12 @@
         <v>40.82833333333333</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
@@ -22679,14 +22397,12 @@
         <v>40.82333333333334</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
@@ -22720,14 +22436,12 @@
         <v>40.81833333333334</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
@@ -22761,14 +22475,12 @@
         <v>40.81333333333335</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
@@ -22802,14 +22514,12 @@
         <v>40.80833333333335</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
@@ -22843,14 +22553,12 @@
         <v>40.80333333333336</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
@@ -22884,14 +22592,12 @@
         <v>40.79833333333336</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
@@ -22925,14 +22631,12 @@
         <v>40.79333333333336</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
@@ -22966,14 +22670,12 @@
         <v>40.78833333333337</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
@@ -23007,14 +22709,12 @@
         <v>40.78333333333337</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
@@ -23048,14 +22748,12 @@
         <v>40.77500000000004</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
@@ -23089,14 +22787,12 @@
         <v>40.77166666666671</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
@@ -23130,14 +22826,12 @@
         <v>40.77000000000005</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
@@ -23171,14 +22865,12 @@
         <v>40.77000000000005</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
@@ -23212,14 +22904,12 @@
         <v>40.77000000000005</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
@@ -23253,14 +22943,12 @@
         <v>40.77000000000005</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
@@ -23294,14 +22982,12 @@
         <v>40.77000000000005</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
@@ -23335,14 +23021,12 @@
         <v>40.77500000000004</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
@@ -23376,14 +23060,12 @@
         <v>40.77500000000004</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
@@ -23417,14 +23099,12 @@
         <v>40.78000000000004</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
@@ -23458,14 +23138,12 @@
         <v>40.78000000000004</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
@@ -23499,14 +23177,12 @@
         <v>40.78333333333337</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
@@ -23540,14 +23216,12 @@
         <v>40.78833333333336</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
@@ -23581,14 +23255,12 @@
         <v>40.79000000000003</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>41</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
@@ -23622,14 +23294,12 @@
         <v>40.79333333333337</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
@@ -23663,14 +23333,12 @@
         <v>40.8016666666667</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
@@ -23704,14 +23372,12 @@
         <v>40.80500000000004</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
@@ -23745,14 +23411,12 @@
         <v>40.80833333333338</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
@@ -23786,14 +23450,12 @@
         <v>40.81166666666672</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
@@ -23827,14 +23489,12 @@
         <v>40.81500000000005</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
@@ -23868,14 +23528,12 @@
         <v>40.81833333333339</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
@@ -23909,14 +23567,12 @@
         <v>40.82166666666673</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
@@ -23950,14 +23606,12 @@
         <v>40.82500000000007</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
@@ -23991,14 +23645,12 @@
         <v>40.8283333333334</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
@@ -24032,14 +23684,12 @@
         <v>40.83166666666674</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
@@ -24073,14 +23723,12 @@
         <v>40.83500000000008</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
@@ -24114,14 +23762,12 @@
         <v>40.83833333333342</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
@@ -24155,14 +23801,12 @@
         <v>40.84500000000009</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -24196,14 +23840,12 @@
         <v>40.85166666666676</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -24237,14 +23879,12 @@
         <v>40.85833333333343</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -24278,14 +23918,12 @@
         <v>40.86500000000009</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -24319,14 +23957,12 @@
         <v>40.86500000000009</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -24360,14 +23996,12 @@
         <v>40.87166666666676</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -25181,14 +24815,12 @@
         <v>40.96166666666679</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -25222,14 +24854,12 @@
         <v>40.96333333333345</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
@@ -25263,14 +24893,12 @@
         <v>40.96500000000012</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
@@ -25304,14 +24932,12 @@
         <v>40.96666666666678</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
@@ -25345,14 +24971,12 @@
         <v>40.96833333333345</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
@@ -25386,14 +25010,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
       </c>
-      <c r="J651" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
@@ -25427,14 +25049,12 @@
         <v>40.97166666666678</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
@@ -25468,14 +25088,12 @@
         <v>40.97166666666678</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
@@ -25509,14 +25127,12 @@
         <v>40.97500000000011</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="n">
-        <v>41</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
@@ -25550,14 +25166,12 @@
         <v>40.97666666666677</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
-      <c r="J655" t="n">
-        <v>41</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
@@ -25591,14 +25205,12 @@
         <v>40.97833333333344</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="n">
-        <v>41</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
@@ -25632,14 +25244,12 @@
         <v>40.9800000000001</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
       </c>
-      <c r="J657" t="n">
-        <v>41</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
@@ -25673,14 +25283,12 @@
         <v>40.98166666666677</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>41</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
@@ -25714,14 +25322,12 @@
         <v>40.98333333333343</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>41</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
@@ -25755,14 +25361,12 @@
         <v>40.9800000000001</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>41</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
@@ -25796,14 +25400,12 @@
         <v>40.98166666666677</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>41</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
@@ -25837,14 +25439,12 @@
         <v>40.97833333333344</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>41</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
@@ -26697,14 +26297,12 @@
         <v>40.98166666666677</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
@@ -26738,14 +26336,12 @@
         <v>40.97833333333344</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
@@ -26779,14 +26375,12 @@
         <v>40.97500000000011</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
       </c>
-      <c r="J686" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
@@ -26820,14 +26414,12 @@
         <v>40.97166666666678</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
       </c>
-      <c r="J687" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
@@ -26861,14 +26453,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
       </c>
-      <c r="J688" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
@@ -26902,14 +26492,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>41</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
@@ -26943,14 +26531,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="n">
-        <v>41</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
@@ -26984,14 +26570,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>41</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
@@ -27025,14 +26609,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>41</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr">
         <is>
@@ -27066,14 +26648,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>41</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
@@ -27107,14 +26687,12 @@
         <v>40.97000000000011</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>41</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr">
         <is>
@@ -27148,14 +26726,12 @@
         <v>40.96666666666678</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>41</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr">
         <is>
@@ -27189,14 +26765,12 @@
         <v>40.96500000000012</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr">
         <is>
@@ -27230,14 +26804,12 @@
         <v>40.96500000000012</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>41</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
@@ -27271,14 +26843,12 @@
         <v>40.96666666666678</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
         <is>
@@ -27312,14 +26882,12 @@
         <v>40.96833333333345</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
@@ -28094,14 +27662,12 @@
         <v>40.99166666666676</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
@@ -28135,14 +27701,12 @@
         <v>40.99000000000009</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
@@ -28176,14 +27740,12 @@
         <v>40.98833333333343</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
@@ -28217,14 +27779,12 @@
         <v>40.98666666666676</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
@@ -28258,14 +27818,12 @@
         <v>40.9850000000001</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
@@ -28299,14 +27857,12 @@
         <v>40.98333333333343</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr">
         <is>
@@ -28340,14 +27896,12 @@
         <v>40.98166666666677</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr">
         <is>
@@ -28381,14 +27935,12 @@
         <v>40.9850000000001</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
@@ -28422,14 +27974,12 @@
         <v>40.9900000000001</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
@@ -28463,14 +28013,12 @@
         <v>40.9950000000001</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr">
         <is>
@@ -29089,14 +28637,12 @@
         <v>40.99833333333346</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr">
         <is>
@@ -29130,14 +28676,12 @@
         <v>40.9966666666668</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
@@ -29171,14 +28715,12 @@
         <v>40.99500000000013</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
@@ -29212,14 +28754,12 @@
         <v>40.99333333333347</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
@@ -29253,14 +28793,12 @@
         <v>40.9916666666668</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
@@ -29294,14 +28832,12 @@
         <v>40.9916666666668</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>41</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr">
         <is>
@@ -29335,14 +28871,12 @@
         <v>40.9916666666668</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>41</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr">
         <is>
@@ -29376,14 +28910,12 @@
         <v>40.9916666666668</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>41</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
@@ -29417,14 +28949,12 @@
         <v>40.9916666666668</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
       </c>
-      <c r="J752" t="n">
-        <v>41</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr">
         <is>
@@ -29458,14 +28988,12 @@
         <v>40.9916666666668</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="n">
-        <v>41</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
       <c r="L753" t="inlineStr">
         <is>
@@ -29499,14 +29027,12 @@
         <v>40.99500000000013</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
       </c>
-      <c r="J754" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
       <c r="L754" t="inlineStr">
         <is>
@@ -29540,14 +29066,12 @@
         <v>41.00000000000013</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr">
         <is>
@@ -32545,14 +32069,12 @@
         <v>41.14166666666672</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>40.8</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
       <c r="L832" t="inlineStr">
         <is>
@@ -32586,14 +32108,12 @@
         <v>41.14166666666672</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="inlineStr">
         <is>
@@ -32627,14 +32147,12 @@
         <v>41.14166666666672</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>41</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr">
         <is>
@@ -33919,18 +33437,16 @@
         <v>0</v>
       </c>
       <c r="I867" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
       <c r="L867" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M867" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
@@ -33958,15 +33474,11 @@
         <v>0</v>
       </c>
       <c r="I868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L868" t="inlineStr"/>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -34001,11 +33513,7 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L869" t="inlineStr"/>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -34040,11 +33548,7 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L870" t="inlineStr"/>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -34079,11 +33583,7 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L871" t="inlineStr"/>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -34118,11 +33618,7 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -34157,11 +33653,7 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L873" t="inlineStr"/>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -34196,11 +33688,7 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L874" t="inlineStr"/>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -34235,11 +33723,7 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L875" t="inlineStr"/>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -34270,16 +33754,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
+      <c r="M876" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="1" t="n">
@@ -36617,7 +36099,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest FNB.xlsx
+++ b/BackTest/2019-10-21 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -16588,14 +16588,10 @@
         <v>-331004.2410987162</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="J491" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
@@ -16628,14 +16624,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16667,14 +16657,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16901,14 +16885,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J500" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
@@ -16941,14 +16921,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16980,14 +16954,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20547,10 +20515,14 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J610" t="n">
+        <v>40.7</v>
+      </c>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
@@ -20580,11 +20552,19 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J611" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20613,7 +20593,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>40.7</v>
@@ -20621,7 +20601,11 @@
       <c r="J612" t="n">
         <v>40.7</v>
       </c>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20650,7 +20634,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>40.7</v>
@@ -20658,11 +20642,7 @@
       <c r="J613" t="n">
         <v>40.7</v>
       </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20691,7 +20671,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>40.7</v>
@@ -20732,7 +20712,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>40.7</v>
@@ -20740,7 +20720,11 @@
       <c r="J615" t="n">
         <v>40.7</v>
       </c>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20769,7 +20753,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>40.7</v>
@@ -20777,11 +20761,7 @@
       <c r="J616" t="n">
         <v>40.7</v>
       </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20810,7 +20790,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>40.7</v>
@@ -20851,7 +20831,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>40.7</v>
@@ -20892,7 +20872,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>40.7</v>
@@ -20933,7 +20913,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>40.7</v>
@@ -20974,7 +20954,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>40.7</v>
@@ -21015,7 +20995,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>40.7</v>
@@ -21056,7 +21036,7 @@
         <v>-161999.6667866388</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>40.7</v>
@@ -21097,7 +21077,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>41.1</v>
@@ -21138,9 +21118,11 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J625" t="n">
         <v>40.7</v>
       </c>
@@ -21177,7 +21159,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>40.7</v>
@@ -21218,9 +21200,11 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J627" t="n">
         <v>40.7</v>
       </c>
@@ -21257,7 +21241,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>40.7</v>
@@ -21298,7 +21282,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>40.7</v>
@@ -21339,7 +21323,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>40.7</v>
@@ -21380,7 +21364,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>40.7</v>
@@ -21421,7 +21405,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>40.7</v>
@@ -21462,7 +21446,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>40.7</v>
@@ -21503,7 +21487,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>40.7</v>
@@ -21544,7 +21528,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>40.7</v>
@@ -21585,7 +21569,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>40.7</v>
@@ -21626,7 +21610,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>40.7</v>
@@ -21667,7 +21651,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>40.7</v>
@@ -21708,7 +21692,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>40.7</v>
@@ -21749,9 +21733,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J640" t="n">
         <v>40.7</v>
       </c>
@@ -21788,9 +21774,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J641" t="n">
         <v>40.7</v>
       </c>
@@ -21827,9 +21815,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J642" t="n">
         <v>40.7</v>
       </c>
@@ -21866,9 +21856,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J643" t="n">
         <v>40.7</v>
       </c>
@@ -21905,9 +21897,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J644" t="n">
         <v>40.7</v>
       </c>
@@ -21944,9 +21938,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J645" t="n">
         <v>40.7</v>
       </c>
@@ -21983,9 +21979,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J646" t="n">
         <v>40.7</v>
       </c>
@@ -22022,9 +22020,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J647" t="n">
         <v>40.7</v>
       </c>
@@ -22061,9 +22061,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J648" t="n">
         <v>40.7</v>
       </c>
@@ -22100,9 +22102,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J649" t="n">
         <v>40.7</v>
       </c>
@@ -22139,9 +22143,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J650" t="n">
         <v>40.7</v>
       </c>
@@ -22178,9 +22184,11 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J651" t="n">
         <v>40.7</v>
       </c>
@@ -22217,9 +22225,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J652" t="n">
         <v>40.7</v>
       </c>
@@ -22256,9 +22266,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J653" t="n">
         <v>40.7</v>
       </c>
@@ -22334,9 +22346,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J655" t="n">
         <v>40.7</v>
       </c>
@@ -22373,9 +22387,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J656" t="n">
         <v>40.7</v>
       </c>
@@ -22490,9 +22506,11 @@
         <v>-29581.45118663885</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J659" t="n">
         <v>40.7</v>
       </c>
@@ -31343,9 +31361,11 @@
         <v>-536751.9307827741</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J886" t="n">
         <v>40.7</v>
       </c>
@@ -31382,9 +31402,11 @@
         <v>-462666.2915827741</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J887" t="n">
         <v>40.7</v>
       </c>
@@ -31538,9 +31560,11 @@
         <v>-487060.3717827741</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J891" t="n">
         <v>40.7</v>
       </c>
@@ -32981,7 +33005,7 @@
         <v>151084.222591822</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
@@ -33020,7 +33044,7 @@
         <v>151084.222591822</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
@@ -33644,7 +33668,7 @@
         <v>166638.035691822</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
@@ -34112,7 +34136,7 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
@@ -34580,7 +34604,7 @@
         <v>2977.878291822</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
@@ -34736,7 +34760,7 @@
         <v>167471.079791822</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
@@ -34814,7 +34838,7 @@
         <v>158235.918191822</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
@@ -34822,15 +34846,13 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L975" t="n">
-        <v>1.053968058968059</v>
-      </c>
-      <c r="M975" t="n">
-        <v>1.024630541871921</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" s="1" t="n">
@@ -34858,8 +34880,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34888,11 +34916,17 @@
         <v>227288.191087434</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34924,8 +34958,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34957,8 +34997,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34990,8 +35036,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35023,8 +35075,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35053,11 +35111,17 @@
         <v>172491.199887434</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35086,11 +35150,17 @@
         <v>101846.758087434</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35119,11 +35189,17 @@
         <v>179626.600487434</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35152,11 +35228,17 @@
         <v>179626.600487434</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35185,11 +35267,17 @@
         <v>496345.878487434</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35218,11 +35306,17 @@
         <v>483250.109787434</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35251,11 +35345,17 @@
         <v>507495.236087434</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35284,11 +35384,17 @@
         <v>507495.236087434</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35320,8 +35426,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35353,8 +35465,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35386,8 +35504,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35419,8 +35543,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35452,8 +35582,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35485,8 +35621,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35518,8 +35660,14 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35551,8 +35699,14 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35584,8 +35738,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35617,8 +35777,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35650,8 +35816,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35683,8 +35855,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35716,8 +35894,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35749,8 +35933,14 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35782,8 +35972,14 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35815,8 +36011,14 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35845,11 +36047,17 @@
         <v>1578451.74970953</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35881,8 +36089,14 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35911,11 +36125,17 @@
         <v>1509652.64890953</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35944,15 +36164,23 @@
         <v>1509652.64890953</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
+        <v>1.071167076167076</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>1.024630541871921</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="n">
@@ -35977,7 +36205,7 @@
         <v>1396391.92380953</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36010,7 +36238,7 @@
         <v>1447196.50980953</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36043,7 +36271,7 @@
         <v>1395585.36890953</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36076,7 +36304,7 @@
         <v>1015313.26870953</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36109,7 +36337,7 @@
         <v>1075506.68230953</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36142,7 +36370,7 @@
         <v>1075506.68230953</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36175,7 +36403,7 @@
         <v>1010540.87560953</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36208,7 +36436,7 @@
         <v>1010540.87560953</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36241,7 +36469,7 @@
         <v>1000887.77210953</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36274,7 +36502,7 @@
         <v>949021.10530953</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36307,7 +36535,7 @@
         <v>949021.10530953</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36340,7 +36568,7 @@
         <v>949021.10530953</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36373,7 +36601,7 @@
         <v>924800.8052095301</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36472,7 +36700,7 @@
         <v>1117106.05710953</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36538,7 +36766,7 @@
         <v>1036225.66570953</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36571,7 +36799,7 @@
         <v>1036225.66570953</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36604,7 +36832,7 @@
         <v>970582.7105095302</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36637,7 +36865,7 @@
         <v>961387.2821095302</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36802,7 +37030,7 @@
         <v>971601.6504095301</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36835,7 +37063,7 @@
         <v>990744.9140095301</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36868,7 +37096,7 @@
         <v>990744.9140095301</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36901,7 +37129,7 @@
         <v>946423.2775095301</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36934,7 +37162,7 @@
         <v>930896.2716095301</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36967,7 +37195,7 @@
         <v>859227.7662291563</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37000,7 +37228,7 @@
         <v>809946.2908291563</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37033,7 +37261,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37066,7 +37294,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37099,7 +37327,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37132,7 +37360,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37165,7 +37393,7 @@
         <v>1000406.044832187</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37198,7 +37426,7 @@
         <v>1002075.671832187</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37231,7 +37459,7 @@
         <v>998522.4911321866</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37264,7 +37492,7 @@
         <v>1143812.213932187</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37297,7 +37525,7 @@
         <v>1126613.428432187</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37308,6 +37536,6 @@
       <c r="M1050" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest FNB.xlsx
+++ b/BackTest/2019-10-21 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -15631,10 +15631,14 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J462" t="n">
+        <v>40.7</v>
+      </c>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
@@ -15664,11 +15668,19 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J463" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15700,8 +15712,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,10 +15748,14 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J465" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
@@ -15763,11 +15785,19 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J466" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15826,19 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J467" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,10 +15867,14 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J468" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
@@ -15862,11 +15904,19 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J469" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +15945,19 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J470" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,10 +15986,14 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J471" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
@@ -15961,11 +16023,19 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J472" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16064,19 @@
         <v>-258539.9185987162</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J473" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16105,19 @@
         <v>-323960.4589987162</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J474" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16146,19 @@
         <v>-273476.2909987162</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J475" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16187,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J476" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16228,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J477" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16269,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J478" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16310,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J479" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16351,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J480" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16392,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J481" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16433,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J482" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16474,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J483" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16515,19 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J484" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16556,19 @@
         <v>-370337.3614987162</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J485" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16597,19 @@
         <v>-328236.0782987162</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J486" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +16638,19 @@
         <v>-328236.0782987162</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J487" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +16679,19 @@
         <v>-332226.9496987162</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J488" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +16720,19 @@
         <v>-332226.9496987162</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J489" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +16761,19 @@
         <v>-332226.9496987162</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J490" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +16802,19 @@
         <v>-331004.2410987162</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J491" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +16843,19 @@
         <v>-332226.9497987162</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J492" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +16884,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J493" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16925,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J494" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +16966,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J495" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +17007,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J496" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +17048,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J497" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +17089,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J498" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +17130,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J499" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17171,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J500" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17212,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J501" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17253,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J502" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17294,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J503" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17335,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J504" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17376,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J505" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17417,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J506" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17458,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J507" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17499,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J508" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +17540,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J509" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +17581,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J510" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +17622,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J511" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17663,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J512" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17704,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J513" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17745,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J514" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17786,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J515" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17827,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J516" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17868,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J517" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17909,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J518" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17950,19 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J519" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17991,19 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J520" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +18032,19 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>41</v>
+      </c>
+      <c r="J521" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +18073,19 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>41</v>
+      </c>
+      <c r="J522" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +18114,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>41</v>
+      </c>
+      <c r="J523" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +18155,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J524" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +18196,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J525" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18237,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J526" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18278,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J527" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18319,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J528" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18360,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J529" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18401,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J530" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18442,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J531" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18483,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J532" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18524,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J533" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18565,19 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J534" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18606,19 @@
         <v>-242331.2766987162</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J535" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18647,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J536" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18688,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J537" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18729,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J538" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18770,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J539" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18811,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J540" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18852,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J541" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18893,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J542" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18934,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J543" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18975,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J544" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +19016,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J545" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +19057,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J546" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +19098,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J547" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +19139,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J548" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +19180,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J549" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +19221,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J550" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +19262,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J551" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +19303,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J552" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +19344,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J553" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +19385,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J554" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +19426,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J555" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +19467,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J556" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +19508,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J557" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +19549,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J558" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +19590,19 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J559" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +19631,19 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J560" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +19672,19 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>41</v>
+      </c>
+      <c r="J561" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +19713,19 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>41</v>
+      </c>
+      <c r="J562" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +19754,19 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J563" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +19795,19 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J564" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19033,8 +19839,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19066,8 +19878,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +19914,19 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J567" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19955,19 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>41</v>
+      </c>
+      <c r="J568" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19165,8 +19999,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +20035,19 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>41</v>
+      </c>
+      <c r="J570" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +20079,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19264,8 +20118,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19297,8 +20157,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19330,8 +20196,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19363,8 +20235,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19396,8 +20274,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19429,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +20352,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +20391,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19528,8 +20430,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +20469,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +20508,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19627,8 +20547,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +20586,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19693,8 +20625,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19726,8 +20664,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19759,8 +20703,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19792,8 +20742,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19825,8 +20781,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19858,8 +20820,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19891,8 +20859,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20898,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +20937,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20976,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +21015,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +21054,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +21093,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +21132,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +21171,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +21210,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +21249,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +21288,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +21327,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +21366,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +21405,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +21444,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +21483,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +21522,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +21561,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,15 +21597,17 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K610" t="inlineStr"/>
+        <v>40.9</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20558,11 +21642,11 @@
         <v>40.7</v>
       </c>
       <c r="J611" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L611" t="n">
@@ -20599,11 +21683,11 @@
         <v>40.7</v>
       </c>
       <c r="J612" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L612" t="n">
@@ -20640,9 +21724,13 @@
         <v>40.7</v>
       </c>
       <c r="J613" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K613" t="inlineStr"/>
+        <v>40.9</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20677,11 +21765,11 @@
         <v>40.7</v>
       </c>
       <c r="J614" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L614" t="n">
@@ -20718,11 +21806,11 @@
         <v>40.7</v>
       </c>
       <c r="J615" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L615" t="n">
@@ -20759,9 +21847,13 @@
         <v>40.7</v>
       </c>
       <c r="J616" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K616" t="inlineStr"/>
+        <v>40.9</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20796,11 +21888,11 @@
         <v>40.7</v>
       </c>
       <c r="J617" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L617" t="n">
@@ -20837,7 +21929,7 @@
         <v>40.7</v>
       </c>
       <c r="J618" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -20878,7 +21970,7 @@
         <v>40.7</v>
       </c>
       <c r="J619" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -20919,7 +22011,7 @@
         <v>40.7</v>
       </c>
       <c r="J620" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -20960,7 +22052,7 @@
         <v>40.7</v>
       </c>
       <c r="J621" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21001,7 +22093,7 @@
         <v>40.7</v>
       </c>
       <c r="J622" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21042,7 +22134,7 @@
         <v>40.7</v>
       </c>
       <c r="J623" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21077,13 +22169,11 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21118,13 +22208,11 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21165,7 +22253,7 @@
         <v>40.7</v>
       </c>
       <c r="J626" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21206,7 +22294,7 @@
         <v>40.7</v>
       </c>
       <c r="J627" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21241,13 +22329,11 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21288,7 +22374,7 @@
         <v>40.7</v>
       </c>
       <c r="J629" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21329,7 +22415,7 @@
         <v>40.7</v>
       </c>
       <c r="J630" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21370,7 +22456,7 @@
         <v>40.7</v>
       </c>
       <c r="J631" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21411,7 +22497,7 @@
         <v>40.7</v>
       </c>
       <c r="J632" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21452,7 +22538,7 @@
         <v>40.7</v>
       </c>
       <c r="J633" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21493,7 +22579,7 @@
         <v>40.7</v>
       </c>
       <c r="J634" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21534,7 +22620,7 @@
         <v>40.7</v>
       </c>
       <c r="J635" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21575,7 +22661,7 @@
         <v>40.7</v>
       </c>
       <c r="J636" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21616,7 +22702,7 @@
         <v>40.7</v>
       </c>
       <c r="J637" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21657,7 +22743,7 @@
         <v>40.7</v>
       </c>
       <c r="J638" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21698,7 +22784,7 @@
         <v>40.7</v>
       </c>
       <c r="J639" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21739,7 +22825,7 @@
         <v>40.8</v>
       </c>
       <c r="J640" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21780,7 +22866,7 @@
         <v>40.8</v>
       </c>
       <c r="J641" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21821,7 +22907,7 @@
         <v>40.8</v>
       </c>
       <c r="J642" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21862,7 +22948,7 @@
         <v>40.8</v>
       </c>
       <c r="J643" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21903,7 +22989,7 @@
         <v>40.8</v>
       </c>
       <c r="J644" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21944,7 +23030,7 @@
         <v>40.8</v>
       </c>
       <c r="J645" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21985,7 +23071,7 @@
         <v>40.8</v>
       </c>
       <c r="J646" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22026,7 +23112,7 @@
         <v>40.8</v>
       </c>
       <c r="J647" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22067,7 +23153,7 @@
         <v>40.8</v>
       </c>
       <c r="J648" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22108,7 +23194,7 @@
         <v>40.8</v>
       </c>
       <c r="J649" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22149,7 +23235,7 @@
         <v>40.8</v>
       </c>
       <c r="J650" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22190,7 +23276,7 @@
         <v>40.8</v>
       </c>
       <c r="J651" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22231,7 +23317,7 @@
         <v>40.8</v>
       </c>
       <c r="J652" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22266,13 +23352,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22311,7 +23395,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22346,13 +23430,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22387,13 +23469,11 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22432,7 +23512,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22471,7 +23551,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22506,13 +23586,11 @@
         <v>-29581.45118663885</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22551,7 +23629,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22590,7 +23668,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22629,7 +23707,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22668,7 +23746,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22707,7 +23785,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22746,7 +23824,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22785,7 +23863,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22824,7 +23902,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22863,7 +23941,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22902,7 +23980,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22941,7 +24019,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22980,7 +24058,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23019,7 +24097,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23058,7 +24136,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23097,7 +24175,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23136,7 +24214,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23175,7 +24253,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23214,7 +24292,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23253,7 +24331,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23292,7 +24370,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23331,7 +24409,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23370,7 +24448,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23409,7 +24487,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23448,7 +24526,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23487,7 +24565,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23526,7 +24604,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23565,7 +24643,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23604,7 +24682,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23643,7 +24721,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23682,7 +24760,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23721,7 +24799,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23760,7 +24838,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23799,7 +24877,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23838,7 +24916,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23877,7 +24955,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23916,7 +24994,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23955,7 +25033,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23994,7 +25072,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24033,7 +25111,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24072,7 +25150,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24111,7 +25189,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24150,7 +25228,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24189,7 +25267,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24228,7 +25306,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24267,7 +25345,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24306,7 +25384,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24345,7 +25423,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24384,7 +25462,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24423,7 +25501,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24462,7 +25540,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24501,7 +25579,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24540,7 +25618,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24579,7 +25657,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24618,7 +25696,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24657,7 +25735,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24696,7 +25774,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24735,7 +25813,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24774,7 +25852,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24813,7 +25891,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24852,7 +25930,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24891,7 +25969,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24930,7 +26008,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24969,7 +26047,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25008,7 +26086,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25047,7 +26125,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25086,7 +26164,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25125,7 +26203,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25164,7 +26242,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25203,7 +26281,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25242,7 +26320,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25281,7 +26359,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25320,7 +26398,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25359,7 +26437,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25398,7 +26476,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25437,7 +26515,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25476,7 +26554,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25515,7 +26593,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25554,7 +26632,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25593,7 +26671,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25632,7 +26710,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25671,7 +26749,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25710,7 +26788,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25749,7 +26827,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25784,11 +26862,13 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J743" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25823,11 +26903,13 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J744" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25862,11 +26944,13 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J745" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25901,11 +26985,13 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J746" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -25940,11 +27026,13 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J747" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -25979,11 +27067,13 @@
         <v>-191893.3362866388</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J748" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26022,7 +27112,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26061,7 +27151,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26100,7 +27190,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26139,7 +27229,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26178,7 +27268,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26217,7 +27307,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26252,11 +27342,13 @@
         <v>-246275.5528866388</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J755" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26291,11 +27383,13 @@
         <v>-209206.9476866388</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J756" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26330,11 +27424,13 @@
         <v>-207887.9720866388</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>41</v>
+      </c>
       <c r="J757" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26373,7 +27469,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26412,7 +27508,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26451,7 +27547,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26490,7 +27586,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26529,7 +27625,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26568,7 +27664,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26607,7 +27703,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26646,7 +27742,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26685,7 +27781,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26724,7 +27820,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26763,7 +27859,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26802,7 +27898,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26841,7 +27937,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26880,7 +27976,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -26919,7 +28015,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -26958,7 +28054,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -26997,7 +28093,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27036,7 +28132,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27075,7 +28171,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27110,11 +28206,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J777" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27149,11 +28247,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J778" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27188,11 +28288,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J779" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27227,11 +28329,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J780" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27266,11 +28370,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J781" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27305,11 +28411,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J782" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27344,11 +28452,13 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J783" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27387,7 +28497,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27422,11 +28532,13 @@
         <v>-248708.7868866388</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J785" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27465,7 +28577,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27504,7 +28616,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27543,7 +28655,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27582,7 +28694,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27621,7 +28733,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27660,7 +28772,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27699,7 +28811,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27738,7 +28850,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27777,7 +28889,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -27816,7 +28928,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -27855,7 +28967,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27894,7 +29006,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -27933,7 +29045,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -27972,7 +29084,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -28011,7 +29123,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -28050,7 +29162,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -28089,7 +29201,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -28128,7 +29240,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -28167,7 +29279,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -28206,7 +29318,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -28245,7 +29357,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -28280,11 +29392,13 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J807" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -28319,11 +29433,13 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J808" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -28362,7 +29478,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -28401,7 +29517,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -28440,7 +29556,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -28479,7 +29595,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -28518,7 +29634,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -28557,7 +29673,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -28596,7 +29712,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -28635,7 +29751,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -28674,7 +29790,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -28713,7 +29829,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -28752,7 +29868,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -28791,7 +29907,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -28830,7 +29946,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28869,7 +29985,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28908,7 +30024,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28947,7 +30063,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28986,7 +30102,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -29025,7 +30141,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -29064,7 +30180,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -29103,7 +30219,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -29142,7 +30258,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -29181,7 +30297,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -29220,7 +30336,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -29259,7 +30375,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -29298,7 +30414,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -29337,7 +30453,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -29376,7 +30492,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -29415,7 +30531,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -29454,7 +30570,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -29493,7 +30609,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -29532,7 +30648,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -29571,7 +30687,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -29610,7 +30726,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -29649,7 +30765,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -29688,7 +30804,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -29727,7 +30843,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -29766,7 +30882,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -29805,7 +30921,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -29844,7 +30960,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -29883,7 +30999,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -29922,7 +31038,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29961,7 +31077,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -30000,7 +31116,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -30039,7 +31155,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -30078,7 +31194,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -30117,7 +31233,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -30156,7 +31272,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -30195,7 +31311,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -30234,7 +31350,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -30273,7 +31389,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -30312,7 +31428,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -30351,7 +31467,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -30390,7 +31506,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -30429,7 +31545,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -30468,7 +31584,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -30507,7 +31623,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -30546,7 +31662,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -30585,7 +31701,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -30624,7 +31740,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -30663,7 +31779,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -30702,7 +31818,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -30741,7 +31857,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -30780,7 +31896,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -30819,7 +31935,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -30858,7 +31974,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -30897,7 +32013,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -30936,7 +32052,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -30975,7 +32091,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -31014,7 +32130,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -31053,7 +32169,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -31092,7 +32208,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -31131,7 +32247,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -31170,7 +32286,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -31209,7 +32325,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -31244,11 +32360,13 @@
         <v>-536751.9307827741</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J883" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -31283,11 +32401,13 @@
         <v>-536751.9307827741</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J884" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -31322,11 +32442,13 @@
         <v>-536751.9307827741</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J885" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -31367,7 +32489,7 @@
         <v>40.8</v>
       </c>
       <c r="J886" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -31408,7 +32530,7 @@
         <v>40.8</v>
       </c>
       <c r="J887" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -31443,11 +32565,13 @@
         <v>-462666.2915827741</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J888" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -31482,11 +32606,13 @@
         <v>-660579.1922827741</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>40.9</v>
+      </c>
       <c r="J889" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -31521,11 +32647,13 @@
         <v>-562346.3007827741</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J890" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -31566,7 +32694,7 @@
         <v>40.7</v>
       </c>
       <c r="J891" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -31601,11 +32729,13 @@
         <v>-487060.3717827741</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J892" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -31644,7 +32774,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -31683,7 +32813,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -31722,7 +32852,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -31761,7 +32891,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -31800,7 +32930,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -31839,7 +32969,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -31878,7 +33008,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -31917,7 +33047,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -31956,7 +33086,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -31995,7 +33125,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -32034,7 +33164,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -32073,7 +33203,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -32112,7 +33242,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -32151,7 +33281,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -32190,7 +33320,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -32229,7 +33359,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -32268,7 +33398,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -32307,7 +33437,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -32346,7 +33476,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -32385,7 +33515,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -32424,7 +33554,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -32463,7 +33593,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -32502,7 +33632,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -32541,7 +33671,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -32580,7 +33710,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -32619,7 +33749,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -32658,7 +33788,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -32697,7 +33827,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -32736,7 +33866,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -32775,7 +33905,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -32814,7 +33944,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -32853,7 +33983,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -32892,7 +34022,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -32931,7 +34061,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -32970,7 +34100,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -33005,19 +34135,19 @@
         <v>151084.222591822</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L928" t="n">
-        <v>1</v>
+        <v>1.046344743276284</v>
       </c>
       <c r="M928" t="inlineStr"/>
     </row>
@@ -33044,17 +34174,11 @@
         <v>151084.222591822</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33083,17 +34207,11 @@
         <v>80967.21869182198</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33125,14 +34243,8 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33161,17 +34273,11 @@
         <v>-30080.77020817803</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33200,17 +34306,11 @@
         <v>-4694.151208178031</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33242,14 +34342,8 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -33281,14 +34375,8 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -33320,14 +34408,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -33359,14 +34441,8 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -33398,14 +34474,8 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -33437,14 +34507,8 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -33476,14 +34540,8 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -33515,14 +34573,8 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33554,14 +34606,8 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33593,14 +34639,8 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33632,14 +34672,8 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33671,14 +34705,8 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33710,14 +34738,8 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33749,14 +34771,8 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33788,14 +34804,8 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33824,17 +34834,11 @@
         <v>147745.425591822</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33866,14 +34870,8 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33902,17 +34900,11 @@
         <v>199292.932091822</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33941,17 +34933,11 @@
         <v>195174.835391822</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33980,17 +34966,11 @@
         <v>102319.474291822</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34022,14 +35002,8 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34061,14 +35035,8 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34097,17 +35065,11 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34136,17 +35098,11 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34178,14 +35134,8 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34217,14 +35167,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34256,14 +35200,8 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34295,14 +35233,8 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34334,14 +35266,8 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34373,14 +35299,8 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34412,14 +35332,8 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34451,14 +35365,8 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34490,14 +35398,8 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34529,14 +35431,8 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34565,17 +35461,11 @@
         <v>-8925.942908178</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34604,17 +35494,11 @@
         <v>2977.878291822</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34643,17 +35527,11 @@
         <v>147824.030791822</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -34685,14 +35563,8 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34724,14 +35596,8 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34763,14 +35629,8 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34802,14 +35662,8 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34841,14 +35695,8 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34880,14 +35728,8 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34919,14 +35761,8 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34958,14 +35794,8 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34997,14 +35827,8 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35036,14 +35860,8 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35075,14 +35893,8 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35114,14 +35926,8 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35153,14 +35959,8 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35192,14 +35992,8 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35231,14 +36025,8 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35270,14 +36058,8 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35309,14 +36091,8 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35348,14 +36124,8 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35387,14 +36157,8 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35426,14 +36190,8 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35465,14 +36223,8 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35504,14 +36256,8 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35543,14 +36289,8 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35582,14 +36322,8 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35621,14 +36355,8 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35660,14 +36388,8 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35699,14 +36421,8 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35738,14 +36454,8 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35777,14 +36487,8 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35816,14 +36520,8 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35855,14 +36553,8 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35894,14 +36586,8 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35933,14 +36619,8 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35972,14 +36652,8 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36011,14 +36685,8 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36050,14 +36718,8 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36089,14 +36751,8 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36128,14 +36784,8 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36164,23 +36814,15 @@
         <v>1509652.64890953</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
-        <v>1.071167076167076</v>
-      </c>
-      <c r="M1009" t="n">
-        <v>1.024630541871921</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="n">
@@ -36205,7 +36847,7 @@
         <v>1396391.92380953</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36238,7 +36880,7 @@
         <v>1447196.50980953</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36271,7 +36913,7 @@
         <v>1395585.36890953</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36304,7 +36946,7 @@
         <v>1015313.26870953</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36337,7 +36979,7 @@
         <v>1075506.68230953</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36370,7 +37012,7 @@
         <v>1075506.68230953</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36403,7 +37045,7 @@
         <v>1010540.87560953</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36436,7 +37078,7 @@
         <v>1010540.87560953</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36469,7 +37111,7 @@
         <v>1000887.77210953</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36502,7 +37144,7 @@
         <v>949021.10530953</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36535,7 +37177,7 @@
         <v>949021.10530953</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36568,7 +37210,7 @@
         <v>949021.10530953</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36601,7 +37243,7 @@
         <v>924800.8052095301</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36700,7 +37342,7 @@
         <v>1117106.05710953</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36766,7 +37408,7 @@
         <v>1036225.66570953</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36799,7 +37441,7 @@
         <v>1036225.66570953</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36832,7 +37474,7 @@
         <v>970582.7105095302</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36865,7 +37507,7 @@
         <v>961387.2821095302</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37030,7 +37672,7 @@
         <v>971601.6504095301</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37063,7 +37705,7 @@
         <v>990744.9140095301</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37096,7 +37738,7 @@
         <v>990744.9140095301</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37129,7 +37771,7 @@
         <v>946423.2775095301</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37162,7 +37804,7 @@
         <v>930896.2716095301</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37195,7 +37837,7 @@
         <v>859227.7662291563</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37228,7 +37870,7 @@
         <v>809946.2908291563</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37261,7 +37903,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37294,7 +37936,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37327,7 +37969,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37360,7 +38002,7 @@
         <v>983489.7217321866</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37393,7 +38035,7 @@
         <v>1000406.044832187</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37426,7 +38068,7 @@
         <v>1002075.671832187</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37459,7 +38101,7 @@
         <v>998522.4911321866</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37492,7 +38134,7 @@
         <v>1143812.213932187</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37525,7 +38167,7 @@
         <v>1126613.428432187</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37536,6 +38178,6 @@
       <c r="M1050" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest FNB.xlsx
+++ b/BackTest/2019-10-21 BackTest FNB.xlsx
@@ -15631,14 +15631,10 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="J462" t="n">
-        <v>40.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
@@ -15668,19 +15664,11 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J463" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15712,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15748,14 +15730,10 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J465" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
@@ -15785,19 +15763,11 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J466" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15826,19 +15796,11 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J467" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15867,14 +15829,10 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J468" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
@@ -15904,19 +15862,11 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J469" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15945,19 +15895,11 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J470" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15986,14 +15928,10 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J471" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
@@ -16023,19 +15961,11 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J472" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16069,9 +15999,7 @@
       <c r="I473" t="n">
         <v>40.9</v>
       </c>
-      <c r="J473" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -16105,14 +16033,10 @@
         <v>-323960.4589987162</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J474" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,14 +16070,10 @@
         <v>-273476.2909987162</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J475" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,14 +16107,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J476" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16228,14 +16144,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J477" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16269,14 +16181,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J478" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16310,14 +16218,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J479" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,14 +16255,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J480" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16392,14 +16292,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J481" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16433,14 +16329,10 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J482" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16479,9 +16371,7 @@
       <c r="I483" t="n">
         <v>40.9</v>
       </c>
-      <c r="J483" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16520,9 +16410,7 @@
       <c r="I484" t="n">
         <v>40.9</v>
       </c>
-      <c r="J484" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16561,9 +16449,7 @@
       <c r="I485" t="n">
         <v>40.9</v>
       </c>
-      <c r="J485" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16602,9 +16488,7 @@
       <c r="I486" t="n">
         <v>40.7</v>
       </c>
-      <c r="J486" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16643,9 +16527,7 @@
       <c r="I487" t="n">
         <v>40.8</v>
       </c>
-      <c r="J487" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16684,9 +16566,7 @@
       <c r="I488" t="n">
         <v>40.8</v>
       </c>
-      <c r="J488" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16725,9 +16605,7 @@
       <c r="I489" t="n">
         <v>40.7</v>
       </c>
-      <c r="J489" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16766,9 +16644,7 @@
       <c r="I490" t="n">
         <v>40.7</v>
       </c>
-      <c r="J490" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16807,9 +16683,7 @@
       <c r="I491" t="n">
         <v>40.7</v>
       </c>
-      <c r="J491" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16848,9 +16722,7 @@
       <c r="I492" t="n">
         <v>40.9</v>
       </c>
-      <c r="J492" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16889,9 +16761,7 @@
       <c r="I493" t="n">
         <v>40.8</v>
       </c>
-      <c r="J493" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16930,9 +16800,7 @@
       <c r="I494" t="n">
         <v>40.9</v>
       </c>
-      <c r="J494" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16971,9 +16839,7 @@
       <c r="I495" t="n">
         <v>40.9</v>
       </c>
-      <c r="J495" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17012,9 +16878,7 @@
       <c r="I496" t="n">
         <v>40.9</v>
       </c>
-      <c r="J496" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17053,9 +16917,7 @@
       <c r="I497" t="n">
         <v>40.9</v>
       </c>
-      <c r="J497" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17094,9 +16956,7 @@
       <c r="I498" t="n">
         <v>40.9</v>
       </c>
-      <c r="J498" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,9 +16995,7 @@
       <c r="I499" t="n">
         <v>40.9</v>
       </c>
-      <c r="J499" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17176,9 +17034,7 @@
       <c r="I500" t="n">
         <v>40.9</v>
       </c>
-      <c r="J500" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17217,9 +17073,7 @@
       <c r="I501" t="n">
         <v>40.9</v>
       </c>
-      <c r="J501" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17258,9 +17112,7 @@
       <c r="I502" t="n">
         <v>40.9</v>
       </c>
-      <c r="J502" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17299,9 +17151,7 @@
       <c r="I503" t="n">
         <v>40.9</v>
       </c>
-      <c r="J503" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17340,9 +17190,7 @@
       <c r="I504" t="n">
         <v>40.9</v>
       </c>
-      <c r="J504" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17381,9 +17229,7 @@
       <c r="I505" t="n">
         <v>40.9</v>
       </c>
-      <c r="J505" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17422,9 +17268,7 @@
       <c r="I506" t="n">
         <v>40.9</v>
       </c>
-      <c r="J506" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17463,9 +17307,7 @@
       <c r="I507" t="n">
         <v>40.9</v>
       </c>
-      <c r="J507" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17504,9 +17346,7 @@
       <c r="I508" t="n">
         <v>40.9</v>
       </c>
-      <c r="J508" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17540,14 +17380,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J509" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,14 +17417,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J510" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,14 +17454,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J511" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17663,14 +17491,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J512" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17704,14 +17528,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J513" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17745,14 +17565,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J514" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17786,14 +17602,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J515" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,14 +17639,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J516" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17868,14 +17676,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J517" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17909,14 +17713,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J518" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17950,14 +17750,10 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J519" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17991,14 +17787,10 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J520" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18032,14 +17824,10 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>41</v>
-      </c>
-      <c r="J521" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18073,14 +17861,10 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>41</v>
-      </c>
-      <c r="J522" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18114,14 +17898,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>41</v>
-      </c>
-      <c r="J523" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18155,14 +17935,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J524" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18196,14 +17972,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J525" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18237,14 +18009,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J526" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18278,14 +18046,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J527" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,14 +18083,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J528" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18360,14 +18120,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J529" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18401,14 +18157,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J530" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18442,14 +18194,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J531" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18483,14 +18231,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J532" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18524,14 +18268,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J533" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18565,14 +18305,10 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J534" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18606,14 +18342,10 @@
         <v>-242331.2766987162</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J535" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18652,9 +18384,7 @@
       <c r="I536" t="n">
         <v>40.8</v>
       </c>
-      <c r="J536" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,14 +18418,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J537" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18729,14 +18455,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J538" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18775,9 +18497,7 @@
       <c r="I539" t="n">
         <v>40.9</v>
       </c>
-      <c r="J539" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18816,9 +18536,7 @@
       <c r="I540" t="n">
         <v>40.9</v>
       </c>
-      <c r="J540" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18857,9 +18575,7 @@
       <c r="I541" t="n">
         <v>40.9</v>
       </c>
-      <c r="J541" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18898,9 +18614,7 @@
       <c r="I542" t="n">
         <v>40.9</v>
       </c>
-      <c r="J542" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18939,9 +18653,7 @@
       <c r="I543" t="n">
         <v>40.9</v>
       </c>
-      <c r="J543" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18980,9 +18692,7 @@
       <c r="I544" t="n">
         <v>40.9</v>
       </c>
-      <c r="J544" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19016,14 +18726,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J545" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19057,14 +18763,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J546" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19098,14 +18800,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J547" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19139,14 +18837,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J548" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19180,14 +18874,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J549" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,14 +18911,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J550" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19262,14 +18948,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J551" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19303,14 +18985,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J552" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19344,14 +19022,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J553" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19385,14 +19059,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J554" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19426,14 +19096,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J555" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19467,14 +19133,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J556" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19508,14 +19170,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J557" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19549,14 +19207,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J558" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19590,14 +19244,10 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J559" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,14 +19281,10 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J560" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19672,14 +19318,10 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>41</v>
-      </c>
-      <c r="J561" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19713,14 +19355,10 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>41</v>
-      </c>
-      <c r="J562" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19754,14 +19392,10 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="J563" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19795,14 +19429,10 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="J564" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19839,9 +19469,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19878,9 +19506,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19914,14 +19540,10 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J567" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19955,14 +19577,10 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>41</v>
-      </c>
-      <c r="J568" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19999,9 +19617,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20035,14 +19651,10 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>41</v>
-      </c>
-      <c r="J570" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20079,9 +19691,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20118,9 +19728,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20157,9 +19765,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20196,9 +19802,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20235,9 +19839,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20274,9 +19876,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20313,9 +19913,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20352,9 +19950,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20391,9 +19987,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20430,9 +20024,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20469,9 +20061,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20508,9 +20098,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20547,9 +20135,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20586,9 +20172,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20625,9 +20209,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20664,9 +20246,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20703,9 +20283,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20742,9 +20320,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20781,9 +20357,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20820,9 +20394,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20859,9 +20431,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20898,9 +20468,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20937,9 +20505,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20976,9 +20542,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21015,9 +20579,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21054,9 +20616,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21093,9 +20653,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21132,9 +20690,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21171,9 +20727,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21210,9 +20764,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21249,9 +20801,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21288,9 +20838,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21327,9 +20875,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21366,9 +20912,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21405,9 +20949,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21444,9 +20986,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21483,9 +21023,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21522,9 +21060,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21558,12 +21094,12 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21597,12 +21133,12 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21641,9 +21177,7 @@
       <c r="I611" t="n">
         <v>40.7</v>
       </c>
-      <c r="J611" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21682,9 +21216,7 @@
       <c r="I612" t="n">
         <v>40.7</v>
       </c>
-      <c r="J612" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21723,9 +21255,7 @@
       <c r="I613" t="n">
         <v>40.7</v>
       </c>
-      <c r="J613" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21764,9 +21294,7 @@
       <c r="I614" t="n">
         <v>40.7</v>
       </c>
-      <c r="J614" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21805,9 +21333,7 @@
       <c r="I615" t="n">
         <v>40.7</v>
       </c>
-      <c r="J615" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21846,9 +21372,7 @@
       <c r="I616" t="n">
         <v>40.7</v>
       </c>
-      <c r="J616" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21887,9 +21411,7 @@
       <c r="I617" t="n">
         <v>40.7</v>
       </c>
-      <c r="J617" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21928,9 +21450,7 @@
       <c r="I618" t="n">
         <v>40.7</v>
       </c>
-      <c r="J618" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21969,9 +21489,7 @@
       <c r="I619" t="n">
         <v>40.7</v>
       </c>
-      <c r="J619" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22010,9 +21528,7 @@
       <c r="I620" t="n">
         <v>40.7</v>
       </c>
-      <c r="J620" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22051,9 +21567,7 @@
       <c r="I621" t="n">
         <v>40.7</v>
       </c>
-      <c r="J621" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22092,9 +21606,7 @@
       <c r="I622" t="n">
         <v>40.7</v>
       </c>
-      <c r="J622" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22133,9 +21645,7 @@
       <c r="I623" t="n">
         <v>40.7</v>
       </c>
-      <c r="J623" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22169,12 +21679,12 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22208,12 +21718,12 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22252,9 +21762,7 @@
       <c r="I626" t="n">
         <v>40.7</v>
       </c>
-      <c r="J626" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22293,9 +21801,7 @@
       <c r="I627" t="n">
         <v>40.7</v>
       </c>
-      <c r="J627" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22329,12 +21835,12 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22373,9 +21879,7 @@
       <c r="I629" t="n">
         <v>40.7</v>
       </c>
-      <c r="J629" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22414,9 +21918,7 @@
       <c r="I630" t="n">
         <v>40.7</v>
       </c>
-      <c r="J630" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22455,9 +21957,7 @@
       <c r="I631" t="n">
         <v>40.7</v>
       </c>
-      <c r="J631" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22496,9 +21996,7 @@
       <c r="I632" t="n">
         <v>40.7</v>
       </c>
-      <c r="J632" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22537,9 +22035,7 @@
       <c r="I633" t="n">
         <v>40.7</v>
       </c>
-      <c r="J633" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22578,9 +22074,7 @@
       <c r="I634" t="n">
         <v>40.7</v>
       </c>
-      <c r="J634" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22619,9 +22113,7 @@
       <c r="I635" t="n">
         <v>40.7</v>
       </c>
-      <c r="J635" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22660,9 +22152,7 @@
       <c r="I636" t="n">
         <v>40.7</v>
       </c>
-      <c r="J636" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22701,9 +22191,7 @@
       <c r="I637" t="n">
         <v>40.7</v>
       </c>
-      <c r="J637" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22742,9 +22230,7 @@
       <c r="I638" t="n">
         <v>40.7</v>
       </c>
-      <c r="J638" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,9 +22269,7 @@
       <c r="I639" t="n">
         <v>40.7</v>
       </c>
-      <c r="J639" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22824,9 +22308,7 @@
       <c r="I640" t="n">
         <v>40.8</v>
       </c>
-      <c r="J640" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22865,9 +22347,7 @@
       <c r="I641" t="n">
         <v>40.8</v>
       </c>
-      <c r="J641" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22906,9 +22386,7 @@
       <c r="I642" t="n">
         <v>40.8</v>
       </c>
-      <c r="J642" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22947,9 +22425,7 @@
       <c r="I643" t="n">
         <v>40.8</v>
       </c>
-      <c r="J643" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22983,14 +22459,10 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J644" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23029,9 +22501,7 @@
       <c r="I645" t="n">
         <v>40.8</v>
       </c>
-      <c r="J645" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23065,14 +22535,10 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J646" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23106,14 +22572,10 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J647" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23147,14 +22609,10 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J648" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23193,9 +22651,7 @@
       <c r="I649" t="n">
         <v>40.8</v>
       </c>
-      <c r="J649" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23234,9 +22690,7 @@
       <c r="I650" t="n">
         <v>40.8</v>
       </c>
-      <c r="J650" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23275,9 +22729,7 @@
       <c r="I651" t="n">
         <v>40.8</v>
       </c>
-      <c r="J651" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23311,14 +22763,10 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J652" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23355,9 +22803,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23394,9 +22840,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23433,9 +22877,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23472,9 +22914,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23511,9 +22951,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23550,9 +22988,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23589,9 +23025,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23628,9 +23062,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23667,9 +23099,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23706,9 +23136,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23745,9 +23173,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23784,9 +23210,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23823,9 +23247,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23862,9 +23284,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23901,9 +23321,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23940,9 +23358,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23979,9 +23395,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24018,9 +23432,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24057,9 +23469,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24096,9 +23506,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24135,9 +23543,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24174,9 +23580,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24213,9 +23617,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24252,9 +23654,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24291,9 +23691,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24330,9 +23728,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24369,9 +23765,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24408,9 +23802,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24447,9 +23839,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24486,9 +23876,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24525,9 +23913,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24564,9 +23950,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24603,9 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24642,9 +24024,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24681,9 +24061,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24720,9 +24098,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24759,9 +24135,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24798,9 +24172,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24837,9 +24209,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24876,9 +24246,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24915,9 +24283,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24954,9 +24320,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24993,9 +24357,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25032,9 +24394,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25071,9 +24431,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25110,9 +24468,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25149,9 +24505,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25188,9 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25227,9 +24579,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25266,9 +24616,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25305,9 +24653,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25344,9 +24690,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25383,9 +24727,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25422,9 +24764,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25461,9 +24801,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25500,9 +24838,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25539,9 +24875,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25578,9 +24912,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25617,9 +24949,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25656,9 +24986,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25695,9 +25023,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25734,9 +25060,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25773,9 +25097,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25812,9 +25134,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25851,9 +25171,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25890,9 +25208,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25929,9 +25245,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25968,9 +25282,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26007,9 +25319,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26046,9 +25356,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26085,9 +25393,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26124,9 +25430,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26163,9 +25467,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26202,9 +25504,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26241,9 +25541,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26280,9 +25578,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26319,9 +25615,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26358,9 +25652,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26397,9 +25689,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26436,9 +25726,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26475,9 +25763,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26514,9 +25800,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26553,9 +25837,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26592,9 +25874,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26631,9 +25911,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26670,9 +25948,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26709,9 +25985,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26748,9 +26022,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26787,9 +26059,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26826,9 +26096,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26862,14 +26130,10 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J743" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26903,14 +26167,10 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J744" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26944,14 +26204,10 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J745" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26985,14 +26241,10 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J746" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27026,14 +26278,10 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J747" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27067,14 +26315,10 @@
         <v>-191893.3362866388</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J748" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27111,9 +26355,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27150,9 +26392,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27189,9 +26429,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27228,9 +26466,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27267,9 +26503,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27306,9 +26540,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27342,14 +26574,10 @@
         <v>-246275.5528866388</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J755" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27383,14 +26611,10 @@
         <v>-209206.9476866388</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J756" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27424,14 +26648,10 @@
         <v>-207887.9720866388</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>41</v>
-      </c>
-      <c r="J757" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27468,9 +26688,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27507,9 +26725,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27546,9 +26762,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27585,9 +26799,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27624,9 +26836,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27663,9 +26873,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27702,9 +26910,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27741,9 +26947,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27780,9 +26984,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27819,9 +27021,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27858,9 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27897,9 +27095,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27936,9 +27132,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27975,9 +27169,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28014,9 +27206,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28053,9 +27243,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28092,9 +27280,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28131,9 +27317,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28170,9 +27354,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28206,14 +27388,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J777" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28247,14 +27425,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J778" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28288,14 +27462,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J779" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28329,14 +27499,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J780" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28370,14 +27536,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J781" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28411,14 +27573,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J782" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28452,14 +27610,10 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J783" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28496,9 +27650,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28532,14 +27684,10 @@
         <v>-248708.7868866388</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="J785" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28576,9 +27724,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28615,9 +27761,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28654,9 +27798,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28693,9 +27835,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28732,9 +27872,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28771,9 +27909,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28810,9 +27946,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28849,9 +27983,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28888,9 +28020,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28927,9 +28057,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28966,9 +28094,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29005,9 +28131,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29044,9 +28168,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29080,12 +28202,12 @@
         <v>-320711.2528866388</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29122,9 +28244,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29158,12 +28278,12 @@
         <v>-532093.6310866389</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29197,12 +28317,12 @@
         <v>-447718.1726866389</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29236,12 +28356,12 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29275,12 +28395,12 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29314,12 +28434,12 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29353,12 +28473,12 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29397,9 +28517,7 @@
       <c r="I807" t="n">
         <v>40.8</v>
       </c>
-      <c r="J807" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29438,9 +28556,7 @@
       <c r="I808" t="n">
         <v>40.8</v>
       </c>
-      <c r="J808" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29474,12 +28590,12 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>41</v>
+      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29513,12 +28629,12 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>41</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29552,12 +28668,12 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>41</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29591,12 +28707,12 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>41</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29630,12 +28746,12 @@
         <v>-469090.2771866389</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>41</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29672,9 +28788,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29711,9 +28825,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29750,9 +28862,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29786,12 +28896,12 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>41</v>
+      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29825,12 +28935,12 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>41</v>
+      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29864,12 +28974,12 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>41</v>
+      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29903,12 +29013,12 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>41</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29942,12 +29052,12 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>41</v>
+      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29981,12 +29091,12 @@
         <v>-412517.3562866389</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>41</v>
+      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30023,9 +29133,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30062,9 +29170,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30101,9 +29207,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30140,9 +29244,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30179,9 +29281,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30218,9 +29318,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30257,9 +29355,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30296,9 +29392,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30335,9 +29429,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30374,9 +29466,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30413,9 +29503,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30452,9 +29540,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30491,9 +29577,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30530,9 +29614,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30569,9 +29651,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30608,9 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30647,9 +29725,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30686,9 +29762,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30725,9 +29799,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30764,9 +29836,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30803,9 +29873,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30842,9 +29910,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30881,9 +29947,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30920,9 +29984,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30959,9 +30021,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30998,9 +30058,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31037,9 +30095,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31076,9 +30132,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31115,9 +30169,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31154,9 +30206,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31193,9 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31232,9 +30280,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31271,9 +30317,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31310,9 +30354,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31349,9 +30391,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31388,9 +30428,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31427,9 +30465,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31466,9 +30502,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31505,9 +30539,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31544,9 +30576,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31583,9 +30613,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31622,9 +30650,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31661,9 +30687,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31700,9 +30724,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31739,9 +30761,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31778,9 +30798,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31817,9 +30835,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31856,9 +30872,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31895,9 +30909,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31934,9 +30946,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31973,9 +30983,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32012,9 +31020,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32051,9 +31057,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32090,9 +31094,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32129,9 +31131,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32168,9 +31168,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32207,9 +31205,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32246,9 +31242,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32285,9 +31279,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32324,9 +31316,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32360,14 +31350,10 @@
         <v>-536751.9307827741</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J883" t="n">
-        <v>40.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32406,9 +31392,7 @@
       <c r="I884" t="n">
         <v>40.8</v>
       </c>
-      <c r="J884" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32447,9 +31431,7 @@
       <c r="I885" t="n">
         <v>40.8</v>
       </c>
-      <c r="J885" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32488,9 +31470,7 @@
       <c r="I886" t="n">
         <v>40.8</v>
       </c>
-      <c r="J886" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32529,9 +31509,7 @@
       <c r="I887" t="n">
         <v>40.8</v>
       </c>
-      <c r="J887" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32570,9 +31548,7 @@
       <c r="I888" t="n">
         <v>40.9</v>
       </c>
-      <c r="J888" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32611,9 +31587,7 @@
       <c r="I889" t="n">
         <v>40.9</v>
       </c>
-      <c r="J889" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32652,9 +31626,7 @@
       <c r="I890" t="n">
         <v>40.6</v>
       </c>
-      <c r="J890" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32693,9 +31665,7 @@
       <c r="I891" t="n">
         <v>40.7</v>
       </c>
-      <c r="J891" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32734,9 +31704,7 @@
       <c r="I892" t="n">
         <v>41.1</v>
       </c>
-      <c r="J892" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32770,12 +31738,12 @@
         <v>-487060.3717827741</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32809,12 +31777,12 @@
         <v>-423867.5666827741</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32848,12 +31816,12 @@
         <v>-625910.7280827741</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32890,9 +31858,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32929,9 +31895,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32968,9 +31932,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33007,9 +31969,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33046,9 +32006,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33085,9 +32043,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33121,12 +32077,12 @@
         <v>-705953.212482774</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>40.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>41</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33163,9 +32119,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33202,9 +32156,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33241,9 +32193,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33280,9 +32230,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33319,9 +32267,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33358,9 +32304,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33397,9 +32341,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33436,9 +32378,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33475,9 +32415,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33514,9 +32452,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33553,9 +32489,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33592,9 +32526,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33631,9 +32563,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33670,9 +32600,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33709,9 +32637,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33748,9 +32674,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33787,9 +32711,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33826,9 +32748,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33865,9 +32785,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33904,9 +32822,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33943,9 +32859,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33982,9 +32896,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34021,9 +32933,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34060,9 +32970,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34099,9 +33007,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34135,19 +33041,17 @@
         <v>151084.222591822</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>40.9</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L928" t="n">
-        <v>1.046344743276284</v>
+        <v>1</v>
       </c>
       <c r="M928" t="inlineStr"/>
     </row>
@@ -34174,11 +33078,15 @@
         <v>151084.222591822</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -34207,11 +33115,15 @@
         <v>80967.21869182198</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -34244,7 +33156,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -34273,11 +33189,15 @@
         <v>-30080.77020817803</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -34306,11 +33226,15 @@
         <v>-4694.151208178031</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -34343,7 +33267,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -34376,7 +33304,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -34409,7 +33341,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -34442,7 +33378,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -34475,7 +33415,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -34508,7 +33452,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -34541,7 +33489,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -34574,7 +33526,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -34607,7 +33563,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -34640,7 +33600,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34673,7 +33637,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34706,7 +33674,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -34739,7 +33711,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -34772,7 +33748,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34805,7 +33785,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -34834,11 +33818,15 @@
         <v>147745.425591822</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34871,7 +33859,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34900,11 +33892,15 @@
         <v>199292.932091822</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34933,11 +33929,15 @@
         <v>195174.835391822</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34966,11 +33966,15 @@
         <v>102319.474291822</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -35003,7 +34007,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -35036,7 +34044,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -35065,11 +34077,15 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -35098,11 +34114,15 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -35135,7 +34155,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -35168,7 +34192,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35201,7 +34229,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35234,7 +34266,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35267,7 +34303,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35300,7 +34340,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -35333,7 +34377,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -35366,7 +34414,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -35399,7 +34451,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -35432,7 +34488,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -35461,11 +34521,15 @@
         <v>-8925.942908178</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -35494,11 +34558,15 @@
         <v>2977.878291822</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35527,11 +34595,15 @@
         <v>147824.030791822</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35564,7 +34636,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35597,7 +34673,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35630,7 +34710,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35663,7 +34747,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35696,7 +34784,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35729,7 +34821,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35762,7 +34858,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35795,7 +34895,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35828,7 +34932,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35861,7 +34969,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35894,7 +35006,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35927,7 +35043,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35960,7 +35080,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35993,7 +35117,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -36026,7 +35154,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -36059,7 +35191,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -36092,7 +35228,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -36125,7 +35265,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -36158,7 +35302,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -36191,7 +35339,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -36224,7 +35376,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -36257,7 +35413,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -36290,7 +35450,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -36323,7 +35487,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -36356,7 +35524,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -36389,7 +35561,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36422,7 +35598,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36455,7 +35635,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36488,7 +35672,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36521,7 +35709,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36550,14 +35742,16 @@
         <v>1453005.25670953</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1001" t="inlineStr"/>
       <c r="M1001" t="inlineStr"/>
     </row>
     <row r="1002">
@@ -36583,7 +35777,7 @@
         <v>1597315.08570953</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
